--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>no</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1wpT1QC3NGxsF2BLtn3HYirOfgWFH0IM6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
   <si>
     <t>Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit</t>
@@ -410,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -426,6 +435,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -442,8 +474,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,17 +505,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,14 +531,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,7 +559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +573,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -549,35 +587,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -588,187 +597,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,17 +791,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,6 +822,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,163 +888,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2208,634 +2217,725 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="60.4666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
+        <v>('Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit','https://drive.google.com/drive/folders/1RuSDmgESFMhilr4BjluaMU3n3kRBFifo'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D21" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
+        <v>('Enefte - NFT Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/1uuetQ5XyBHfS8rDtAka3LOPI6PXhb5BX'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>('Enkel - Furniture Company Template Kit','https://drive.google.com/drive/folders/1CKDH2rLZgwzh-uMe8ic9ypllq_Hq-Ibs'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>('Enovasien - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1ASWlAPm4qoTpxSjAnDTZuwDIJjLdmG9h'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>('Enton - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1ziD3rj-TdN7TOC2bT5_NKgrZFKGABLUJ'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>('Exolve - Creative Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/1jL-jAb-y58r7AuVo3B447OhmT6-hq5L8?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>('Fidda - Portfolio &amp; Agency Elementor Template Kit','https://drive.google.com/drive/folders/19oZzQVU9nGkALGIrLysnwyTkyqkVJGjI?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>('Figura - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1hlkwsEjp_Qd9kZD2TsePOnKC_dzPDiDV?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>('Finterior - Interior Design &amp; Architecture  Elementor Template Kit','https://drive.google.com/drive/folders/1Wnl1HHGG6GvMKRcOdMaKCE3dmTS0kANS?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>('Floki - Photography Studio Elementor Template Kit','https://drive.google.com/drive/folders/1D38lQskFIqyweXpmr_7V1G1k2P_dgRR_?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>('Flow - Creative Agency Business Elementor Template Kit','https://drive.google.com/drive/folders/1c-zfJyCgUdB846KVxZAHFVNzge-0K0pi?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>('Floy - Interior Design &amp; Architecture Elementor template kit','https://drive.google.com/drive/folders/1Nps3VWWEzOHd0ZewFEmfZD3_8-7hx7J5?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrontThree - Creative Studio Template Kit','https://drive.google.com/drive/folders/1bepFJIKZ8OUUrxnVmXyTLYIfzPrIy3WT?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrontTwo - Creative Studio Template Kit','https://drive.google.com/drive/folders/1imK-Ph4uFqhMNNx0c8mbQ07qCsY1opbo?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>('Fumia - Startup Agency Elementor Template Kit','https://drive.google.com/drive/folders/1f5eZPsllkEJIqvu_bui60-9qts31CZi6?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>('Furnityn -  Interior Design Elementor Kit Template','https://drive.google.com/drive/folders/1hgbWdCsIELAjhLQMLW5xmXycUoElVZou?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>('Gaudy - Dark Digital Agency Elementor Template Kit','https://drive.google.com/drive/folders/1GUHj0ag86BRVkTqw-J9xnWCsSZ3D4lLI?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>('Genion - Creative Digital Agency Elementor Template Kit','https://drive.google.com/drive/folders/1EA-5R7evgVokYIYacJr_uM0W3GlrfBO8?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>('Give Boost - Digital Marketing Agency Elementor Template Kit','https://drive.google.com/drive/folders/1IuDMkhbW5ik6OMz7Ba_EAo6TU20xetYo?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>21</v>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>('Goodman - Creative Portofolio Elementor Template Kit','https://drive.google.com/drive/folders/1WyZKDWC2GXRcfqUZz_enN46HGspC6cLm?usp=sharing'),</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
         <v>100</v>
       </c>
     </row>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>no</t>
   </si>
@@ -33,256 +34,154 @@
     <t>link drive</t>
   </si>
   <si>
-    <t>Arstech - Architecture Elementor Pro Full Site Template Kit</t>
-  </si>
-  <si>
-    <t>Arstech-babiato-@TingTung|https://drive.google.com/file/d/1WXqHcHyJwahhYZPLnEnLck8WqsjGRXLf/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Arstech-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WXqHcHyJwahhYZPLnEnLck8WqsjGRXLf/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Articio - Art &amp; Drawing School Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Articio-babiato-@TingTung|https://drive.google.com/file/d/1YTtcbWlvdfJhu-4Z330FN8pb_IAecuVm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Articio-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YTtcbWlvdfJhu-4Z330FN8pb_IAecuVm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Artistant - Creative Photography Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Artistant-babiato-@TingTung|https://drive.google.com/file/d/1UIp6srwLgi6P7ZrUSRQyHX57pE4gq5HW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Artistant-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UIp6srwLgi6P7ZrUSRQyHX57pE4gq5HW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Atra - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Atra-babiato-@TingTung|https://drive.google.com/file/d/1ra7_d-OU-BUddcpLRBnwWJqqSro0ixuF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Atra-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ra7_d-OU-BUddcpLRBnwWJqqSro0ixuF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Avatar - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Avatar-babiato-@TingTung|https://drive.google.com/file/d/1Pqzc4paem58lNcHL1KkeWbj5OKkiiQ1e/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Avatar-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Pqzc4paem58lNcHL1KkeWbj5OKkiiQ1e/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Avviare Start Up Business Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Avviare-babiato-@TingTung|https://drive.google.com/file/d/1OO5955mfePX8Myef04OzHJw1PlFtXEKL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Avviare-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OO5955mfePX8Myef04OzHJw1PlFtXEKL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Barsa - SEO &amp; Digital Marketing Agency Template Kit</t>
-  </si>
-  <si>
-    <t>Barsa-babiato-@TingTung|https://drive.google.com/file/d/1tsXmYS490chGqfNsWMHMI4p_V2bhtiMX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Barsa-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tsXmYS490chGqfNsWMHMI4p_V2bhtiMX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Baxter - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Baxter-babiato-@TingTung|https://drive.google.com/file/d/1_uX3fy-SnCizpi5JUmLrC1-zyLKNxOUJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Baxter-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_uX3fy-SnCizpi5JUmLrC1-zyLKNxOUJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Birru - Simple Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Birru-babiato-@TingTung|https://drive.google.com/file/d/1jFNZpu_oZK74lSLUF3oeomNPTWpKxNWT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Birru-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jFNZpu_oZK74lSLUF3oeomNPTWpKxNWT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Bitexco - Creative Interior Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Bitexco-babiato-@TingTung|https://drive.google.com/file/d/1QbPKsspe8dkM1O5Qd0TClddgvDylP0uK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Bitexco-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QbPKsspe8dkM1O5Qd0TClddgvDylP0uK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Booster - Digital Marketing Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Booster-babiato-@TingTung|https://drive.google.com/file/d/18OS76iIENEALi-aBsE5Pb6fKNKMq8kPU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Booster-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18OS76iIENEALi-aBsE5Pb6fKNKMq8kPU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Brutal - Creative Agency &amp; Advertising Service Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Brutal-babiato-@TingTung|https://drive.google.com/file/d/1_xGdm6Vlrt5bdJ-So921JvFs_Pc-4Odx/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Brutal-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_xGdm6Vlrt5bdJ-So921JvFs_Pc-4Odx/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Byra - Creative Agency &amp; Modern Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Byra-babiato-@TingTung|https://drive.google.com/file/d/1RdM_9G9iDW6rI08sbZWAJWiF4TqNb1Q4/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Byra-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RdM_9G9iDW6rI08sbZWAJWiF4TqNb1Q4/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>C.AGE - Creative Agency Personal Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>C.AGE-babiato-@TingTung|https://drive.google.com/file/d/12CS6Z8vvHjH0kyrZRBMgiReBvFtMT5GA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>C.AGE-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12CS6Z8vvHjH0kyrZRBMgiReBvFtMT5GA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>CaYo - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>CaYo-babiato-@TingTung|https://drive.google.com/file/d/1DXofOmpO4BugV1R351yqhjuJXx3FBaPb/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>CaYo-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DXofOmpO4BugV1R351yqhjuJXx3FBaPb/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>CETUS - Creative Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>CETUS-babiato-@TingTung|https://drive.google.com/file/d/1WcET6JQff1Se6lXYLArnEkhFlCHE8uwD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>CETUS-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WcET6JQff1Se6lXYLArnEkhFlCHE8uwD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>ClickIT - Creative Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>ClickIT-babiato-@TingTung|https://drive.google.com/file/d/1qsz8RseshZ-eeSijt-07oswZ9iXyD7mC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>ClickIT-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qsz8RseshZ-eeSijt-07oswZ9iXyD7mC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Colabora - Creative Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>colabora-babiato-@TingTung|https://drive.google.com/file/d/1O7wsirRVGMB0WNPfzc8vq8NyM_VY3S5N/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>colabora-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1O7wsirRVGMB0WNPfzc8vq8NyM_VY3S5N/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Collect - NFT Design Agency Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Collect-babiato-@TingTung|https://drive.google.com/file/d/1D64yqG-MRnw1sObgwqmGpYzlBhfhwt2p/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Collect-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1D64yqG-MRnw1sObgwqmGpYzlBhfhwt2p/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Cooper Studio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Cooper Studio-babiato-@TingTung|https://drive.google.com/file/d/1p2faTZzKSgc8nVjKJmTlIFghNKkxsWKD/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Cooper Studio-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1p2faTZzKSgc8nVjKJmTlIFghNKkxsWKD/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Craftso - Crafting Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Craftso-babiato-@TingTung|https://drive.google.com/file/d/1wpT1QC3NGxsF2BLtn3HYirOfgWFH0IM6/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Craftso-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wpT1QC3NGxsF2BLtn3HYirOfgWFH0IM6/view?usp=sharing</t>
+    <t>Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>Enefte - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Enkel - Furniture Company Template Kit</t>
+  </si>
+  <si>
+    <t>Enovasien - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Enton - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Exolve - Creative Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Fidda - Portfolio &amp; Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Figura - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Finterior - Interior Design &amp; Architecture  Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Floki - Photography Studio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Flow - Creative Agency Business Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Floy - Interior Design &amp; Architecture Elementor template kit</t>
+  </si>
+  <si>
+    <t>FrontThree - Creative Studio Template Kit</t>
+  </si>
+  <si>
+    <t>FrontTwo - Creative Studio Template Kit</t>
+  </si>
+  <si>
+    <t>Fumia - Startup Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Furnityn -  Interior Design Elementor Kit Template</t>
+  </si>
+  <si>
+    <t>Gaudy - Dark Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Genion - Creative Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Give Boost - Digital Marketing Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Goodman - Creative Portofolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Grasp - Creative Portfolio &amp; Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Greeny - Interior Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Gulali - Creative Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Hagge - Creative Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Hanan - Interior Design &amp; Furniture Store Elementor Template kit</t>
+  </si>
+  <si>
+    <t>Hayka - Hiking &amp; Camping Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Helion - Creative Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Heru - Creative Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Hillary - Creative Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Hoax - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Housedeco - Interior Design Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>INGENISM - Architectural Design Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Inner - Interior Design &amp; Architecture Template Kit</t>
+  </si>
+  <si>
+    <t>Interi - Creative Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Interi - Interior Design Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Interyours - Home Interior Design Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Intra - Modern Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>ItsMyKit - Dark Creative Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Kreatifa - Creative Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Leacraft - Handmade Crafts Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Levi - Digital Marketing Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Lizent - Creative Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Luka - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Lumina - Creatives &amp; Business Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Lummox - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Lykke - Creative Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Manan - Interior Designer Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Mapan - Digital Marketing Template Kits</t>
+  </si>
+  <si>
+    <t>Maser - Web Design Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Mexa - Digital Agency Elementor Template Kit</t>
   </si>
   <si>
     <t>No</t>
@@ -294,124 +193,202 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1RuSDmgESFMhilr4BjluaMU3n3kRBFifo</t>
   </si>
   <si>
-    <t>Enefte - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1uuetQ5XyBHfS8rDtAka3LOPI6PXhb5BX</t>
   </si>
   <si>
-    <t>Enkel - Furniture Company Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1CKDH2rLZgwzh-uMe8ic9ypllq_Hq-Ibs</t>
   </si>
   <si>
-    <t>Enovasien - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1ASWlAPm4qoTpxSjAnDTZuwDIJjLdmG9h</t>
   </si>
   <si>
-    <t>Enton - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1ziD3rj-TdN7TOC2bT5_NKgrZFKGABLUJ</t>
   </si>
   <si>
-    <t>Exolve - Creative Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1jL-jAb-y58r7AuVo3B447OhmT6-hq5L8?usp=sharing</t>
   </si>
   <si>
-    <t>Fidda - Portfolio &amp; Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/19oZzQVU9nGkALGIrLysnwyTkyqkVJGjI?usp=sharing</t>
   </si>
   <si>
-    <t>Figura - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1hlkwsEjp_Qd9kZD2TsePOnKC_dzPDiDV?usp=sharing</t>
   </si>
   <si>
-    <t>Finterior - Interior Design &amp; Architecture  Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1Wnl1HHGG6GvMKRcOdMaKCE3dmTS0kANS?usp=sharing</t>
   </si>
   <si>
-    <t>Floki - Photography Studio Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1D38lQskFIqyweXpmr_7V1G1k2P_dgRR_?usp=sharing</t>
   </si>
   <si>
-    <t>Flow - Creative Agency Business Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1c-zfJyCgUdB846KVxZAHFVNzge-0K0pi?usp=sharing</t>
   </si>
   <si>
-    <t>Floy - Interior Design &amp; Architecture Elementor template kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1Nps3VWWEzOHd0ZewFEmfZD3_8-7hx7J5?usp=sharing</t>
   </si>
   <si>
-    <t>FrontThree - Creative Studio Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1bepFJIKZ8OUUrxnVmXyTLYIfzPrIy3WT?usp=sharing</t>
   </si>
   <si>
-    <t>FrontTwo - Creative Studio Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1imK-Ph4uFqhMNNx0c8mbQ07qCsY1opbo?usp=sharing</t>
   </si>
   <si>
-    <t>Fumia - Startup Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1f5eZPsllkEJIqvu_bui60-9qts31CZi6?usp=sharing</t>
   </si>
   <si>
-    <t>Furnityn -  Interior Design Elementor Kit Template</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1hgbWdCsIELAjhLQMLW5xmXycUoElVZou?usp=sharing</t>
   </si>
   <si>
-    <t>Gaudy - Dark Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1GUHj0ag86BRVkTqw-J9xnWCsSZ3D4lLI?usp=sharing</t>
   </si>
   <si>
-    <t>Genion - Creative Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1EA-5R7evgVokYIYacJr_uM0W3GlrfBO8?usp=sharing</t>
   </si>
   <si>
-    <t>Give Boost - Digital Marketing Agency Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1IuDMkhbW5ik6OMz7Ba_EAo6TU20xetYo?usp=sharing</t>
   </si>
   <si>
-    <t>Goodman - Creative Portofolio Elementor Template Kit</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1WyZKDWC2GXRcfqUZz_enN46HGspC6cLm?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1hGgifF566Bd2MRTZgbNFFI8kOawcQYd6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/19sKRzwPsD4ig2BQTkD0xfE957RHiTjYV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1BixBIXm1PW_8wlNuc4ItzKtnwjnJXSsb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/19zo8OIcM7148JTwzoNTS74ZRsjsbQFHc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1wA6eg8WJudZgyDn5FomiTmkJA82xc1KP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1QrOeQw_0jehJdNjQo3XOjWXRJ2DdUSkP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/13_n_tXEt6E0-xnBBts8dDdhNA4onV4ip</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1WeXKvoyUXpr2Tn6M3PFCucyl61Np4azd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1zorm46X5ZirrHuUGJZrj_RHPIV07FvNK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1OaYTJcw-d2m8PHlGZLUDw24F-BW4npS-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/17mBBw0lKH6bU0NGWdk6bo8Vq66sswwLY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Z2jXibfa0jIh6vNCXW7J1BOFLSjZDa__</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1JGraoMl-e7gC5VOi3CABf2hVEnpJhlI7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1zNWio-gGleSs6ZbGu9YW7l9vbUUqMa0L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1GKYtWjwZGZgQGBRfs917j5NqdIbh2keV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1JqEz_IhMsm8omoSKOePKaYmKtc2d9S5y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1qhxeMFWnk_jSYwxDEL7t02XFkKv8ME_a?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1tPG_cEVdGHbMck428my2YK1878p_hhrE?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1XyyuvKtQHCsgt1btS84P-sKzaBCaqMtc?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1jQpNvoKMgkfwtmKMEEa9T-D0GK-snBIe?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1eQFwLYaAQmphUHYPkdHbl4Mbbo_rh54_?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/13ivJE3Hgn6s3WpWvFrgSFR7aUa0mbNO-?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1roJH_vY3N_s30TRT2pbxBGgXBeNB3KU7?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1X-KAXyIFqXUTH8iAxVejqEzTOORtJh7E?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Dmown1PPu8LJQokURfGp9I3LWzWcRm8d?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1mKKljan458UoziL_SMBxMw3TWEwf8Tyb?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1kyqwOAQwXJX9l4R_hBqfJjJfbdpzg7sT?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1UczFbAfzQ372QSY3sKSqcItfop75zMqF?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1XL59ehjR_hlU8NHGj13rSAnjZANxtD_Y?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1DXQEEDr8st_7jYSmAsLckcbEYheg_xAm?usp=sharing</t>
+  </si>
+  <si>
+    <t>Grasp - Creative Portfolio &amp; Agency Elementor Template Kit|https://drive.google.com/drive/folders/1hGgifF566Bd2MRTZgbNFFI8kOawcQYd6</t>
+  </si>
+  <si>
+    <t>Greeny - Interior Elementor Template Kit|https://drive.google.com/drive/folders/19sKRzwPsD4ig2BQTkD0xfE957RHiTjYV</t>
+  </si>
+  <si>
+    <t>Gulali - Creative Portfolio Elementor Template Kit|https://drive.google.com/drive/folders/1BixBIXm1PW_8wlNuc4ItzKtnwjnJXSsb</t>
+  </si>
+  <si>
+    <t>Hagge - Creative Portfolio Elementor Template Kit|https://drive.google.com/drive/folders/19zo8OIcM7148JTwzoNTS74ZRsjsbQFHc</t>
+  </si>
+  <si>
+    <t>Hanan - Interior Design &amp; Furniture Store Elementor Template kit|https://drive.google.com/drive/folders/1wA6eg8WJudZgyDn5FomiTmkJA82xc1KP</t>
+  </si>
+  <si>
+    <t>Hayka - Hiking &amp; Camping Elementor Template Kit|https://drive.google.com/drive/folders/1QrOeQw_0jehJdNjQo3XOjWXRJ2DdUSkP</t>
+  </si>
+  <si>
+    <t>Helion - Creative Portfolio Elementor Template Kit|https://drive.google.com/drive/folders/13_n_tXEt6E0-xnBBts8dDdhNA4onV4ip</t>
+  </si>
+  <si>
+    <t>Heru - Creative Elementor Template Kit|https://drive.google.com/drive/folders/1WeXKvoyUXpr2Tn6M3PFCucyl61Np4azd</t>
+  </si>
+  <si>
+    <t>Hillary - Creative Portfolio Elementor Template Kit|https://drive.google.com/drive/folders/1zorm46X5ZirrHuUGJZrj_RHPIV07FvNK</t>
+  </si>
+  <si>
+    <t>Hoax - Creative Agency Elementor Template Kit|https://drive.google.com/drive/folders/1OaYTJcw-d2m8PHlGZLUDw24F-BW4npS-</t>
+  </si>
+  <si>
+    <t>Housedeco - Interior Design Elementor Template Kit|https://drive.google.com/drive/folders/17mBBw0lKH6bU0NGWdk6bo8Vq66sswwLY</t>
+  </si>
+  <si>
+    <t>INGENISM - Architectural Design Agency Elementor Template Kit|https://drive.google.com/drive/folders/1Z2jXibfa0jIh6vNCXW7J1BOFLSjZDa__</t>
+  </si>
+  <si>
+    <t>Inner - Interior Design &amp; Architecture Template Kit|https://drive.google.com/drive/folders/1JGraoMl-e7gC5VOi3CABf2hVEnpJhlI7</t>
+  </si>
+  <si>
+    <t>Interi - Creative Elementor Template Kit|https://drive.google.com/drive/folders/1zNWio-gGleSs6ZbGu9YW7l9vbUUqMa0L</t>
+  </si>
+  <si>
+    <t>Interi - Interior Design Elementor Template Kit|https://drive.google.com/drive/folders/1GKYtWjwZGZgQGBRfs917j5NqdIbh2keV</t>
+  </si>
+  <si>
+    <t>Interyours - Home Interior Design Elementor Template Kit|https://drive.google.com/drive/folders/1JqEz_IhMsm8omoSKOePKaYmKtc2d9S5y</t>
   </si>
 </sst>
 </file>
@@ -419,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -432,12 +409,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -445,8 +431,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,53 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +496,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -558,16 +528,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,13 +559,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,25 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +598,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,31 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +712,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,13 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,25 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,20 +776,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,21 +809,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,6 +846,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -893,143 +876,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1353,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1383,18 +1375,12 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F22" si="0">"insert into laporan_wp(judul,nama_gambar,mega_download) values('"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"');"</f>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Arstech - Architecture Elementor Pro Full Site Template Kit','Arstech-babiato-@TingTung','https://drive.google.com/file/d/1WXqHcHyJwahhYZPLnEnLck8WqsjGRXLf/view?usp=sharing');</v>
+        <f>"('"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"'),"</f>
+        <v>('Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit','',''),</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1402,20 +1388,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Articio - Art &amp; Drawing School Elementor Template Kit','Articio-babiato-@TingTung','https://drive.google.com/file/d/1YTtcbWlvdfJhu-4Z330FN8pb_IAecuVm/view?usp=sharing');</v>
+        <f t="shared" ref="F3:F22" si="0">"('"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"'),"</f>
+        <v>('Enefte - NFT Portfolio Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1423,20 +1403,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Artistant - Creative Photography Portfolio Elementor Template Kit','Artistant-babiato-@TingTung','https://drive.google.com/file/d/1UIp6srwLgi6P7ZrUSRQyHX57pE4gq5HW/view?usp=sharing');</v>
+        <v>('Enkel - Furniture Company Template Kit','',''),</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1444,20 +1418,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Atra - Creative Agency Elementor Template Kit','Atra-babiato-@TingTung','https://drive.google.com/file/d/1ra7_d-OU-BUddcpLRBnwWJqqSro0ixuF/view?usp=sharing');</v>
+        <v>('Enovasien - Creative Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1465,20 +1433,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Avatar - NFT Portfolio Elementor Template Kit','Avatar-babiato-@TingTung','https://drive.google.com/file/d/1Pqzc4paem58lNcHL1KkeWbj5OKkiiQ1e/view?usp=sharing');</v>
+        <v>('Enton - Creative Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1486,20 +1448,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Avviare Start Up Business Elementor Template Kit','Avviare-babiato-@TingTung','https://drive.google.com/file/d/1OO5955mfePX8Myef04OzHJw1PlFtXEKL/view?usp=sharing');</v>
+        <v>('Exolve - Creative Portfolio Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1507,20 +1463,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Barsa - SEO &amp; Digital Marketing Agency Template Kit','Barsa-babiato-@TingTung','https://drive.google.com/file/d/1tsXmYS490chGqfNsWMHMI4p_V2bhtiMX/view?usp=sharing');</v>
+        <v>('Fidda - Portfolio &amp; Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1528,20 +1478,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Baxter - Creative Agency Elementor Template Kit','Baxter-babiato-@TingTung','https://drive.google.com/file/d/1_uX3fy-SnCizpi5JUmLrC1-zyLKNxOUJ/view?usp=sharing');</v>
+        <v>('Figura - Creative Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1549,20 +1493,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Birru - Simple Portfolio Elementor Template Kit','Birru-babiato-@TingTung','https://drive.google.com/file/d/1jFNZpu_oZK74lSLUF3oeomNPTWpKxNWT/view?usp=sharing');</v>
+        <v>('Finterior - Interior Design &amp; Architecture  Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1570,20 +1508,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Bitexco - Creative Interior Elementor Template Kit','Bitexco-babiato-@TingTung','https://drive.google.com/file/d/1QbPKsspe8dkM1O5Qd0TClddgvDylP0uK/view?usp=sharing');</v>
+        <v>('Floki - Photography Studio Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1591,20 +1523,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Booster - Digital Marketing Elementor Template Kit','Booster-babiato-@TingTung','https://drive.google.com/file/d/18OS76iIENEALi-aBsE5Pb6fKNKMq8kPU/view?usp=sharing');</v>
+        <v>('Flow - Creative Agency Business Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1612,20 +1538,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Brutal - Creative Agency &amp; Advertising Service Elementor Template Kit','Brutal-babiato-@TingTung','https://drive.google.com/file/d/1_xGdm6Vlrt5bdJ-So921JvFs_Pc-4Odx/view?usp=sharing');</v>
+        <v>('Floy - Interior Design &amp; Architecture Elementor template kit','',''),</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1633,20 +1553,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Byra - Creative Agency &amp; Modern Portfolio Elementor Template Kit','Byra-babiato-@TingTung','https://drive.google.com/file/d/1RdM_9G9iDW6rI08sbZWAJWiF4TqNb1Q4/view?usp=sharing');</v>
+        <v>('FrontThree - Creative Studio Template Kit','',''),</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1654,20 +1568,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('C.AGE - Creative Agency Personal Portfolio Elementor Template Kit','C.AGE-babiato-@TingTung','https://drive.google.com/file/d/12CS6Z8vvHjH0kyrZRBMgiReBvFtMT5GA/view?usp=sharing');</v>
+        <v>('FrontTwo - Creative Studio Template Kit','',''),</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1675,20 +1583,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('CaYo - Creative Agency Elementor Template Kit','CaYo-babiato-@TingTung','https://drive.google.com/file/d/1DXofOmpO4BugV1R351yqhjuJXx3FBaPb/view?usp=sharing');</v>
+        <v>('Fumia - Startup Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1696,20 +1598,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('CETUS - Creative Portfolio Elementor Template Kit','CETUS-babiato-@TingTung','https://drive.google.com/file/d/1WcET6JQff1Se6lXYLArnEkhFlCHE8uwD/view?usp=drivesdk');</v>
+        <v>('Furnityn -  Interior Design Elementor Kit Template','',''),</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1717,20 +1613,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('ClickIT - Creative Digital Agency Elementor Template Kit','ClickIT-babiato-@TingTung','https://drive.google.com/file/d/1qsz8RseshZ-eeSijt-07oswZ9iXyD7mC/view?usp=drivesdk');</v>
+        <v>('Gaudy - Dark Digital Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1738,20 +1628,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Colabora - Creative Digital Agency Elementor Template Kit','colabora-babiato-@TingTung','https://drive.google.com/file/d/1O7wsirRVGMB0WNPfzc8vq8NyM_VY3S5N/view?usp=sharing');</v>
+        <v>('Genion - Creative Digital Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1759,20 +1643,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Collect - NFT Design Agency Services Elementor Template Kit','Collect-babiato-@TingTung','https://drive.google.com/file/d/1D64yqG-MRnw1sObgwqmGpYzlBhfhwt2p/view?usp=sharing');</v>
+        <v>('Give Boost - Digital Marketing Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1780,20 +1658,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Cooper Studio Elementor Template Kit','Cooper Studio-babiato-@TingTung','https://drive.google.com/file/d/1p2faTZzKSgc8nVjKJmTlIFghNKkxsWKD/view?usp=sharing');</v>
+        <v>('Goodman - Creative Portofolio Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1801,165 +1673,362 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into laporan_wp(judul,nama_gambar,mega_download) values('Craftso - Crafting Elementor Template Kit','Craftso-babiato-@TingTung','https://drive.google.com/file/d/1wpT1QC3NGxsF2BLtn3HYirOfgWFH0IM6/view?usp=sharing');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>('Grasp - Creative Portfolio &amp; Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:F51" si="1">"('"&amp;B23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"'),"</f>
+        <v>('Greeny - Interior Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>('Gulali - Creative Portfolio Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hagge - Creative Portfolio Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hanan - Interior Design &amp; Furniture Store Elementor Template kit','',''),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hayka - Hiking &amp; Camping Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>('Helion - Creative Portfolio Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>('Heru - Creative Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hillary - Creative Portfolio Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hoax - Creative Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>('Housedeco - Interior Design Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>('INGENISM - Architectural Design Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>('Inner - Interior Design &amp; Architecture Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>('Interi - Creative Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>('Interi - Interior Design Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>('Interyours - Home Interior Design Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>('Intra - Modern Digital Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>('ItsMyKit - Dark Creative Portfolio Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>('Kreatifa - Creative Digital Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>('Leacraft - Handmade Crafts Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>('Levi - Digital Marketing Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>('Lizent - Creative Digital Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>('Luka - Creative Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>('Lumina - Creatives &amp; Business Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>('Lummox - Creative Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>('Lykke - Creative Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>('Manan - Interior Designer Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>('Mapan - Digital Marketing Template Kits','',''),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>('Maser - Web Design Agency Elementor Template Kit','',''),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>('Mexa - Digital Agency Elementor Template Kit','',''),</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -2219,8 +2288,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2230,13 +2299,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2244,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2259,10 +2328,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D21" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
@@ -2274,10 +2343,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2289,10 +2358,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2304,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2319,10 +2388,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2334,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2349,10 +2418,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2364,10 +2433,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2379,10 +2448,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2394,10 +2463,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2409,10 +2478,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2424,10 +2493,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2439,10 +2508,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2454,10 +2523,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2469,10 +2538,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2484,10 +2553,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2499,10 +2568,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2514,10 +2583,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2529,164 +2598,464 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>('Goodman - Creative Portofolio Elementor Template Kit','https://drive.google.com/drive/folders/1WyZKDWC2GXRcfqUZz_enN46HGspC6cLm?usp=sharing'),</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:D37" si="1">"('"&amp;B22&amp;"','"&amp;C22&amp;"'),"</f>
+        <v>('Grasp - Creative Portfolio &amp; Agency Elementor Template Kit','https://drive.google.com/drive/folders/1hGgifF566Bd2MRTZgbNFFI8kOawcQYd6'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>('Greeny - Interior Elementor Template Kit','https://drive.google.com/drive/folders/19sKRzwPsD4ig2BQTkD0xfE957RHiTjYV'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>('Gulali - Creative Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/1BixBIXm1PW_8wlNuc4ItzKtnwjnJXSsb'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hagge - Creative Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/19zo8OIcM7148JTwzoNTS74ZRsjsbQFHc'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hanan - Interior Design &amp; Furniture Store Elementor Template kit','https://drive.google.com/drive/folders/1wA6eg8WJudZgyDn5FomiTmkJA82xc1KP'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hayka - Hiking &amp; Camping Elementor Template Kit','https://drive.google.com/drive/folders/1QrOeQw_0jehJdNjQo3XOjWXRJ2DdUSkP'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>('Helion - Creative Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/13_n_tXEt6E0-xnBBts8dDdhNA4onV4ip'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>('Heru - Creative Elementor Template Kit','https://drive.google.com/drive/folders/1WeXKvoyUXpr2Tn6M3PFCucyl61Np4azd'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hillary - Creative Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/1zorm46X5ZirrHuUGJZrj_RHPIV07FvNK'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>('Hoax - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1OaYTJcw-d2m8PHlGZLUDw24F-BW4npS-'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>('Housedeco - Interior Design Elementor Template Kit','https://drive.google.com/drive/folders/17mBBw0lKH6bU0NGWdk6bo8Vq66sswwLY'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>('INGENISM - Architectural Design Agency Elementor Template Kit','https://drive.google.com/drive/folders/1Z2jXibfa0jIh6vNCXW7J1BOFLSjZDa__'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>('Inner - Interior Design &amp; Architecture Template Kit','https://drive.google.com/drive/folders/1JGraoMl-e7gC5VOi3CABf2hVEnpJhlI7'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>('Interi - Creative Elementor Template Kit','https://drive.google.com/drive/folders/1zNWio-gGleSs6ZbGu9YW7l9vbUUqMa0L'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>('Interi - Interior Design Elementor Template Kit','https://drive.google.com/drive/folders/1GKYtWjwZGZgQGBRfs917j5NqdIbh2keV'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>('Interyours - Home Interior Design Elementor Template Kit','https://drive.google.com/drive/folders/1JqEz_IhMsm8omoSKOePKaYmKtc2d9S5y'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D51" si="2">"('"&amp;B38&amp;"','"&amp;C38&amp;"'),"</f>
+        <v>('Intra - Modern Digital Agency Elementor Template Kit','https://drive.google.com/drive/folders/1qhxeMFWnk_jSYwxDEL7t02XFkKv8ME_a?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>('ItsMyKit - Dark Creative Portfolio Elementor Template Kit','https://drive.google.com/drive/folders/1tPG_cEVdGHbMck428my2YK1878p_hhrE?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>('Kreatifa - Creative Digital Agency Elementor Template Kit','https://drive.google.com/drive/folders/1XyyuvKtQHCsgt1btS84P-sKzaBCaqMtc?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>('Leacraft - Handmade Crafts Elementor Template Kit','https://drive.google.com/drive/folders/1jQpNvoKMgkfwtmKMEEa9T-D0GK-snBIe?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>('Levi - Digital Marketing Elementor Template Kit','https://drive.google.com/drive/folders/1eQFwLYaAQmphUHYPkdHbl4Mbbo_rh54_?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>('Lizent - Creative Digital Agency Elementor Template Kit','https://drive.google.com/drive/folders/13ivJE3Hgn6s3WpWvFrgSFR7aUa0mbNO-?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>('Luka - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1roJH_vY3N_s30TRT2pbxBGgXBeNB3KU7?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>('Lumina - Creatives &amp; Business Elementor Template Kit','https://drive.google.com/drive/folders/1X-KAXyIFqXUTH8iAxVejqEzTOORtJh7E?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>('Lummox - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1Dmown1PPu8LJQokURfGp9I3LWzWcRm8d?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>('Lykke - Creative Agency Elementor Template Kit','https://drive.google.com/drive/folders/1mKKljan458UoziL_SMBxMw3TWEwf8Tyb?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>('Manan - Interior Designer Elementor Template Kit','https://drive.google.com/drive/folders/1kyqwOAQwXJX9l4R_hBqfJjJfbdpzg7sT?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>('Mapan - Digital Marketing Template Kits','https://drive.google.com/drive/folders/1UczFbAfzQ372QSY3sKSqcItfop75zMqF?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>('Maser - Web Design Agency Elementor Template Kit','https://drive.google.com/drive/folders/1XL59ehjR_hlU8NHGj13rSAnjZANxtD_Y?usp=sharing'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>('Mexa - Digital Agency Elementor Template Kit','https://drive.google.com/drive/folders/1DXQEEDr8st_7jYSmAsLckcbEYheg_xAm?usp=sharing'),</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -2947,4 +3316,197 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="274">
   <si>
     <t>no</t>
   </si>
@@ -37,151 +37,601 @@
     <t>Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit</t>
   </si>
   <si>
+    <t>Emporium-babiato-@TingTung|https://drive.google.com/file/d/1nE4MPgkkghVPFzBbaLTJ-d9lUE5i1v4Y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Emporium-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nE4MPgkkghVPFzBbaLTJ-d9lUE5i1v4Y/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Enefte - NFT Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Enefte-babiato-@TingTung|https://drive.google.com/file/d/1cyyEcdVcjKeoE4oRdJ73vlUnXR9jMBFF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Enefte-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cyyEcdVcjKeoE4oRdJ73vlUnXR9jMBFF/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Enkel - Furniture Company Template Kit</t>
   </si>
   <si>
+    <t>Enkel-babiato-@TingTung|https://drive.google.com/file/d/1OhWcLXhzdrqYEArdSBR3t2uU3RTl2359/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Enkel-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OhWcLXhzdrqYEArdSBR3t2uU3RTl2359/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Enovasien - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Enovasien-babiato-@TingTung|https://drive.google.com/file/d/1u6Uv4rdHh6CTWKBdrIJCtpITuOUvq4Q8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Enovasien-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u6Uv4rdHh6CTWKBdrIJCtpITuOUvq4Q8/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Enton - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Enton-babiato-@TingTung|https://drive.google.com/file/d/1JcRJa3zjCgHhGvCps7venn2fKIaqihk8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Enton-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JcRJa3zjCgHhGvCps7venn2fKIaqihk8/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Exolve - Creative Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Exolve-babiato-@TingTung|https://drive.google.com/file/d/1pk8uRJ76G9dVawCxpIxKm2M6CSR0txBx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Exolve-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pk8uRJ76G9dVawCxpIxKm2M6CSR0txBx/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Fidda - Portfolio &amp; Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Fidda-babiato-@TingTung|https://drive.google.com/file/d/1XgZ0HjW_R0eUTWpsGwVEh5Bgv_y-67FJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Fidda-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XgZ0HjW_R0eUTWpsGwVEh5Bgv_y-67FJ/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Figura - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Figura-babiato-@TingTung|https://drive.google.com/file/d/1sqHurQAFN4ZoTgqwWxp92--lAK85AppC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Figura-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sqHurQAFN4ZoTgqwWxp92--lAK85AppC/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Finterior - Interior Design &amp; Architecture  Elementor Template Kit</t>
   </si>
   <si>
+    <t>Finterior-babiato-@TingTung|https://drive.google.com/file/d/1YE4WyGntAlunXX1Fw0-OF_h7Z5FiCp0v/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Finterior-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YE4WyGntAlunXX1Fw0-OF_h7Z5FiCp0v/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Floki - Photography Studio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Floki-babiato-@TingTung|https://drive.google.com/file/d/1OY4k_uJ-s9ZtdIQ3QK1T7AP2h8AkvIfZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Floki-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OY4k_uJ-s9ZtdIQ3QK1T7AP2h8AkvIfZ/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Flow - Creative Agency Business Elementor Template Kit</t>
   </si>
   <si>
+    <t>Flow-babiato-@TingTung|https://drive.google.com/file/d/1QFiy8NVi8QoNV_5HnuJibrdq5fjZ-PjF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Flow-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QFiy8NVi8QoNV_5HnuJibrdq5fjZ-PjF/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Floy - Interior Design &amp; Architecture Elementor template kit</t>
   </si>
   <si>
+    <t>Floy-babiato-@TingTung|https://drive.google.com/file/d/1C2uSvJjjFQF73Xw3E12aGT7V-Esi5iA4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Floy-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C2uSvJjjFQF73Xw3E12aGT7V-Esi5iA4/view?usp=sharing</t>
+  </si>
+  <si>
     <t>FrontThree - Creative Studio Template Kit</t>
   </si>
   <si>
+    <t>FrontThree-babiato-@TingTung|https://drive.google.com/file/d/1f4Okw0Gu9jHdyXThOtehVuePJEl-L0Dp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>FrontThree-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f4Okw0Gu9jHdyXThOtehVuePJEl-L0Dp/view?usp=sharing</t>
+  </si>
+  <si>
     <t>FrontTwo - Creative Studio Template Kit</t>
   </si>
   <si>
+    <t>FrontTwo-babiato-@TingTung|https://drive.google.com/file/d/1OFJ9fOQ4LCqqFJ_8qEAVidTPcdMZTNbP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>FrontTwo-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OFJ9fOQ4LCqqFJ_8qEAVidTPcdMZTNbP/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Fumia - Startup Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Fumia-babiato-@TingTung|https://drive.google.com/file/d/16BwbMz935MmYlvyczXGWjGaDY-XIRobi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Fumia-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16BwbMz935MmYlvyczXGWjGaDY-XIRobi/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Furnityn -  Interior Design Elementor Kit Template</t>
   </si>
   <si>
+    <t>Furnityn-babiato-@TingTung|https://drive.google.com/file/d/1jMfBknAsVnkZukSlVbdjNgJsOtDF5X3p/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Furnityn-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jMfBknAsVnkZukSlVbdjNgJsOtDF5X3p/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Gaudy - Dark Digital Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Gaudy-babiato-@TingTung|https://drive.google.com/file/d/10o7GEdoCXmupFWlHnKnrvrhn669uiewc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Gaudy-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10o7GEdoCXmupFWlHnKnrvrhn669uiewc/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Genion - Creative Digital Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Genion-babiato-@TingTung|https://drive.google.com/file/d/14OlrpFmIL6Lske2aLc0wXNe5gctieqge/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Genion-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14OlrpFmIL6Lske2aLc0wXNe5gctieqge/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Give Boost - Digital Marketing Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Give Boost-babiato-@TingTung|https://drive.google.com/file/d/1N-LkwcdF71iPqtNnaxC7OCho_wIpOfzM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Give Boost-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N-LkwcdF71iPqtNnaxC7OCho_wIpOfzM/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Goodman - Creative Portofolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Goodman-babiato-@TingTung|https://drive.google.com/file/d/1j2UTCXN-QVc6YQ5DkO2n5j-bFtq-MZce/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Goodman-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j2UTCXN-QVc6YQ5DkO2n5j-bFtq-MZce/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Grasp - Creative Portfolio &amp; Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Grasp-babiato-@TingTung|https://drive.google.com/file/d/1iqke2WFaZNaAhr3jNzJCuzaQQAel6tFH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Grasp-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iqke2WFaZNaAhr3jNzJCuzaQQAel6tFH/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Greeny - Interior Elementor Template Kit</t>
   </si>
   <si>
+    <t>Greeny-babiato-@TingTung|https://drive.google.com/file/d/1aee1NzrbDVSRkMjwILafKjay5t0zhMTA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Greeny-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aee1NzrbDVSRkMjwILafKjay5t0zhMTA/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Gulali - Creative Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Gulali-babiato-@TingTung|https://drive.google.com/file/d/1ovjhQUQdFKTgvaECHbJskJHGJkUerMob/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Gulali-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ovjhQUQdFKTgvaECHbJskJHGJkUerMob/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Hagge - Creative Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Hagge-babiato-@TingTung|https://drive.google.com/file/d/1plroHgnSED8VT9Zynp2sMTOjZtIL5yxZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Hagge-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1plroHgnSED8VT9Zynp2sMTOjZtIL5yxZ/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Hanan - Interior Design &amp; Furniture Store Elementor Template kit</t>
   </si>
   <si>
+    <t>Hanan-babiato-@TingTung|https://drive.google.com/file/d/1R7m009kLuhrcUyQwPRefbZlAn3gn6vyw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Hanan-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R7m009kLuhrcUyQwPRefbZlAn3gn6vyw/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Hayka - Hiking &amp; Camping Elementor Template Kit</t>
   </si>
   <si>
+    <t>Hayka-babiato-@TingTung|https://drive.google.com/file/d/1DHb37MwIAb92Thn62pS8Oq-9ZFI_X186/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Hayka-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DHb37MwIAb92Thn62pS8Oq-9ZFI_X186/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Helion - Creative Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Helion-babiato-@TingTung|https://drive.google.com/file/d/1gvvrlD_UXjeWwO2xow2R304XBaMLiTIv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Helion-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gvvrlD_UXjeWwO2xow2R304XBaMLiTIv/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Heru - Creative Elementor Template Kit</t>
   </si>
   <si>
+    <t>Heru-babiato-@TingTung|https://drive.google.com/file/d/17woF_xTaWD783EeycbQqN8KQNtlt1Sd3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Heru-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17woF_xTaWD783EeycbQqN8KQNtlt1Sd3/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Hillary - Creative Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>Hillary-babiato-@TingTung|https://drive.google.com/file/d/1q7nUyz7QPfS6Oq7W90pK9egOnpd0f3lM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Hillary-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q7nUyz7QPfS6Oq7W90pK9egOnpd0f3lM/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Hoax - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Hoax-babiato-@TingTung|https://drive.google.com/file/d/1GF9xSn9gKHfIaBIFBw1mSN2QjoJfx46c/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Hoax-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GF9xSn9gKHfIaBIFBw1mSN2QjoJfx46c/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Housedeco - Interior Design Elementor Template Kit</t>
   </si>
   <si>
+    <t>Housedeco-babiato-@TingTung|https://drive.google.com/file/d/1P0fblpVUDigvlwmu1JSLowsC7qLM0oV5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Housedeco-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P0fblpVUDigvlwmu1JSLowsC7qLM0oV5/view?usp=sharing</t>
+  </si>
+  <si>
     <t>INGENISM - Architectural Design Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>INGENISM-babiato-@TingTung|https://drive.google.com/file/d/14CL5IVug0Q6ph351G7ThPrzn16ijuJJu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>INGENISM-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14CL5IVug0Q6ph351G7ThPrzn16ijuJJu/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Inner - Interior Design &amp; Architecture Template Kit</t>
   </si>
   <si>
+    <t>Inner-babiato-@TingTung|https://drive.google.com/file/d/1TdG1m_bp4po7cGZNtk3GAMWzS2AuDNzG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Inner-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TdG1m_bp4po7cGZNtk3GAMWzS2AuDNzG/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Interi - Creative Elementor Template Kit</t>
   </si>
   <si>
+    <t>Interi-babiato-@TingTung|https://drive.google.com/file/d/1T_aqD4oJvT8NkFYbeASVgROvpTql9S55/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Interi-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T_aqD4oJvT8NkFYbeASVgROvpTql9S55/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Interi - Interior Design Elementor Template Kit</t>
   </si>
   <si>
+    <t>Intreri-babiato-@TingTung|https://drive.google.com/file/d/1li1JiZKdDpVPS_WYdKAYG66v7hcCESKy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Intreri-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1li1JiZKdDpVPS_WYdKAYG66v7hcCESKy/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Interyours - Home Interior Design Elementor Template Kit</t>
   </si>
   <si>
+    <t>Interyours-babiato-@TingTung|https://drive.google.com/file/d/1GWaNPxqrLlAWb-D661yWyE4JiXcisTWn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Interyours-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GWaNPxqrLlAWb-D661yWyE4JiXcisTWn/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Intra - Modern Digital Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Intra-babiato-@TingTung|https://drive.google.com/file/d/1NU-G59GOjQqYIuNa9OcM2uMdxNj6nH04/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Intra-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NU-G59GOjQqYIuNa9OcM2uMdxNj6nH04/view?usp=sharing</t>
+  </si>
+  <si>
     <t>ItsMyKit - Dark Creative Portfolio Elementor Template Kit</t>
   </si>
   <si>
+    <t>ItsMyKit-babiato-@TingTung|https://drive.google.com/file/d/1PmcWdMOEITvDtUM9lHbP00G11ofdYCNj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ItsMyKit-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PmcWdMOEITvDtUM9lHbP00G11ofdYCNj/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Kreatifa - Creative Digital Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Kreatifa-babiato-@TingTung|https://drive.google.com/file/d/1m8JlsoaBlQjM3ONnI3mNUUI2u-8nYhEQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Kreatifa-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m8JlsoaBlQjM3ONnI3mNUUI2u-8nYhEQ/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Leacraft - Handmade Crafts Elementor Template Kit</t>
   </si>
   <si>
+    <t>Leacraft-babiato-@TingTung|https://drive.google.com/file/d/1c5KlOy6P6Fl44SMG-IFYyJ0mPNkYlmxx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Leacraft-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c5KlOy6P6Fl44SMG-IFYyJ0mPNkYlmxx/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Levi - Digital Marketing Elementor Template Kit</t>
   </si>
   <si>
+    <t>Levi-babiato-@TingTung|https://drive.google.com/file/d/1_PFq557KAOa-0hjKOmQcG0SbVkiA2BcX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Levi-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_PFq557KAOa-0hjKOmQcG0SbVkiA2BcX/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Lizent - Creative Digital Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Lizent-babiato-@TingTung|https://drive.google.com/file/d/1LTvFdC_H1iIP6_AIc5LT_TSGIlCZllql/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Lizent-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LTvFdC_H1iIP6_AIc5LT_TSGIlCZllql/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Luka - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Luka-babiato-@TingTung|https://drive.google.com/file/d/1zDc1ntWUh2juCWCp0Gzri1YQg0-ThMxT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Luka-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zDc1ntWUh2juCWCp0Gzri1YQg0-ThMxT/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Lumina - Creatives &amp; Business Elementor Template Kit</t>
   </si>
   <si>
+    <t>Lumina-babiato-@TingTung|https://drive.google.com/file/d/113J8WLSnRgLNL7sqGYoRqv80D4AsBk3z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Lumina-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/113J8WLSnRgLNL7sqGYoRqv80D4AsBk3z/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Lummox - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Lummox-babiato-@TingTung|https://drive.google.com/file/d/1X0AchMUgL-GULV1dyTF3QpMyakfwtDiT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Lummox-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X0AchMUgL-GULV1dyTF3QpMyakfwtDiT/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Lykke - Creative Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Lykke-babiato-@TingTung|https://drive.google.com/file/d/11bUv4noiB9lNZzNSBk9zyIIKVulW1twU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Lykke-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11bUv4noiB9lNZzNSBk9zyIIKVulW1twU/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Manan - Interior Designer Elementor Template Kit</t>
   </si>
   <si>
+    <t>Manan-babiato-@TingTung|https://drive.google.com/file/d/1O5l0u3RKK7olRgB8VKJVfQtlAdy7p4Ky/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Manan-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O5l0u3RKK7olRgB8VKJVfQtlAdy7p4Ky/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Mapan - Digital Marketing Template Kits</t>
   </si>
   <si>
+    <t>Mapan-babiato-@TingTung|https://drive.google.com/file/d/1aB_bxi1xZcnIZKn0sYBwiT2jX1lAFHwK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Mapan-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aB_bxi1xZcnIZKn0sYBwiT2jX1lAFHwK/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Maser - Web Design Agency Elementor Template Kit</t>
   </si>
   <si>
+    <t>Maser-babiato-@TingTung|https://drive.google.com/file/d/1oXpXhsGqkwS8ALCd021it7DsyhTIMXyQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Maser-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oXpXhsGqkwS8ALCd021it7DsyhTIMXyQ/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Mexa - Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Mexa-babiato-@TingTung|https://drive.google.com/file/d/1inrhqXjUy2jTih8FJPDKISQCylDdQU9y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Mexa-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1inrhqXjUy2jTih8FJPDKISQCylDdQU9y/view?usp=sharing</t>
   </si>
   <si>
     <t>No</t>
@@ -396,8 +846,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -410,18 +860,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -431,9 +878,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -443,24 +901,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,15 +926,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,41 +948,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +970,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -557,9 +1008,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,31 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,25 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,73 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,13 +1114,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,54 +1221,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -841,18 +1243,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +1301,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -879,135 +1329,135 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,11 +1795,15 @@
   <sheetPr/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="71.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="5.42857142857143" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1375,12 +1829,18 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"'),"</f>
-        <v>('Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit','',''),</v>
+        <v>('Emporium - Architecture &amp; Interior Elementor Pro Full Site Template Kit','Emporium-babiato-@TingTung','https://drive.google.com/file/d/1nE4MPgkkghVPFzBbaLTJ-d9lUE5i1v4Y/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1388,14 +1848,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F22" si="0">"('"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"'),"</f>
-        <v>('Enefte - NFT Portfolio Elementor Template Kit','',''),</v>
+        <v>('Enefte - NFT Portfolio Elementor Template Kit','Enefte-babiato-@TingTung','https://drive.google.com/file/d/1cyyEcdVcjKeoE4oRdJ73vlUnXR9jMBFF/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1403,14 +1869,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>('Enkel - Furniture Company Template Kit','',''),</v>
+        <v>('Enkel - Furniture Company Template Kit','Enkel-babiato-@TingTung','https://drive.google.com/file/d/1OhWcLXhzdrqYEArdSBR3t2uU3RTl2359/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1418,14 +1890,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>('Enovasien - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Enovasien - Creative Agency Elementor Template Kit','Enovasien-babiato-@TingTung','https://drive.google.com/file/d/1u6Uv4rdHh6CTWKBdrIJCtpITuOUvq4Q8/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1433,14 +1911,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>('Enton - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Enton - Creative Agency Elementor Template Kit','Enton-babiato-@TingTung','https://drive.google.com/file/d/1JcRJa3zjCgHhGvCps7venn2fKIaqihk8/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1448,14 +1932,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>('Exolve - Creative Portfolio Elementor Template Kit','',''),</v>
+        <v>('Exolve - Creative Portfolio Elementor Template Kit','Exolve-babiato-@TingTung','https://drive.google.com/file/d/1pk8uRJ76G9dVawCxpIxKm2M6CSR0txBx/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1463,14 +1953,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>('Fidda - Portfolio &amp; Agency Elementor Template Kit','',''),</v>
+        <v>('Fidda - Portfolio &amp; Agency Elementor Template Kit','Fidda-babiato-@TingTung','https://drive.google.com/file/d/1XgZ0HjW_R0eUTWpsGwVEh5Bgv_y-67FJ/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1478,14 +1974,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>('Figura - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Figura - Creative Agency Elementor Template Kit','Figura-babiato-@TingTung','https://drive.google.com/file/d/1sqHurQAFN4ZoTgqwWxp92--lAK85AppC/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1493,14 +1995,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>('Finterior - Interior Design &amp; Architecture  Elementor Template Kit','',''),</v>
+        <v>('Finterior - Interior Design &amp; Architecture  Elementor Template Kit','Finterior-babiato-@TingTung','https://drive.google.com/file/d/1YE4WyGntAlunXX1Fw0-OF_h7Z5FiCp0v/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1508,14 +2016,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>('Floki - Photography Studio Elementor Template Kit','',''),</v>
+        <v>('Floki - Photography Studio Elementor Template Kit','Floki-babiato-@TingTung','https://drive.google.com/file/d/1OY4k_uJ-s9ZtdIQ3QK1T7AP2h8AkvIfZ/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1523,14 +2037,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>('Flow - Creative Agency Business Elementor Template Kit','',''),</v>
+        <v>('Flow - Creative Agency Business Elementor Template Kit','Flow-babiato-@TingTung','https://drive.google.com/file/d/1QFiy8NVi8QoNV_5HnuJibrdq5fjZ-PjF/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1538,14 +2058,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>('Floy - Interior Design &amp; Architecture Elementor template kit','',''),</v>
+        <v>('Floy - Interior Design &amp; Architecture Elementor template kit','Floy-babiato-@TingTung','https://drive.google.com/file/d/1C2uSvJjjFQF73Xw3E12aGT7V-Esi5iA4/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1553,14 +2079,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>('FrontThree - Creative Studio Template Kit','',''),</v>
+        <v>('FrontThree - Creative Studio Template Kit','FrontThree-babiato-@TingTung','https://drive.google.com/file/d/1f4Okw0Gu9jHdyXThOtehVuePJEl-L0Dp/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1568,14 +2100,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>('FrontTwo - Creative Studio Template Kit','',''),</v>
+        <v>('FrontTwo - Creative Studio Template Kit','FrontTwo-babiato-@TingTung','https://drive.google.com/file/d/1OFJ9fOQ4LCqqFJ_8qEAVidTPcdMZTNbP/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1583,14 +2121,20 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>('Fumia - Startup Agency Elementor Template Kit','',''),</v>
+        <v>('Fumia - Startup Agency Elementor Template Kit','Fumia-babiato-@TingTung','https://drive.google.com/file/d/16BwbMz935MmYlvyczXGWjGaDY-XIRobi/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1598,14 +2142,20 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>('Furnityn -  Interior Design Elementor Kit Template','',''),</v>
+        <v>('Furnityn -  Interior Design Elementor Kit Template','Furnityn-babiato-@TingTung','https://drive.google.com/file/d/1jMfBknAsVnkZukSlVbdjNgJsOtDF5X3p/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1613,14 +2163,20 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>('Gaudy - Dark Digital Agency Elementor Template Kit','',''),</v>
+        <v>('Gaudy - Dark Digital Agency Elementor Template Kit','Gaudy-babiato-@TingTung','https://drive.google.com/file/d/10o7GEdoCXmupFWlHnKnrvrhn669uiewc/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1628,14 +2184,20 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>('Genion - Creative Digital Agency Elementor Template Kit','',''),</v>
+        <v>('Genion - Creative Digital Agency Elementor Template Kit','Genion-babiato-@TingTung','https://drive.google.com/file/d/14OlrpFmIL6Lske2aLc0wXNe5gctieqge/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1643,14 +2205,20 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>('Give Boost - Digital Marketing Agency Elementor Template Kit','',''),</v>
+        <v>('Give Boost - Digital Marketing Agency Elementor Template Kit','Give Boost-babiato-@TingTung','https://drive.google.com/file/d/1N-LkwcdF71iPqtNnaxC7OCho_wIpOfzM/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1658,14 +2226,20 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>('Goodman - Creative Portofolio Elementor Template Kit','',''),</v>
+        <v>('Goodman - Creative Portofolio Elementor Template Kit','Goodman-babiato-@TingTung','https://drive.google.com/file/d/1j2UTCXN-QVc6YQ5DkO2n5j-bFtq-MZce/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1673,14 +2247,20 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>('Grasp - Creative Portfolio &amp; Agency Elementor Template Kit','',''),</v>
+        <v>('Grasp - Creative Portfolio &amp; Agency Elementor Template Kit','Grasp-babiato-@TingTung','https://drive.google.com/file/d/1iqke2WFaZNaAhr3jNzJCuzaQQAel6tFH/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1688,11 +2268,20 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ref="F23:F51" si="1">"('"&amp;B23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"'),"</f>
-        <v>('Greeny - Interior Elementor Template Kit','',''),</v>
+        <v>('Greeny - Interior Elementor Template Kit','Greeny-babiato-@TingTung','https://drive.google.com/file/d/1aee1NzrbDVSRkMjwILafKjay5t0zhMTA/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1700,11 +2289,20 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>('Gulali - Creative Portfolio Elementor Template Kit','',''),</v>
+        <v>('Gulali - Creative Portfolio Elementor Template Kit','Gulali-babiato-@TingTung','https://drive.google.com/file/d/1ovjhQUQdFKTgvaECHbJskJHGJkUerMob/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1712,11 +2310,20 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>('Hagge - Creative Portfolio Elementor Template Kit','',''),</v>
+        <v>('Hagge - Creative Portfolio Elementor Template Kit','Hagge-babiato-@TingTung','https://drive.google.com/file/d/1plroHgnSED8VT9Zynp2sMTOjZtIL5yxZ/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1724,11 +2331,20 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>('Hanan - Interior Design &amp; Furniture Store Elementor Template kit','',''),</v>
+        <v>('Hanan - Interior Design &amp; Furniture Store Elementor Template kit','Hanan-babiato-@TingTung','https://drive.google.com/file/d/1R7m009kLuhrcUyQwPRefbZlAn3gn6vyw/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1736,11 +2352,20 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>('Hayka - Hiking &amp; Camping Elementor Template Kit','',''),</v>
+        <v>('Hayka - Hiking &amp; Camping Elementor Template Kit','Hayka-babiato-@TingTung','https://drive.google.com/file/d/1DHb37MwIAb92Thn62pS8Oq-9ZFI_X186/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1748,11 +2373,20 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>('Helion - Creative Portfolio Elementor Template Kit','',''),</v>
+        <v>('Helion - Creative Portfolio Elementor Template Kit','Helion-babiato-@TingTung','https://drive.google.com/file/d/1gvvrlD_UXjeWwO2xow2R304XBaMLiTIv/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1760,11 +2394,20 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>('Heru - Creative Elementor Template Kit','',''),</v>
+        <v>('Heru - Creative Elementor Template Kit','Heru-babiato-@TingTung','https://drive.google.com/file/d/17woF_xTaWD783EeycbQqN8KQNtlt1Sd3/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1772,11 +2415,20 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>('Hillary - Creative Portfolio Elementor Template Kit','',''),</v>
+        <v>('Hillary - Creative Portfolio Elementor Template Kit','Hillary-babiato-@TingTung','https://drive.google.com/file/d/1q7nUyz7QPfS6Oq7W90pK9egOnpd0f3lM/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1784,11 +2436,20 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>('Hoax - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Hoax - Creative Agency Elementor Template Kit','Hoax-babiato-@TingTung','https://drive.google.com/file/d/1GF9xSn9gKHfIaBIFBw1mSN2QjoJfx46c/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1796,11 +2457,20 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>('Housedeco - Interior Design Elementor Template Kit','',''),</v>
+        <v>('Housedeco - Interior Design Elementor Template Kit','Housedeco-babiato-@TingTung','https://drive.google.com/file/d/1P0fblpVUDigvlwmu1JSLowsC7qLM0oV5/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1808,11 +2478,20 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>('INGENISM - Architectural Design Agency Elementor Template Kit','',''),</v>
+        <v>('INGENISM - Architectural Design Agency Elementor Template Kit','INGENISM-babiato-@TingTung','https://drive.google.com/file/d/14CL5IVug0Q6ph351G7ThPrzn16ijuJJu/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1820,11 +2499,20 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>('Inner - Interior Design &amp; Architecture Template Kit','',''),</v>
+        <v>('Inner - Interior Design &amp; Architecture Template Kit','Inner-babiato-@TingTung','https://drive.google.com/file/d/1TdG1m_bp4po7cGZNtk3GAMWzS2AuDNzG/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1832,11 +2520,20 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>('Interi - Creative Elementor Template Kit','',''),</v>
+        <v>('Interi - Creative Elementor Template Kit','Interi-babiato-@TingTung','https://drive.google.com/file/d/1T_aqD4oJvT8NkFYbeASVgROvpTql9S55/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1844,11 +2541,20 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>('Interi - Interior Design Elementor Template Kit','',''),</v>
+        <v>('Interi - Interior Design Elementor Template Kit','Intreri-babiato-@TingTung','https://drive.google.com/file/d/1li1JiZKdDpVPS_WYdKAYG66v7hcCESKy/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1856,11 +2562,20 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>('Interyours - Home Interior Design Elementor Template Kit','',''),</v>
+        <v>('Interyours - Home Interior Design Elementor Template Kit','Interyours-babiato-@TingTung','https://drive.google.com/file/d/1GWaNPxqrLlAWb-D661yWyE4JiXcisTWn/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1868,11 +2583,20 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>('Intra - Modern Digital Agency Elementor Template Kit','',''),</v>
+        <v>('Intra - Modern Digital Agency Elementor Template Kit','Intra-babiato-@TingTung','https://drive.google.com/file/d/1NU-G59GOjQqYIuNa9OcM2uMdxNj6nH04/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1880,11 +2604,20 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>('ItsMyKit - Dark Creative Portfolio Elementor Template Kit','',''),</v>
+        <v>('ItsMyKit - Dark Creative Portfolio Elementor Template Kit','ItsMyKit-babiato-@TingTung','https://drive.google.com/file/d/1PmcWdMOEITvDtUM9lHbP00G11ofdYCNj/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1892,11 +2625,20 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>('Kreatifa - Creative Digital Agency Elementor Template Kit','',''),</v>
+        <v>('Kreatifa - Creative Digital Agency Elementor Template Kit','Kreatifa-babiato-@TingTung','https://drive.google.com/file/d/1m8JlsoaBlQjM3ONnI3mNUUI2u-8nYhEQ/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1904,11 +2646,20 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>('Leacraft - Handmade Crafts Elementor Template Kit','',''),</v>
+        <v>('Leacraft - Handmade Crafts Elementor Template Kit','Leacraft-babiato-@TingTung','https://drive.google.com/file/d/1c5KlOy6P6Fl44SMG-IFYyJ0mPNkYlmxx/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1916,11 +2667,20 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>('Levi - Digital Marketing Elementor Template Kit','',''),</v>
+        <v>('Levi - Digital Marketing Elementor Template Kit','Levi-babiato-@TingTung','https://drive.google.com/file/d/1_PFq557KAOa-0hjKOmQcG0SbVkiA2BcX/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1928,11 +2688,20 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>('Lizent - Creative Digital Agency Elementor Template Kit','',''),</v>
+        <v>('Lizent - Creative Digital Agency Elementor Template Kit','Lizent-babiato-@TingTung','https://drive.google.com/file/d/1LTvFdC_H1iIP6_AIc5LT_TSGIlCZllql/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1940,11 +2709,20 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>('Luka - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Luka - Creative Agency Elementor Template Kit','Luka-babiato-@TingTung','https://drive.google.com/file/d/1zDc1ntWUh2juCWCp0Gzri1YQg0-ThMxT/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1952,11 +2730,20 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>('Lumina - Creatives &amp; Business Elementor Template Kit','',''),</v>
+        <v>('Lumina - Creatives &amp; Business Elementor Template Kit','Lumina-babiato-@TingTung','https://drive.google.com/file/d/113J8WLSnRgLNL7sqGYoRqv80D4AsBk3z/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1964,11 +2751,20 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>('Lummox - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Lummox - Creative Agency Elementor Template Kit','Lummox-babiato-@TingTung','https://drive.google.com/file/d/1X0AchMUgL-GULV1dyTF3QpMyakfwtDiT/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1976,11 +2772,20 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>('Lykke - Creative Agency Elementor Template Kit','',''),</v>
+        <v>('Lykke - Creative Agency Elementor Template Kit','Lykke-babiato-@TingTung','https://drive.google.com/file/d/11bUv4noiB9lNZzNSBk9zyIIKVulW1twU/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1988,11 +2793,20 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>('Manan - Interior Designer Elementor Template Kit','',''),</v>
+        <v>('Manan - Interior Designer Elementor Template Kit','Manan-babiato-@TingTung','https://drive.google.com/file/d/1O5l0u3RKK7olRgB8VKJVfQtlAdy7p4Ky/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2000,11 +2814,20 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>('Mapan - Digital Marketing Template Kits','',''),</v>
+        <v>('Mapan - Digital Marketing Template Kits','Mapan-babiato-@TingTung','https://drive.google.com/file/d/1aB_bxi1xZcnIZKn0sYBwiT2jX1lAFHwK/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2012,11 +2835,20 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>('Maser - Web Design Agency Elementor Template Kit','',''),</v>
+        <v>('Maser - Web Design Agency Elementor Template Kit','Maser-babiato-@TingTung','https://drive.google.com/file/d/1oXpXhsGqkwS8ALCd021it7DsyhTIMXyQ/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2024,11 +2856,20 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>('Mexa - Digital Agency Elementor Template Kit','',''),</v>
+        <v>('Mexa - Digital Agency Elementor Template Kit','Mexa-babiato-@TingTung','https://drive.google.com/file/d/1inrhqXjUy2jTih8FJPDKISQCylDdQU9y/view?usp=sharing'),</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -2288,7 +3129,7 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2299,13 +3140,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2316,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="D2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2328,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D21" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
@@ -2343,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2358,10 +3199,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2373,10 +3214,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2388,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2403,10 +3244,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2418,10 +3259,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2433,10 +3274,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2448,10 +3289,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2463,10 +3304,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2478,10 +3319,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2493,10 +3334,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2508,10 +3349,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2523,10 +3364,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2538,10 +3379,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2553,10 +3394,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2568,10 +3409,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2583,10 +3424,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2598,10 +3439,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2613,10 +3454,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D37" si="1">"('"&amp;B22&amp;"','"&amp;C22&amp;"'),"</f>
@@ -2628,10 +3469,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2643,10 +3484,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2658,10 +3499,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2673,10 +3514,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2688,10 +3529,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2703,10 +3544,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2718,10 +3559,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -2733,10 +3574,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -2748,10 +3589,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -2763,10 +3604,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -2778,10 +3619,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -2793,10 +3634,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -2808,10 +3649,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -2823,10 +3664,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -2838,10 +3679,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -2853,10 +3694,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ref="D38:D51" si="2">"('"&amp;B38&amp;"','"&amp;C38&amp;"'),"</f>
@@ -2868,10 +3709,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
@@ -2883,10 +3724,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
@@ -2898,10 +3739,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
@@ -2913,10 +3754,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
@@ -2928,10 +3769,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
@@ -2943,10 +3784,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
@@ -2958,10 +3799,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
@@ -2973,10 +3814,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
@@ -2988,10 +3829,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
@@ -3003,10 +3844,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
@@ -3018,10 +3859,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
@@ -3033,10 +3874,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
@@ -3048,10 +3889,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
@@ -3331,178 +4172,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="149">
   <si>
     <t>Fake</t>
   </si>
@@ -34,304 +34,79 @@
     <t>link file</t>
   </si>
   <si>
-    <t>Miso - Minimal Portfolio Elementor Template Kit|Miso-babiato-@TingTung|https://drive.google.com/file/d/1VtRqMEmP5KKM-DiH4nhpnvSBtkcrHtOX/view?usp=drivesdk|https://drive.google.com/file/d/1kYFclu68BC2gf6-iOWBqW4FXqnTeaVIJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Miso - Minimal Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Miso-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VtRqMEmP5KKM-DiH4nhpnvSBtkcrHtOX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kYFclu68BC2gf6-iOWBqW4FXqnTeaVIJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Moiz - Digital Marketing Agency Elementor Template Kit|Moiz-babiato-@TingTung|https://drive.google.com/file/d/1sOvTuItwOmvLZpa8uG8VmOzWVeMQPfP8/view?usp=drivesdk|https://drive.google.com/file/d/1ahPJJ3UHL5BdtaKKACiTX669hxDZbf5F/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Moiz - Digital Marketing Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Moiz-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sOvTuItwOmvLZpa8uG8VmOzWVeMQPfP8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ahPJJ3UHL5BdtaKKACiTX669hxDZbf5F/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mont - Agency Elementor Template kit|Mont-babiato-@TingTung|https://drive.google.com/file/d/1XGqZhwBAq_XKU5U693Ri_IlVJLx09bv-/view?usp=drivesdk|https://drive.google.com/file/d/1Mv5IpiipF2nuiVzGjTaSH27b7oi6Cx7e/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mont - Agency Elementor Template kit</t>
-  </si>
-  <si>
-    <t>Mont-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XGqZhwBAq_XKU5U693Ri_IlVJLx09bv-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Mv5IpiipF2nuiVzGjTaSH27b7oi6Cx7e/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Morgan - Creative Agency &amp; Portfolio Elementor Template Kit|Morgan-babiato-@TingTung|https://drive.google.com/file/d/1QogASibtI1IOPsyOLMx_PToZQYj9KmQm/view?usp=drivesdk|https://drive.google.com/file/d/19LMRetmvAXxxvsqgskrqcMhMfd3LYIxv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Morgan - Creative Agency &amp; Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Morgan-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QogASibtI1IOPsyOLMx_PToZQYj9KmQm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19LMRetmvAXxxvsqgskrqcMhMfd3LYIxv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Motret - Digital Marketing Elementor Template Kit|motret-babiato-@TingTung|https://drive.google.com/file/d/1aR9_WKdJiTZgfYUc2k1rf_BCzUNijMII/view?usp=drivesdk|https://drive.google.com/file/d/1_4pZDasgsRjTHC0zqVJI2TPIuz0rgxKf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Motret - Digital Marketing Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>motret-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aR9_WKdJiTZgfYUc2k1rf_BCzUNijMII/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_4pZDasgsRjTHC0zqVJI2TPIuz0rgxKf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mylo - Creative Agency &amp; Portfolio Template Kit|Mylo-babiato-@TingTung|https://drive.google.com/file/d/1gI9DdZjDdhV4JPdYBPx8MP6cV2Is5C9E/view?usp=drivesdk|https://drive.google.com/file/d/1TVvcq3IZ6zvYVI6Rz7JnhM27smQv7SOG/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mylo - Creative Agency &amp; Portfolio Template Kit</t>
-  </si>
-  <si>
-    <t>Mylo-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gI9DdZjDdhV4JPdYBPx8MP6cV2Is5C9E/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TVvcq3IZ6zvYVI6Rz7JnhM27smQv7SOG/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ngepet - Creative Agency Company Elementor Template Kit|Ngepet-babiato-@TingTung|https://drive.google.com/file/d/1On7hWO-62pXIC-LL6mFJ81v-hTm4Np2x/view?usp=drivesdk|https://drive.google.com/file/d/1mH8e3l1HbW5ymk5iFY0_xuGR23btjnkP/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ngepet - Creative Agency Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Ngepet-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1On7hWO-62pXIC-LL6mFJ81v-hTm4Np2x/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mH8e3l1HbW5ymk5iFY0_xuGR23btjnkP/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ogena - Minimal Elementor Template Kit|Ogena-babiato-@TingTung|https://drive.google.com/file/d/1UtSkQb8CDDqQjG5O5SfggRmk9yW2HMHT/view?usp=drivesdk|https://drive.google.com/file/d/1UcrKJXwViHLIpowyC3O4Su-NAn78moy2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ogena - Minimal Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Ogena-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UtSkQb8CDDqQjG5O5SfggRmk9yW2HMHT/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UcrKJXwViHLIpowyC3O4Su-NAn78moy2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ouakee - Creative Company &amp; Professional Portfolio  Elementor Template Kit|Ouakee-babiato-@TingTung|https://drive.google.com/file/d/1nwhTql2IhWNy6-7wErZh-Mq7o651Im6p/view?usp=drivesdk|https://drive.google.com/file/d/19HIeSEKru2h52rKosFC2Dv4jH3l-0lo8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ouakee - Creative Company &amp; Professional Portfolio  Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Ouakee-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nwhTql2IhWNy6-7wErZh-Mq7o651Im6p/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19HIeSEKru2h52rKosFC2Dv4jH3l-0lo8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ovolio - Creative Agency Elementor Template Kit|Ovolio-babiato-@TingTung|https://drive.google.com/file/d/1RAd5XzzbO4G5Tnvq4DFrGUEkMVOIQ5J7/view?usp=drivesdk|https://drive.google.com/file/d/1DG_zmwKSoieojAndJMRYc-XJcz2dDadG/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ovolio - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Ovolio-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RAd5XzzbO4G5Tnvq4DFrGUEkMVOIQ5J7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DG_zmwKSoieojAndJMRYc-XJcz2dDadG/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ozeum - Modern Art Gallery &amp; Museum Elementor Template Kit|Ozeum-babiato-@TingTung|https://drive.google.com/file/d/1KAUsrj11aL-jCGrkhhO9c3Agg65LoGH2/view?usp=drivesdk|https://drive.google.com/file/d/1iEeliA2hy00r9CzT4MYs7zFbkYzzyDMQ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ozeum - Modern Art Gallery &amp; Museum Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Ozeum-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KAUsrj11aL-jCGrkhhO9c3Agg65LoGH2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iEeliA2hy00r9CzT4MYs7zFbkYzzyDMQ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ozod - Dark Digital Agency Elementor Template Kit|Ozod-babiato-@TingTung|https://drive.google.com/file/d/1PdYPz-pmRlgLtyP75bZEyb6Skj8i3GjY/view?usp=drivesdk|https://drive.google.com/file/d/1f8M3pPdH7lpsu8WPwGagNbiUejHwH2t4/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Ozod - Dark Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Ozod-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1PdYPz-pmRlgLtyP75bZEyb6Skj8i3GjY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1f8M3pPdH7lpsu8WPwGagNbiUejHwH2t4/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Parax - Creative Agency Elementor Template Kit|Parax-babiato-@TingTung|https://drive.google.com/file/d/1xllLG5vNjxYujUtIC63WqCXbpyfCVNBw/view?usp=drivesdk|https://drive.google.com/file/d/1U3OQh9fmVia4dUw8d6pl--sJsmHjMPmr/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Parax - Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Parax-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xllLG5vNjxYujUtIC63WqCXbpyfCVNBw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1U3OQh9fmVia4dUw8d6pl--sJsmHjMPmr/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Parto - Creative Personal Portfolio Elementor Template Kit|Parto-babiato-@TingTung|https://drive.google.com/file/d/15khSgA3BAV2NsQOIUAQavNgFZESJNHYz/view?usp=drivesdk|https://drive.google.com/file/d/1Nl4D0XT_EJBlPRka03HmK56TOj6YKYOv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Parto - Creative Personal Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Parto-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15khSgA3BAV2NsQOIUAQavNgFZESJNHYz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Nl4D0XT_EJBlPRka03HmK56TOj6YKYOv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>PIRUS - Dark Digital Agency Elementor Template Kit|PIRUS-babiato-@TingTung|https://drive.google.com/file/d/1i0wI3-d1M_G6461TaJMf6MiW6Ir_bNX_/view?usp=drivesdk|https://drive.google.com/file/d/18B3DOoydJitYkuDF6hXcasT-zG6R9peR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>PIRUS - Dark Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>PIRUS-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1i0wI3-d1M_G6461TaJMf6MiW6Ir_bNX_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18B3DOoydJitYkuDF6hXcasT-zG6R9peR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Pixelate - Portfolio &amp; Photography Elementor Template Kit|Pixelate-babiato-@TingTung|https://drive.google.com/file/d/1JRNymfEwaR8PzgbJrtV-wqlKDhX6tTU3/view?usp=drivesdk|https://drive.google.com/file/d/1v7aoKTvxncypLXk-ygv-cosbtPVb-Izi/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Pixelate - Portfolio &amp; Photography Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Pixelate-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JRNymfEwaR8PzgbJrtV-wqlKDhX6tTU3/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1v7aoKTvxncypLXk-ygv-cosbtPVb-Izi/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Pixila - Creative Multipurpose Elementor Template Kit|Pixila-babiato-@TingTung|https://drive.google.com/file/d/1yv7bCQIQf3e53FH1p6AOpIaoYDoxDI0z/view?usp=drivesdk|https://drive.google.com/file/d/1xWMclXsBRaaBRXfNixPzIA1JFX362m6u/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Pixila - Creative Multipurpose Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Pixila-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yv7bCQIQf3e53FH1p6AOpIaoYDoxDI0z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xWMclXsBRaaBRXfNixPzIA1JFX362m6u/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Portfoliode - Personal CV:Resume &amp; Portfolio Elementor Template Kit|Portfoliode-babiato-@TingTung|https://drive.google.com/file/d/1Tt4x7UGElsTZnPVc4cBbQBkp7j_w12l4/view?usp=drivesdk|https://drive.google.com/file/d/1RWCa0l5fXsrIr33zth7zneUP2jC5FQ8R/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Portfoliode - Personal CV:Resume &amp; Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Portfoliode-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Tt4x7UGElsTZnPVc4cBbQBkp7j_w12l4/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RWCa0l5fXsrIr33zth7zneUP2jC5FQ8R/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Potopath - Digital Agency Elementor Template Kit|Potopath-babiato-@TingTung|https://drive.google.com/file/d/1HJMTlvGH04ZUuMOH0jPkTQm_oOnMmtqs/view?usp=drivesdk|https://drive.google.com/file/d/1_MSuuFVtvjIqVg4h4dYHFZ_44xdxMDZ7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Potopath - Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Potopath-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HJMTlvGH04ZUuMOH0jPkTQm_oOnMmtqs/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_MSuuFVtvjIqVg4h4dYHFZ_44xdxMDZ7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Potua - Creative Portfolio &amp; Agency Elementor Template Kit|Potua-babiato-@TingTung|https://drive.google.com/file/d/1oVVQ2rP6KSK3hvpx4A0ESdUxVb0AYQ8s/view?usp=drivesdk|https://drive.google.com/file/d/1OzSJLkiHLLdadRBfMWxfeja0Gb5jsncn/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Potua - Creative Portfolio &amp; Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>Potua-babiato-@TingTung</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oVVQ2rP6KSK3hvpx4A0ESdUxVb0AYQ8s/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OzSJLkiHLLdadRBfMWxfeja0Gb5jsncn/view?usp=drivesdk</t>
+    <t>Qempo - Digital Service Agency Elementor Template Kit|Qempo-babiato-@TingTung|https://drive.google.com/file/d/1SJlIwnloXRbWAocedVlEzSErbSUjdBoI/view?usp=drivesdk|https://drive.google.com/file/d/1F7rHsvOORCI_G_tFnrDoMN3XajrhfjW8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Qempo - Digital Service Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Qempo-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SJlIwnloXRbWAocedVlEzSErbSUjdBoI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F7rHsvOORCI_G_tFnrDoMN3XajrhfjW8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Qolle - Digital Marketing Agency Elementor Template Kit|Qolle-babiato-@TingTung|https://drive.google.com/file/d/11zfTfJ8AXWhjDT78OMyRR5K9sCJeop2U/view?usp=drivesdk|https://drive.google.com/file/d/1sg_qNX9q9iG-hq01pyuaj8MKUZU0iMW8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Qolle - Digital Marketing Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Qolle-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11zfTfJ8AXWhjDT78OMyRR5K9sCJeop2U/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sg_qNX9q9iG-hq01pyuaj8MKUZU0iMW8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Quanzo - Creative Portfolio Template Kit|Quanzo-babiato-@TingTung|https://drive.google.com/file/d/147bQW9VgDXYiEsw2IkGm_9sAV5Clwttd/view?usp=drivesdk|https://drive.google.com/file/d/1PTeCcgF-ToqLehNHiwChz2uJ0ycDpzLh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Quanzo - Creative Portfolio Template Kit</t>
+  </si>
+  <si>
+    <t>Quanzo-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/147bQW9VgDXYiEsw2IkGm_9sAV5Clwttd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PTeCcgF-ToqLehNHiwChz2uJ0ycDpzLh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>QuickSpace - Creative Business Elementor Template Kit|QuickSpace-babiato-@TingTung|https://drive.google.com/file/d/1S-F2dFYmza4xsrKhNgdMv8KvpZRNvYbu/view?usp=drivesdk|https://drive.google.com/file/d/1eEQx-1zsLNL3pHfL-tfVmaOKDeYmJNgR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>QuickSpace - Creative Business Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>QuickSpace-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S-F2dFYmza4xsrKhNgdMv8KvpZRNvYbu/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eEQx-1zsLNL3pHfL-tfVmaOKDeYmJNgR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Raint - Digital Agency Elementor Template Kit|Raint-babiato-@TingTung|https://drive.google.com/file/d/1Eka0uHstxldA4BBJKeeXmOm6mH6q971r/view?usp=drivesdk|https://drive.google.com/file/d/1tQpyDc5ZzuTzo_z_5ASNcJwh8mWC3dET/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Raint - Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>Raint-babiato-@TingTung</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Eka0uHstxldA4BBJKeeXmOm6mH6q971r/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tQpyDc5ZzuTzo_z_5ASNcJwh8mWC3dET/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -696,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -711,6 +486,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,36 +511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -782,7 +535,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,14 +566,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -819,6 +588,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -827,25 +603,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,13 +619,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -880,25 +655,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,25 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,121 +817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,11 +849,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,24 +896,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,32 +919,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,140 +937,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,7 +1421,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1690,7 +1465,7 @@
       </c>
       <c r="F2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"'),"</f>
-        <v>('Miso - Minimal Portfolio Elementor Template Kit','Miso-babiato-@TingTung','https://drive.google.com/file/d/1VtRqMEmP5KKM-DiH4nhpnvSBtkcrHtOX/view?usp=drivesdk','https://drive.google.com/file/d/1kYFclu68BC2gf6-iOWBqW4FXqnTeaVIJ/view?usp=drivesdk'),</v>
+        <v>('Qempo - Digital Service Agency Elementor Template Kit','Qempo-babiato-@TingTung','https://drive.google.com/file/d/1SJlIwnloXRbWAocedVlEzSErbSUjdBoI/view?usp=drivesdk','https://drive.google.com/file/d/1F7rHsvOORCI_G_tFnrDoMN3XajrhfjW8/view?usp=drivesdk'),</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1711,7 +1486,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F21" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"'),"</f>
-        <v>('Moiz - Digital Marketing Agency Elementor Template Kit','Moiz-babiato-@TingTung','https://drive.google.com/file/d/1sOvTuItwOmvLZpa8uG8VmOzWVeMQPfP8/view?usp=drivesdk','https://drive.google.com/file/d/1ahPJJ3UHL5BdtaKKACiTX669hxDZbf5F/view?usp=drivesdk'),</v>
+        <v>('Qolle - Digital Marketing Agency Elementor Template Kit','Qolle-babiato-@TingTung','https://drive.google.com/file/d/11zfTfJ8AXWhjDT78OMyRR5K9sCJeop2U/view?usp=drivesdk','https://drive.google.com/file/d/1sg_qNX9q9iG-hq01pyuaj8MKUZU0iMW8/view?usp=drivesdk'),</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1732,7 +1507,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>('Mont - Agency Elementor Template kit','Mont-babiato-@TingTung','https://drive.google.com/file/d/1XGqZhwBAq_XKU5U693Ri_IlVJLx09bv-/view?usp=drivesdk','https://drive.google.com/file/d/1Mv5IpiipF2nuiVzGjTaSH27b7oi6Cx7e/view?usp=drivesdk'),</v>
+        <v>('Quanzo - Creative Portfolio Template Kit','Quanzo-babiato-@TingTung','https://drive.google.com/file/d/147bQW9VgDXYiEsw2IkGm_9sAV5Clwttd/view?usp=drivesdk','https://drive.google.com/file/d/1PTeCcgF-ToqLehNHiwChz2uJ0ycDpzLh/view?usp=drivesdk'),</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1753,7 +1528,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>('Morgan - Creative Agency &amp; Portfolio Elementor Template Kit','Morgan-babiato-@TingTung','https://drive.google.com/file/d/1QogASibtI1IOPsyOLMx_PToZQYj9KmQm/view?usp=drivesdk','https://drive.google.com/file/d/19LMRetmvAXxxvsqgskrqcMhMfd3LYIxv/view?usp=drivesdk'),</v>
+        <v>('QuickSpace - Creative Business Elementor Template Kit','QuickSpace-babiato-@TingTung','https://drive.google.com/file/d/1S-F2dFYmza4xsrKhNgdMv8KvpZRNvYbu/view?usp=drivesdk','https://drive.google.com/file/d/1eEQx-1zsLNL3pHfL-tfVmaOKDeYmJNgR/view?usp=drivesdk'),</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1774,322 +1549,157 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>('Motret - Digital Marketing Elementor Template Kit','motret-babiato-@TingTung','https://drive.google.com/file/d/1aR9_WKdJiTZgfYUc2k1rf_BCzUNijMII/view?usp=drivesdk','https://drive.google.com/file/d/1_4pZDasgsRjTHC0zqVJI2TPIuz0rgxKf/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>('Raint - Digital Agency Elementor Template Kit','Raint-babiato-@TingTung','https://drive.google.com/file/d/1Eka0uHstxldA4BBJKeeXmOm6mH6q971r/view?usp=drivesdk','https://drive.google.com/file/d/1tQpyDc5ZzuTzo_z_5ASNcJwh8mWC3dET/view?usp=drivesdk'),</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>('Mylo - Creative Agency &amp; Portfolio Template Kit','Mylo-babiato-@TingTung','https://drive.google.com/file/d/1gI9DdZjDdhV4JPdYBPx8MP6cV2Is5C9E/view?usp=drivesdk','https://drive.google.com/file/d/1TVvcq3IZ6zvYVI6Rz7JnhM27smQv7SOG/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>('Ngepet - Creative Agency Company Elementor Template Kit','Ngepet-babiato-@TingTung','https://drive.google.com/file/d/1On7hWO-62pXIC-LL6mFJ81v-hTm4Np2x/view?usp=drivesdk','https://drive.google.com/file/d/1mH8e3l1HbW5ymk5iFY0_xuGR23btjnkP/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>('Ogena - Minimal Elementor Template Kit','Ogena-babiato-@TingTung','https://drive.google.com/file/d/1UtSkQb8CDDqQjG5O5SfggRmk9yW2HMHT/view?usp=drivesdk','https://drive.google.com/file/d/1UcrKJXwViHLIpowyC3O4Su-NAn78moy2/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>('Ouakee - Creative Company &amp; Professional Portfolio  Elementor Template Kit','Ouakee-babiato-@TingTung','https://drive.google.com/file/d/1nwhTql2IhWNy6-7wErZh-Mq7o651Im6p/view?usp=drivesdk','https://drive.google.com/file/d/19HIeSEKru2h52rKosFC2Dv4jH3l-0lo8/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>('Ovolio - Creative Agency Elementor Template Kit','Ovolio-babiato-@TingTung','https://drive.google.com/file/d/1RAd5XzzbO4G5Tnvq4DFrGUEkMVOIQ5J7/view?usp=drivesdk','https://drive.google.com/file/d/1DG_zmwKSoieojAndJMRYc-XJcz2dDadG/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>('Ozeum - Modern Art Gallery &amp; Museum Elementor Template Kit','Ozeum-babiato-@TingTung','https://drive.google.com/file/d/1KAUsrj11aL-jCGrkhhO9c3Agg65LoGH2/view?usp=drivesdk','https://drive.google.com/file/d/1iEeliA2hy00r9CzT4MYs7zFbkYzzyDMQ/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>('Ozod - Dark Digital Agency Elementor Template Kit','Ozod-babiato-@TingTung','https://drive.google.com/file/d/1PdYPz-pmRlgLtyP75bZEyb6Skj8i3GjY/view?usp=drivesdk','https://drive.google.com/file/d/1f8M3pPdH7lpsu8WPwGagNbiUejHwH2t4/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>('Parax - Creative Agency Elementor Template Kit','Parax-babiato-@TingTung','https://drive.google.com/file/d/1xllLG5vNjxYujUtIC63WqCXbpyfCVNBw/view?usp=drivesdk','https://drive.google.com/file/d/1U3OQh9fmVia4dUw8d6pl--sJsmHjMPmr/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>('Parto - Creative Personal Portfolio Elementor Template Kit','Parto-babiato-@TingTung','https://drive.google.com/file/d/15khSgA3BAV2NsQOIUAQavNgFZESJNHYz/view?usp=drivesdk','https://drive.google.com/file/d/1Nl4D0XT_EJBlPRka03HmK56TOj6YKYOv/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>('PIRUS - Dark Digital Agency Elementor Template Kit','PIRUS-babiato-@TingTung','https://drive.google.com/file/d/1i0wI3-d1M_G6461TaJMf6MiW6Ir_bNX_/view?usp=drivesdk','https://drive.google.com/file/d/18B3DOoydJitYkuDF6hXcasT-zG6R9peR/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>('Pixelate - Portfolio &amp; Photography Elementor Template Kit','Pixelate-babiato-@TingTung','https://drive.google.com/file/d/1JRNymfEwaR8PzgbJrtV-wqlKDhX6tTU3/view?usp=drivesdk','https://drive.google.com/file/d/1v7aoKTvxncypLXk-ygv-cosbtPVb-Izi/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>('Pixila - Creative Multipurpose Elementor Template Kit','Pixila-babiato-@TingTung','https://drive.google.com/file/d/1yv7bCQIQf3e53FH1p6AOpIaoYDoxDI0z/view?usp=drivesdk','https://drive.google.com/file/d/1xWMclXsBRaaBRXfNixPzIA1JFX362m6u/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>('Portfoliode - Personal CV:Resume &amp; Portfolio Elementor Template Kit','Portfoliode-babiato-@TingTung','https://drive.google.com/file/d/1Tt4x7UGElsTZnPVc4cBbQBkp7j_w12l4/view?usp=drivesdk','https://drive.google.com/file/d/1RWCa0l5fXsrIr33zth7zneUP2jC5FQ8R/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>('Potopath - Digital Agency Elementor Template Kit','Potopath-babiato-@TingTung','https://drive.google.com/file/d/1HJMTlvGH04ZUuMOH0jPkTQm_oOnMmtqs/view?usp=drivesdk','https://drive.google.com/file/d/1_MSuuFVtvjIqVg4h4dYHFZ_44xdxMDZ7/view?usp=drivesdk'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>('','','',''),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>('Potua - Creative Portfolio &amp; Agency Elementor Template Kit','Potua-babiato-@TingTung','https://drive.google.com/file/d/1oVVQ2rP6KSK3hvpx4A0ESdUxVb0AYQ8s/view?usp=drivesdk','https://drive.google.com/file/d/1OzSJLkiHLLdadRBfMWxfeja0Gb5jsncn/view?usp=drivesdk'),</v>
+        <v>('','','',''),</v>
       </c>
     </row>
     <row r="22" spans="4:5">
@@ -2235,13 +1845,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2249,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2264,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D21" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
@@ -2279,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2294,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2309,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2324,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2339,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2354,10 +1964,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2369,10 +1979,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2384,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2399,10 +2009,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2414,10 +2024,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2429,10 +2039,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2444,10 +2054,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2459,10 +2069,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2474,10 +2084,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2489,10 +2099,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2504,10 +2114,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2519,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2534,10 +2144,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2549,10 +2159,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D37" si="1">"('"&amp;B22&amp;"','"&amp;C22&amp;"'),"</f>
@@ -2564,10 +2174,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2579,10 +2189,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2594,10 +2204,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2609,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2624,10 +2234,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2639,10 +2249,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2654,10 +2264,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -2669,10 +2279,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -2684,10 +2294,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -2699,10 +2309,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -2714,10 +2324,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -2729,10 +2339,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -2744,10 +2354,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -2759,10 +2369,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -2774,10 +2384,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -2789,10 +2399,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ref="D38:D51" si="2">"('"&amp;B38&amp;"','"&amp;C38&amp;"'),"</f>
@@ -2804,10 +2414,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
@@ -2819,10 +2429,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
@@ -2834,10 +2444,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
@@ -2849,10 +2459,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
@@ -2864,10 +2474,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
@@ -2879,10 +2489,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
@@ -2894,10 +2504,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
@@ -2909,10 +2519,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
@@ -2924,10 +2534,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
@@ -2939,10 +2549,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
@@ -2954,10 +2564,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
@@ -2969,10 +2579,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
@@ -2984,10 +2594,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
@@ -3267,178 +2877,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
   <si>
     <t>Fake</t>
   </si>
@@ -31,367 +31,127 @@
     <t>insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t>Automaton - Artificial Intelligence &amp; Technology Services Elementor Template Kit|https://drive.google.com/file/d/14HKVMpPi6_SS11d_uXt9imsC5s1I8UL9/view?usp=drivesdk|https://drive.google.com/file/d/1fsNr0fkOvSu7pEf8QzzAYytzJ2gY_sEf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Automaton - Artificial Intelligence &amp; Technology Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14HKVMpPi6_SS11d_uXt9imsC5s1I8UL9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fsNr0fkOvSu7pEf8QzzAYytzJ2gY_sEf/view?usp=drivesdk</t>
+    <t>Foruum - SaaS &amp; Software Startup Elementor Template Kit|https://drive.google.com/file/d/15WDyyGc_xqfDawDNLTDO9uo8vA9DuTHw/view?usp=drivesdk|https://drive.google.com/file/d/1qUErxE_bnV0QplE506ocLn-lnv_567-H/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Foruum - SaaS &amp; Software Startup Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15WDyyGc_xqfDawDNLTDO9uo8vA9DuTHw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qUErxE_bnV0QplE506ocLn-lnv_567-H/view?usp=drivesdk</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Autome - Smart Home Automation Elementor Template Kit|https://drive.google.com/file/d/1FP2SwzrQMmzxrjSGZzW8f3vf5yAsJvND/view?usp=drivesdk|https://drive.google.com/file/d/17YfptNrHAtBa_872gIGwBViEcHKiQsj5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Autome - Smart Home Automation Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1FP2SwzrQMmzxrjSGZzW8f3vf5yAsJvND/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17YfptNrHAtBa_872gIGwBViEcHKiQsj5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Axies - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1OtZI7dPKdYYlwcKYsNpdT7BVHELs-vlZ/view?usp=drivesdk|https://drive.google.com/file/d/1g5eWCnffQYUHX0ZE6PJgDuLNXsGhL-CI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Axies - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OtZI7dPKdYYlwcKYsNpdT7BVHELs-vlZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1g5eWCnffQYUHX0ZE6PJgDuLNXsGhL-CI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bankai - Card Payment &amp; Online Banking Elementor Template Kit|https://drive.google.com/file/d/12cAj0Kt5_lCpwnVQ9poTHw5b73ImXRzz/view?usp=drivesdk|https://drive.google.com/file/d/104YeSOQIvkWSaq9fsNjBUT1Hb2AFp7gd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bankai - Card Payment &amp; Online Banking Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12cAj0Kt5_lCpwnVQ9poTHw5b73ImXRzz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/104YeSOQIvkWSaq9fsNjBUT1Hb2AFp7gd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Baha - Apps Landing Elementor Template Kit|https://drive.google.com/file/d/1XAMdMuHVZQLISRj9N9dtJT6r_LA114Fd/view?usp=drivesdk|https://drive.google.com/file/d/1K2xUE0Og3OCvcV8TyZ57-egehuhPqLGb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Baha - Apps Landing Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XAMdMuHVZQLISRj9N9dtJT6r_LA114Fd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1K2xUE0Og3OCvcV8TyZ57-egehuhPqLGb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bidzen - NFT Sales Elementor Template Kit|https://drive.google.com/file/d/1p4vNSI0V6rDxZHkleD0Qm9NXiOSSf6fM/view?usp=drivesdk|https://drive.google.com/file/d/1e7XpMNVX07dQS-aWziLzhS_FF1Nsf5aR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bidzen - NFT Sales Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1p4vNSI0V6rDxZHkleD0Qm9NXiOSSf6fM/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1e7XpMNVX07dQS-aWziLzhS_FF1Nsf5aR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bigbytes - Big Data &amp; Analytics Company Elementor Template Kit|https://drive.google.com/file/d/1qR20OoVYHIfCLOO8EsH1rK5NkjLc2082/view?usp=drivesdk|https://drive.google.com/file/d/1EH7YGBQnrFb1r3CVPNUPP7R-1iYU5ML-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bigbytes - Big Data &amp; Analytics Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qR20OoVYHIfCLOO8EsH1rK5NkjLc2082/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EH7YGBQnrFb1r3CVPNUPP7R-1iYU5ML-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Booster - Proxy &amp; App VPN Service Elementor Template Kit|https://drive.google.com/file/d/1DOrmbXAjQSJdbJqFfda9l8rYJfOF09Hx/view?usp=drivesdk|https://drive.google.com/file/d/122q7LNKz5KOs3t2RqN4sBMIEGTurHvYC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Booster - Proxy &amp; App VPN Service Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DOrmbXAjQSJdbJqFfda9l8rYJfOF09Hx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/122q7LNKz5KOs3t2RqN4sBMIEGTurHvYC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Booyah - Creative Artist Portfolio Elementor Template Kit|https://drive.google.com/file/d/1Mc3Yto0ACKZXbiZfX2OMY85UYy87gcvi/view?usp=drivesdk|https://drive.google.com/file/d/1oMCUmXCIGFPHgCaORiv54QDgS7XdLXwJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Booyah - Creative Artist Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Mc3Yto0ACKZXbiZfX2OMY85UYy87gcvi/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oMCUmXCIGFPHgCaORiv54QDgS7XdLXwJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>BrandCoin - Cryptocurrency Elementor Template Kit|https://drive.google.com/file/d/1KzMUfPBQQ0zSQVnXQ0CyidZEeOBYnO4P/view?usp=drivesdk|https://drive.google.com/file/d/19gDRUQBn3Z6fcuJ1G54FkNm5s51a40Fc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>BrandCoin - Cryptocurrency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KzMUfPBQQ0zSQVnXQ0CyidZEeOBYnO4P/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19gDRUQBn3Z6fcuJ1G54FkNm5s51a40Fc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bustic - Tech &amp; Software Company Elementor Template kit|https://drive.google.com/file/d/1tw3VHd7KWDCm1rHTf2beUhDnFPNW8Dxz/view?usp=drivesdk|https://drive.google.com/file/d/1ckYkpFs0huyxjD-Ds607RTJwRzhFiIqx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bustic - Tech &amp; Software Company Elementor Template kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tw3VHd7KWDCm1rHTf2beUhDnFPNW8Dxz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ckYkpFs0huyxjD-Ds607RTJwRzhFiIqx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Carddio - Card Payment &amp; Online Banking Elementor Template Kit|https://drive.google.com/file/d/1aZ1fQaW4-Xz6jmU8ijf39SUC7KfXUyOq/view?usp=drivesdk|https://drive.google.com/file/d/1T42U8WKBJhuPg8VeVV9_NDT45Et4llNC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Carddio - Card Payment &amp; Online Banking Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aZ1fQaW4-Xz6jmU8ijf39SUC7KfXUyOq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1T42U8WKBJhuPg8VeVV9_NDT45Et4llNC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cartera - Personal NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1snk9VphfLrEmsEwTtoTCAgJ8htVv6DND/view?usp=drivesdk|https://drive.google.com/file/d/15iLV7TFfC-_9Wc_DvP73ipdH-dp-jXZc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cartera - Personal NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1snk9VphfLrEmsEwTtoTCAgJ8htVv6DND/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15iLV7TFfC-_9Wc_DvP73ipdH-dp-jXZc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Clevehouse - Smart Home Automation Elementor Template Kit|https://drive.google.com/file/d/1mUoH_vyb_vPBhU5lcyDmbDUUyyW8uhfJ/view?usp=drivesdk|https://drive.google.com/file/d/1R7lnooqLvGdT7rl4806emCfOWY98K2H9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Clevehouse - Smart Home Automation Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mUoH_vyb_vPBhU5lcyDmbDUUyyW8uhfJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1R7lnooqLvGdT7rl4806emCfOWY98K2H9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Codex - Cyber Security Elementor Template Kit|https://drive.google.com/file/d/1R4Pi-T54MDAtlH3TEUWoxCG3VGSZxmZO/view?usp=drivesdk|https://drive.google.com/file/d/1yVHv_Sed-9vgF3h6w-dS0d_BEAlVHQyV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Codex - Cyber Security Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1R4Pi-T54MDAtlH3TEUWoxCG3VGSZxmZO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yVHv_Sed-9vgF3h6w-dS0d_BEAlVHQyV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Coinary - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit|https://drive.google.com/file/d/1qKur3oXMn165GStqsElFJFwkuZOpZfWB/view?usp=drivesdk|https://drive.google.com/file/d/1i2WHcywkMfgXZWTE8Jt0huT8yylVXvc8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Coinary - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qKur3oXMn165GStqsElFJFwkuZOpZfWB/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1i2WHcywkMfgXZWTE8Jt0huT8yylVXvc8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Coinyx - Cryptocurrency Blockchain &amp; Bitcoin Elementor Template Kit|https://drive.google.com/file/d/1sgBAcNqbszNhiKG4EV67ZiqFb4mKLo8u/view?usp=drivesdk|https://drive.google.com/file/d/18dgy8Z-Uyq38BI6tdBkNatBOa681QDdj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Coinyx - Cryptocurrency Blockchain &amp; Bitcoin Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sgBAcNqbszNhiKG4EV67ZiqFb4mKLo8u/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18dgy8Z-Uyq38BI6tdBkNatBOa681QDdj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>CraftMaya - IT Solutions &amp; Services Company Elementor Template Kit|https://drive.google.com/file/d/107ZLdcMDghW6PUBxfCKpf920dTQ_miI5/view?usp=drivesdk|https://drive.google.com/file/d/1F-VG6JbmC4G3MzQmyb6YxZkX2_PahA5l/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>CraftMaya - IT Solutions &amp; Services Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/107ZLdcMDghW6PUBxfCKpf920dTQ_miI5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1F-VG6JbmC4G3MzQmyb6YxZkX2_PahA5l/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Credigi - Digital Bank &amp; Credit Card Elementor Template Kit|https://drive.google.com/file/d/1z1Y9jzlC268PhnWPVMQYrHdu2gzS7Ojg/view?usp=drivesdk|https://drive.google.com/file/d/1qgC2P4yhypR0fH4oOiLbj5Io90i0KQE7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Credigi - Digital Bank &amp; Credit Card Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1z1Y9jzlC268PhnWPVMQYrHdu2gzS7Ojg/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qgC2P4yhypR0fH4oOiLbj5Io90i0KQE7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cripto - Cryptocurrency &amp; Bitcoin Elementor Template Kit|https://drive.google.com/file/d/1-jM6whYMI7sC7GDNtK4_WrnqGVYqnmAy/view?usp=drivesdk|https://drive.google.com/file/d/1vM6RR190VjQpSdLg_74xhvFTMMsXTkCj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cripto - Cryptocurrency &amp; Bitcoin Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-jM6whYMI7sC7GDNtK4_WrnqGVYqnmAy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vM6RR190VjQpSdLg_74xhvFTMMsXTkCj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cryptiva - Cyber Security Services Elementor Template Kit|https://drive.google.com/file/d/1H9WEc4A_RC-LuOuZVSdgeMKuYMakBfqT/view?usp=drivesdk|https://drive.google.com/file/d/1DLc2aC-3yaNai0ucK-Og4M874F_N7QTx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cryptiva - Cyber Security Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1H9WEc4A_RC-LuOuZVSdgeMKuYMakBfqT/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DLc2aC-3yaNai0ucK-Og4M874F_N7QTx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cryptodax - Cryptocurrency &amp; Blockchain  Elementor Template Kit|https://drive.google.com/file/d/1tpL7jGSBSRUpLOYqoXbSEA8s37156gsd/view?usp=drivesdk|https://drive.google.com/file/d/1WTGMwRwK2b7-tPv3VLholmAtf4dUQpuo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cryptodax - Cryptocurrency &amp; Blockchain  Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tpL7jGSBSRUpLOYqoXbSEA8s37156gsd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WTGMwRwK2b7-tPv3VLholmAtf4dUQpuo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cryptopia - NFT Crypto Sales Elementor Template Kit|https://drive.google.com/file/d/1LRlnj2tVXJcwFr7GbHIs2MQCndymMyt5/view?usp=drivesdk|https://drive.google.com/file/d/1B1jIOgvfshL_AqqjmiAquBqjmnM_lWX6/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cryptopia - NFT Crypto Sales Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LRlnj2tVXJcwFr7GbHIs2MQCndymMyt5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1B1jIOgvfshL_AqqjmiAquBqjmnM_lWX6/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cyber Cloop - Cyber Security Elementor Template Kits|https://drive.google.com/file/d/1hQKDpG26L3htaEcGeVSoUh_57xckqM7o/view?usp=drivesdk|https://drive.google.com/file/d/1J5T6iwGfOB-w9Bp8A-bjwjhALHrSVDH9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cyber Cloop - Cyber Security Elementor Template Kits</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1hQKDpG26L3htaEcGeVSoUh_57xckqM7o/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1J5T6iwGfOB-w9Bp8A-bjwjhALHrSVDH9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>CyberJet - Web Security Elementor Template Kit|https://drive.google.com/file/d/1yShKqHM_o97ldzuTDBA9upX1Telowgos/view?usp=drivesdk|https://drive.google.com/file/d/1zA6fGhMWfTD2YOLtWmlaZ_mATyd7_zub/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>CyberJet - Web Security Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yShKqHM_o97ldzuTDBA9upX1Telowgos/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zA6fGhMWfTD2YOLtWmlaZ_mATyd7_zub/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cybershield - Cyber Security Services Company Elementor Template Kit|https://drive.google.com/file/d/1kpVF_McbV-TI3Hx90fTD4pwcpU1xWteo/view?usp=drivesdk|https://drive.google.com/file/d/1tuJUGmVFuvJuPurhk3SbMnMWbtajtHhC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cybershield - Cyber Security Services Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kpVF_McbV-TI3Hx90fTD4pwcpU1xWteo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tuJUGmVFuvJuPurhk3SbMnMWbtajtHhC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cybertech - Cyber Security Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1cVOux_FscJ31X5PCgznjdeb8Qg4XHprm/view?usp=drivesdk|https://drive.google.com/file/d/1ZNX8G4bhHL9v7VThTDv57WJkS0VCru7q/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cybertech - Cyber Security Elementor Pro Full Site Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cVOux_FscJ31X5PCgznjdeb8Qg4XHprm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZNX8G4bhHL9v7VThTDv57WJkS0VCru7q/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cybox - NFT Collections Elementor Template Kit|https://drive.google.com/file/d/1UEIw4Cx8_TMzAyeS6UDe_U_e2InPFuKZ/view?usp=drivesdk|https://drive.google.com/file/d/1Ka-gHhVjeESoR8bVBQTEu1GzDreXoCCN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cybox - NFT Collections Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UEIw4Cx8_TMzAyeS6UDe_U_e2InPFuKZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ka-gHhVjeESoR8bVBQTEu1GzDreXoCCN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cynex - Cyber Security Services Company Elementor Template Kit|https://drive.google.com/file/d/1IXdmDGogzYwOAs_ppexlnAKdmyDFxW1b/view?usp=drivesdk|https://drive.google.com/file/d/1Zpe_PYEpZheFChd16AQeVv7Qum8cvtP3/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Cynex - Cyber Security Services Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1IXdmDGogzYwOAs_ppexlnAKdmyDFxW1b/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Zpe_PYEpZheFChd16AQeVv7Qum8cvtP3/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Datera - Online Dating Mobile App Landing Elementor Template Kit|https://drive.google.com/file/d/1jeTjaj0M9X0JydV1tWcRF1zv1ZAolicy/view?usp=drivesdk|https://drive.google.com/file/d/1KhnICYzfyrzIQ6fyTs9D5EMOREopQkWz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Datera - Online Dating Mobile App Landing Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jeTjaj0M9X0JydV1tWcRF1zv1ZAolicy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KhnICYzfyrzIQ6fyTs9D5EMOREopQkWz/view?usp=drivesdk</t>
+    <t>Frinex - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit|https://drive.google.com/file/d/10-OJb5JEtBuQPuWCDBiUKJE4AjqbRzaf/view?usp=drivesdk|https://drive.google.com/file/d/1Ip_M5K-yv4BwsDoYlXvVmipKkc01b3WD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Frinex - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10-OJb5JEtBuQPuWCDBiUKJE4AjqbRzaf/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ip_M5K-yv4BwsDoYlXvVmipKkc01b3WD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Gatech - Cyber Security &amp; IT Management Elementor Template Kit|https://drive.google.com/file/d/14ZK18XlFf93GxeTC1GlNYgozt-i63T7G/view?usp=drivesdk|https://drive.google.com/file/d/1etCXQm_K1OMUMCrV_eYDXiQARDbLSynB/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Gatech - Cyber Security &amp; IT Management Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14ZK18XlFf93GxeTC1GlNYgozt-i63T7G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1etCXQm_K1OMUMCrV_eYDXiQARDbLSynB/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>GreenTech - Green Technology Services Elementor Template Kit|https://drive.google.com/file/d/1CP_HuYzP9DxEjp7IHiCN-Y8x5wO6biMo/view?usp=drivesdk|https://drive.google.com/file/d/1S5FAIrql4rOc0kIHp9YzkGTxCL6GCmxh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>GreenTech - Green Technology Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CP_HuYzP9DxEjp7IHiCN-Y8x5wO6biMo/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S5FAIrql4rOc0kIHp9YzkGTxCL6GCmxh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>GumPay - Money Transfer &amp; Online Payments Elementor Template Kit|https://drive.google.com/file/d/13RDGj7Z1sV1AefGykZLtoSWxqcHRyMZ7/view?usp=drivesdk|https://drive.google.com/file/d/10R2FGctOGKx8gbZlmpFJdN1IPYsVpeUR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>GumPay - Money Transfer &amp; Online Payments Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13RDGj7Z1sV1AefGykZLtoSWxqcHRyMZ7/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10R2FGctOGKx8gbZlmpFJdN1IPYsVpeUR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Habitate - Smart Home Services Elementor Template Kit|https://drive.google.com/file/d/1MLH4JKsJl0DpxTF9Momp-76Ws5LDP8pl/view?usp=drivesdk|https://drive.google.com/file/d/1Y2TQFKqEc5-HRzxUV4aAM5ltLPbrCQzi/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Habitate - Smart Home Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MLH4JKsJl0DpxTF9Momp-76Ws5LDP8pl/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y2TQFKqEc5-HRzxUV4aAM5ltLPbrCQzi/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hape - Gadget Showcase Elementor Template Kit|https://drive.google.com/file/d/17hc1rP6dDFQ0cAcW08vpdf-xcpxgbqER/view?usp=drivesdk|https://drive.google.com/file/d/1yPzwehP5Hifa8Gbp6cgAI9gJfu7cdsnx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hape - Gadget Showcase Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17hc1rP6dDFQ0cAcW08vpdf-xcpxgbqER/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yPzwehP5Hifa8Gbp6cgAI9gJfu7cdsnx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hasto - Cyber Tech Security Service Elementor Template Kit|https://drive.google.com/file/d/155aSTSOL18RebmpHaleuhvYdpAJ0Nn1G/view?usp=drivesdk|https://drive.google.com/file/d/1BPTli4Q0JSm6731iOBxS0Oo3EetWLeOC/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hasto - Cyber Tech Security Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/155aSTSOL18RebmpHaleuhvYdpAJ0Nn1G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BPTli4Q0JSm6731iOBxS0Oo3EetWLeOC/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Haya - App Startup Elementor Template Kit|https://drive.google.com/file/d/1QQuXx5D4W8QfvBOA-ln-nQzx8ewFtAJE/view?usp=drivesdk|https://drive.google.com/file/d/1MNPEE45tVhwLkthP9ZUg71OzZMstsC0O/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Haya - App Startup Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QQuXx5D4W8QfvBOA-ln-nQzx8ewFtAJE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MNPEE45tVhwLkthP9ZUg71OzZMstsC0O/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hecxa - Creative Design Agency Elementor Template Kit|https://drive.google.com/file/d/13Dv0annEiwLFJk6PJAjQUKLTDfhUK1uW/view?usp=drivesdk|https://drive.google.com/file/d/1MgNPsOvdL_1PT3TysEzj7kTzBJJ_oZbA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hecxa - Creative Design Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Dv0annEiwLFJk6PJAjQUKLTDfhUK1uW/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MgNPsOvdL_1PT3TysEzj7kTzBJJ_oZbA/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -756,17 +516,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-d"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -784,28 +549,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +576,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +608,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,15 +644,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,14 +652,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,14 +665,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,13 +701,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,127 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +833,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,17 +895,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,11 +954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,17 +986,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1237,138 +997,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1713,7 +1473,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G31"/>
+      <selection activeCell="G1" sqref="G1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22857142857143" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1727,9 +1487,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -1757,11 +1514,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Automaton - Artificial Intelligence &amp; Technology Services Elementor Template Kit','https://drive.google.com/file/d/14HKVMpPi6_SS11d_uXt9imsC5s1I8UL9/view?usp=drivesdk','https://drive.google.com/file/d/1fsNr0fkOvSu7pEf8QzzAYytzJ2gY_sEf/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Foruum - SaaS &amp; Software Startup Elementor Template Kit','https://drive.google.com/file/d/15WDyyGc_xqfDawDNLTDO9uo8vA9DuTHw/view?usp=drivesdk','https://drive.google.com/file/d/1qUErxE_bnV0QplE506ocLn-lnv_567-H/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1781,11 +1538,11 @@
         <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G31" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;TEXT(F3,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Autome - Smart Home Automation Elementor Template Kit','https://drive.google.com/file/d/1FP2SwzrQMmzxrjSGZzW8f3vf5yAsJvND/view?usp=drivesdk','https://drive.google.com/file/d/17YfptNrHAtBa_872gIGwBViEcHKiQsj5/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Frinex - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit','https://drive.google.com/file/d/10-OJb5JEtBuQPuWCDBiUKJE4AjqbRzaf/view?usp=drivesdk','https://drive.google.com/file/d/1Ip_M5K-yv4BwsDoYlXvVmipKkc01b3WD/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1805,11 +1562,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('Axies - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1OtZI7dPKdYYlwcKYsNpdT7BVHELs-vlZ/view?usp=drivesdk','https://drive.google.com/file/d/1g5eWCnffQYUHX0ZE6PJgDuLNXsGhL-CI/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Gatech - Cyber Security &amp; IT Management Elementor Template Kit','https://drive.google.com/file/d/14ZK18XlFf93GxeTC1GlNYgozt-i63T7G/view?usp=drivesdk','https://drive.google.com/file/d/1etCXQm_K1OMUMCrV_eYDXiQARDbLSynB/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1829,11 +1586,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('Bankai - Card Payment &amp; Online Banking Elementor Template Kit','https://drive.google.com/file/d/12cAj0Kt5_lCpwnVQ9poTHw5b73ImXRzz/view?usp=drivesdk','https://drive.google.com/file/d/104YeSOQIvkWSaq9fsNjBUT1Hb2AFp7gd/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('GreenTech - Green Technology Services Elementor Template Kit','https://drive.google.com/file/d/1CP_HuYzP9DxEjp7IHiCN-Y8x5wO6biMo/view?usp=drivesdk','https://drive.google.com/file/d/1S5FAIrql4rOc0kIHp9YzkGTxCL6GCmxh/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1853,11 +1610,11 @@
         <v>8</v>
       </c>
       <c r="F6" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('Baha - Apps Landing Elementor Template Kit','https://drive.google.com/file/d/1XAMdMuHVZQLISRj9N9dtJT6r_LA114Fd/view?usp=drivesdk','https://drive.google.com/file/d/1K2xUE0Og3OCvcV8TyZ57-egehuhPqLGb/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('GumPay - Money Transfer &amp; Online Payments Elementor Template Kit','https://drive.google.com/file/d/13RDGj7Z1sV1AefGykZLtoSWxqcHRyMZ7/view?usp=drivesdk','https://drive.google.com/file/d/10R2FGctOGKx8gbZlmpFJdN1IPYsVpeUR/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1877,11 +1634,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('Bidzen - NFT Sales Elementor Template Kit','https://drive.google.com/file/d/1p4vNSI0V6rDxZHkleD0Qm9NXiOSSf6fM/view?usp=drivesdk','https://drive.google.com/file/d/1e7XpMNVX07dQS-aWziLzhS_FF1Nsf5aR/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Habitate - Smart Home Services Elementor Template Kit','https://drive.google.com/file/d/1MLH4JKsJl0DpxTF9Momp-76Ws5LDP8pl/view?usp=drivesdk','https://drive.google.com/file/d/1Y2TQFKqEc5-HRzxUV4aAM5ltLPbrCQzi/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1901,11 +1658,11 @@
         <v>8</v>
       </c>
       <c r="F8" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('Bigbytes - Big Data &amp; Analytics Company Elementor Template Kit','https://drive.google.com/file/d/1qR20OoVYHIfCLOO8EsH1rK5NkjLc2082/view?usp=drivesdk','https://drive.google.com/file/d/1EH7YGBQnrFb1r3CVPNUPP7R-1iYU5ML-/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Hape - Gadget Showcase Elementor Template Kit','https://drive.google.com/file/d/17hc1rP6dDFQ0cAcW08vpdf-xcpxgbqER/view?usp=drivesdk','https://drive.google.com/file/d/1yPzwehP5Hifa8Gbp6cgAI9gJfu7cdsnx/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1925,11 +1682,11 @@
         <v>8</v>
       </c>
       <c r="F9" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('Booster - Proxy &amp; App VPN Service Elementor Template Kit','https://drive.google.com/file/d/1DOrmbXAjQSJdbJqFfda9l8rYJfOF09Hx/view?usp=drivesdk','https://drive.google.com/file/d/122q7LNKz5KOs3t2RqN4sBMIEGTurHvYC/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Hasto - Cyber Tech Security Service Elementor Template Kit','https://drive.google.com/file/d/155aSTSOL18RebmpHaleuhvYdpAJ0Nn1G/view?usp=drivesdk','https://drive.google.com/file/d/1BPTli4Q0JSm6731iOBxS0Oo3EetWLeOC/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1949,11 +1706,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('Booyah - Creative Artist Portfolio Elementor Template Kit','https://drive.google.com/file/d/1Mc3Yto0ACKZXbiZfX2OMY85UYy87gcvi/view?usp=drivesdk','https://drive.google.com/file/d/1oMCUmXCIGFPHgCaORiv54QDgS7XdLXwJ/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('Haya - App Startup Elementor Template Kit','https://drive.google.com/file/d/1QQuXx5D4W8QfvBOA-ln-nQzx8ewFtAJE/view?usp=drivesdk','https://drive.google.com/file/d/1MNPEE45tVhwLkthP9ZUg71OzZMstsC0O/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1973,26 +1730,17 @@
         <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('BrandCoin - Cryptocurrency Elementor Template Kit','https://drive.google.com/file/d/1KzMUfPBQQ0zSQVnXQ0CyidZEeOBYnO4P/view?usp=drivesdk','https://drive.google.com/file/d/19gDRUQBn3Z6fcuJ1G54FkNm5s51a40Fc/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>('Hecxa - Creative Design Agency Elementor Template Kit','https://drive.google.com/file/d/13Dv0annEiwLFJk6PJAjQUKLTDfhUK1uW/view?usp=drivesdk','https://drive.google.com/file/d/1MgNPsOvdL_1PT3TysEzj7kTzBJJ_oZbA/view?usp=drivesdk','1','2022-08-25'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2001,22 +1749,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('Bustic - Tech &amp; Software Company Elementor Template kit','https://drive.google.com/file/d/1tw3VHd7KWDCm1rHTf2beUhDnFPNW8Dxz/view?usp=drivesdk','https://drive.google.com/file/d/1ckYkpFs0huyxjD-Ds607RTJwRzhFiIqx/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2025,22 +1764,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('Carddio - Card Payment &amp; Online Banking Elementor Template Kit','https://drive.google.com/file/d/1aZ1fQaW4-Xz6jmU8ijf39SUC7KfXUyOq/view?usp=drivesdk','https://drive.google.com/file/d/1T42U8WKBJhuPg8VeVV9_NDT45Et4llNC/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2049,22 +1779,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('Cartera - Personal NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1snk9VphfLrEmsEwTtoTCAgJ8htVv6DND/view?usp=drivesdk','https://drive.google.com/file/d/15iLV7TFfC-_9Wc_DvP73ipdH-dp-jXZc/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2073,22 +1794,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('Clevehouse - Smart Home Automation Elementor Template Kit','https://drive.google.com/file/d/1mUoH_vyb_vPBhU5lcyDmbDUUyyW8uhfJ/view?usp=drivesdk','https://drive.google.com/file/d/1R7lnooqLvGdT7rl4806emCfOWY98K2H9/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2097,22 +1809,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('Codex - Cyber Security Elementor Template Kit','https://drive.google.com/file/d/1R4Pi-T54MDAtlH3TEUWoxCG3VGSZxmZO/view?usp=drivesdk','https://drive.google.com/file/d/1yVHv_Sed-9vgF3h6w-dS0d_BEAlVHQyV/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2121,22 +1824,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('Coinary - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit','https://drive.google.com/file/d/1qKur3oXMn165GStqsElFJFwkuZOpZfWB/view?usp=drivesdk','https://drive.google.com/file/d/1i2WHcywkMfgXZWTE8Jt0huT8yylVXvc8/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2145,22 +1839,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('Coinyx - Cryptocurrency Blockchain &amp; Bitcoin Elementor Template Kit','https://drive.google.com/file/d/1sgBAcNqbszNhiKG4EV67ZiqFb4mKLo8u/view?usp=drivesdk','https://drive.google.com/file/d/18dgy8Z-Uyq38BI6tdBkNatBOa681QDdj/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2169,22 +1854,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('CraftMaya - IT Solutions &amp; Services Company Elementor Template Kit','https://drive.google.com/file/d/107ZLdcMDghW6PUBxfCKpf920dTQ_miI5/view?usp=drivesdk','https://drive.google.com/file/d/1F-VG6JbmC4G3MzQmyb6YxZkX2_PahA5l/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2193,22 +1869,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('Credigi - Digital Bank &amp; Credit Card Elementor Template Kit','https://drive.google.com/file/d/1z1Y9jzlC268PhnWPVMQYrHdu2gzS7Ojg/view?usp=drivesdk','https://drive.google.com/file/d/1qgC2P4yhypR0fH4oOiLbj5Io90i0KQE7/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2217,22 +1884,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('Cripto - Cryptocurrency &amp; Bitcoin Elementor Template Kit','https://drive.google.com/file/d/1-jM6whYMI7sC7GDNtK4_WrnqGVYqnmAy/view?usp=drivesdk','https://drive.google.com/file/d/1vM6RR190VjQpSdLg_74xhvFTMMsXTkCj/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2241,22 +1899,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('Cryptiva - Cyber Security Services Elementor Template Kit','https://drive.google.com/file/d/1H9WEc4A_RC-LuOuZVSdgeMKuYMakBfqT/view?usp=drivesdk','https://drive.google.com/file/d/1DLc2aC-3yaNai0ucK-Og4M874F_N7QTx/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2265,22 +1914,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>('Cryptodax - Cryptocurrency &amp; Blockchain  Elementor Template Kit','https://drive.google.com/file/d/1tpL7jGSBSRUpLOYqoXbSEA8s37156gsd/view?usp=drivesdk','https://drive.google.com/file/d/1WTGMwRwK2b7-tPv3VLholmAtf4dUQpuo/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2289,22 +1929,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>('Cryptopia - NFT Crypto Sales Elementor Template Kit','https://drive.google.com/file/d/1LRlnj2tVXJcwFr7GbHIs2MQCndymMyt5/view?usp=drivesdk','https://drive.google.com/file/d/1B1jIOgvfshL_AqqjmiAquBqjmnM_lWX6/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2313,22 +1944,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>('Cyber Cloop - Cyber Security Elementor Template Kits','https://drive.google.com/file/d/1hQKDpG26L3htaEcGeVSoUh_57xckqM7o/view?usp=drivesdk','https://drive.google.com/file/d/1J5T6iwGfOB-w9Bp8A-bjwjhALHrSVDH9/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2337,22 +1959,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>('CyberJet - Web Security Elementor Template Kit','https://drive.google.com/file/d/1yShKqHM_o97ldzuTDBA9upX1Telowgos/view?usp=drivesdk','https://drive.google.com/file/d/1zA6fGhMWfTD2YOLtWmlaZ_mATyd7_zub/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2361,22 +1974,13 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>('Cybershield - Cyber Security Services Company Elementor Template Kit','https://drive.google.com/file/d/1kpVF_McbV-TI3Hx90fTD4pwcpU1xWteo/view?usp=drivesdk','https://drive.google.com/file/d/1tuJUGmVFuvJuPurhk3SbMnMWbtajtHhC/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2385,22 +1989,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>('Cybertech - Cyber Security Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1cVOux_FscJ31X5PCgznjdeb8Qg4XHprm/view?usp=drivesdk','https://drive.google.com/file/d/1ZNX8G4bhHL9v7VThTDv57WJkS0VCru7q/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2409,22 +2004,13 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>('Cybox - NFT Collections Elementor Template Kit','https://drive.google.com/file/d/1UEIw4Cx8_TMzAyeS6UDe_U_e2InPFuKZ/view?usp=drivesdk','https://drive.google.com/file/d/1Ka-gHhVjeESoR8bVBQTEu1GzDreXoCCN/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2433,22 +2019,13 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>('Cynex - Cyber Security Services Company Elementor Template Kit','https://drive.google.com/file/d/1IXdmDGogzYwOAs_ppexlnAKdmyDFxW1b/view?usp=drivesdk','https://drive.google.com/file/d/1Zpe_PYEpZheFChd16AQeVv7Qum8cvtP3/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2034,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>('Datera - Online Dating Mobile App Landing Elementor Template Kit','https://drive.google.com/file/d/1jeTjaj0M9X0JydV1tWcRF1zv1ZAolicy/view?usp=drivesdk','https://drive.google.com/file/d/1KhnICYzfyrzIQ6fyTs9D5EMOREopQkWz/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('','','','1','2022-08-20'),</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -2583,13 +2160,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2597,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D51" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2612,10 +2189,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2627,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2642,10 +2219,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2657,10 +2234,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2672,10 +2249,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2687,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2702,10 +2279,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2717,10 +2294,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2732,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2747,10 +2324,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2762,10 +2339,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2777,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2792,10 +2369,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2807,10 +2384,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2822,10 +2399,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2837,10 +2414,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2852,10 +2429,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2867,10 +2444,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2882,10 +2459,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2897,10 +2474,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2912,10 +2489,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2927,10 +2504,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2942,10 +2519,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2957,10 +2534,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2972,10 +2549,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2987,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -3002,10 +2579,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -3017,10 +2594,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -3032,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -3047,10 +2624,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -3062,10 +2639,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -3077,10 +2654,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -3092,10 +2669,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -3107,10 +2684,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -3122,10 +2699,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -3137,10 +2714,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -3152,10 +2729,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -3167,10 +2744,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -3182,10 +2759,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -3197,10 +2774,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -3212,10 +2789,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -3227,10 +2804,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -3242,10 +2819,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -3257,10 +2834,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -3272,10 +2849,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -3287,10 +2864,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -3302,10 +2879,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -3317,10 +2894,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -3332,10 +2909,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3615,178 +3192,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="244">
   <si>
     <t>Fake</t>
   </si>
@@ -31,127 +31,367 @@
     <t>insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t>Foruum - SaaS &amp; Software Startup Elementor Template Kit|https://drive.google.com/file/d/15WDyyGc_xqfDawDNLTDO9uo8vA9DuTHw/view?usp=drivesdk|https://drive.google.com/file/d/1qUErxE_bnV0QplE506ocLn-lnv_567-H/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Foruum - SaaS &amp; Software Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15WDyyGc_xqfDawDNLTDO9uo8vA9DuTHw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qUErxE_bnV0QplE506ocLn-lnv_567-H/view?usp=drivesdk</t>
+    <t>Integra - IT Solution &amp; Services Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1bJCgX6BCw7UQfpQbFk8ZBKYG3uptn4g2/view?usp=drivesdk|https://drive.google.com/file/d/1ug8dZKhVl6-WTvkMYIgixaepL4CopEjX/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Integra - IT Solution &amp; Services Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bJCgX6BCw7UQfpQbFk8ZBKYG3uptn4g2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ug8dZKhVl6-WTvkMYIgixaepL4CopEjX/view?usp=drivesdk</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Frinex - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit|https://drive.google.com/file/d/10-OJb5JEtBuQPuWCDBiUKJE4AjqbRzaf/view?usp=drivesdk|https://drive.google.com/file/d/1Ip_M5K-yv4BwsDoYlXvVmipKkc01b3WD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Frinex - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10-OJb5JEtBuQPuWCDBiUKJE4AjqbRzaf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ip_M5K-yv4BwsDoYlXvVmipKkc01b3WD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Gatech - Cyber Security &amp; IT Management Elementor Template Kit|https://drive.google.com/file/d/14ZK18XlFf93GxeTC1GlNYgozt-i63T7G/view?usp=drivesdk|https://drive.google.com/file/d/1etCXQm_K1OMUMCrV_eYDXiQARDbLSynB/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Gatech - Cyber Security &amp; IT Management Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14ZK18XlFf93GxeTC1GlNYgozt-i63T7G/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1etCXQm_K1OMUMCrV_eYDXiQARDbLSynB/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>GreenTech - Green Technology Services Elementor Template Kit|https://drive.google.com/file/d/1CP_HuYzP9DxEjp7IHiCN-Y8x5wO6biMo/view?usp=drivesdk|https://drive.google.com/file/d/1S5FAIrql4rOc0kIHp9YzkGTxCL6GCmxh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>GreenTech - Green Technology Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CP_HuYzP9DxEjp7IHiCN-Y8x5wO6biMo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1S5FAIrql4rOc0kIHp9YzkGTxCL6GCmxh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>GumPay - Money Transfer &amp; Online Payments Elementor Template Kit|https://drive.google.com/file/d/13RDGj7Z1sV1AefGykZLtoSWxqcHRyMZ7/view?usp=drivesdk|https://drive.google.com/file/d/10R2FGctOGKx8gbZlmpFJdN1IPYsVpeUR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>GumPay - Money Transfer &amp; Online Payments Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13RDGj7Z1sV1AefGykZLtoSWxqcHRyMZ7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10R2FGctOGKx8gbZlmpFJdN1IPYsVpeUR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Habitate - Smart Home Services Elementor Template Kit|https://drive.google.com/file/d/1MLH4JKsJl0DpxTF9Momp-76Ws5LDP8pl/view?usp=drivesdk|https://drive.google.com/file/d/1Y2TQFKqEc5-HRzxUV4aAM5ltLPbrCQzi/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Habitate - Smart Home Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MLH4JKsJl0DpxTF9Momp-76Ws5LDP8pl/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Y2TQFKqEc5-HRzxUV4aAM5ltLPbrCQzi/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Hape - Gadget Showcase Elementor Template Kit|https://drive.google.com/file/d/17hc1rP6dDFQ0cAcW08vpdf-xcpxgbqER/view?usp=drivesdk|https://drive.google.com/file/d/1yPzwehP5Hifa8Gbp6cgAI9gJfu7cdsnx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Hape - Gadget Showcase Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17hc1rP6dDFQ0cAcW08vpdf-xcpxgbqER/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yPzwehP5Hifa8Gbp6cgAI9gJfu7cdsnx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Hasto - Cyber Tech Security Service Elementor Template Kit|https://drive.google.com/file/d/155aSTSOL18RebmpHaleuhvYdpAJ0Nn1G/view?usp=drivesdk|https://drive.google.com/file/d/1BPTli4Q0JSm6731iOBxS0Oo3EetWLeOC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Hasto - Cyber Tech Security Service Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/155aSTSOL18RebmpHaleuhvYdpAJ0Nn1G/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BPTli4Q0JSm6731iOBxS0Oo3EetWLeOC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Haya - App Startup Elementor Template Kit|https://drive.google.com/file/d/1QQuXx5D4W8QfvBOA-ln-nQzx8ewFtAJE/view?usp=drivesdk|https://drive.google.com/file/d/1MNPEE45tVhwLkthP9ZUg71OzZMstsC0O/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Haya - App Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QQuXx5D4W8QfvBOA-ln-nQzx8ewFtAJE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MNPEE45tVhwLkthP9ZUg71OzZMstsC0O/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Hecxa - Creative Design Agency Elementor Template Kit|https://drive.google.com/file/d/13Dv0annEiwLFJk6PJAjQUKLTDfhUK1uW/view?usp=drivesdk|https://drive.google.com/file/d/1MgNPsOvdL_1PT3TysEzj7kTzBJJ_oZbA/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Hecxa - Creative Design Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13Dv0annEiwLFJk6PJAjQUKLTDfhUK1uW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MgNPsOvdL_1PT3TysEzj7kTzBJJ_oZbA/view?usp=drivesdk</t>
+    <t>Izeetak - IT Solutions &amp; Services Elementor Template Kit|https://drive.google.com/file/d/1UgTK1jmxu9wmjd5HKQkngZ4KSAgJvbdZ/view?usp=drivesdk|https://drive.google.com/file/d/14VEuz8q6aluZfUVCN5MX93EfyuOCS0s2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Izeetak - IT Solutions &amp; Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UgTK1jmxu9wmjd5HKQkngZ4KSAgJvbdZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14VEuz8q6aluZfUVCN5MX93EfyuOCS0s2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>iZPAY - Mobile App &amp; Fintech Startup Elementor Template Kit|https://drive.google.com/file/d/1n2icqtp6_UAptqSZyvJV1XHlJLg4UBSF/view?usp=drivesdk|https://drive.google.com/file/d/1emBR2j-TnmyP2tKMlVJLOG6umo8GBee8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>iZPAY - Mobile App &amp; Fintech Startup Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n2icqtp6_UAptqSZyvJV1XHlJLg4UBSF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1emBR2j-TnmyP2tKMlVJLOG6umo8GBee8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Knox - Technology &amp; Apps Template Kit|https://drive.google.com/file/d/1dT0bs4XJRBMyB0Mnps4mohCffOtb8lkg/view?usp=drivesdk|https://drive.google.com/file/d/14QkFwH2Kx2BHb-FB-oZ6thUrnFfphqll/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Knox - Technology &amp; Apps Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dT0bs4XJRBMyB0Mnps4mohCffOtb8lkg/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14QkFwH2Kx2BHb-FB-oZ6thUrnFfphqll/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Koneksi - Home Wifi Internet Services Elementor Template Kit|https://drive.google.com/file/d/1t6NiFUKhyQ1eap4n2U-_FAnZ43CWNeV-/view?usp=drivesdk|https://drive.google.com/file/d/16yzlPpu9wPu9JrYigKqKuYcYngmGuI5q/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Koneksi - Home Wifi Internet Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t6NiFUKhyQ1eap4n2U-_FAnZ43CWNeV-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16yzlPpu9wPu9JrYigKqKuYcYngmGuI5q/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lingard - Payment &amp; Online Banking Elementor Template Kit|https://drive.google.com/file/d/1bkU28qs4kJZ1Ghikpnij9OQ5NJ2WzEEI/view?usp=drivesdk|https://drive.google.com/file/d/1wRU70PJ2HE_PlnqNMTJ4DIUSnFy12VLh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lingard - Payment &amp; Online Banking Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bkU28qs4kJZ1Ghikpnij9OQ5NJ2WzEEI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wRU70PJ2HE_PlnqNMTJ4DIUSnFy12VLh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>MaxiNet - Internet &amp; IPTV Provider Elementor Template Kit|https://drive.google.com/file/d/13A9H6-Ec_W96_4Jz7OYchWmmdqKcZhUo/view?usp=drivesdk|https://drive.google.com/file/d/1rDMq8zKQxxFfSo4Z9JZoVDGaPd1GmJsd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>MaxiNet - Internet &amp; IPTV Provider Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13A9H6-Ec_W96_4Jz7OYchWmmdqKcZhUo/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rDMq8zKQxxFfSo4Z9JZoVDGaPd1GmJsd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Mecell - Internet Connection &amp; Home Wifi Business Services Elementor Template Kit|https://drive.google.com/file/d/1cJcBTMPopMFp8NshS-zKBGIcDqLZEWfo/view?usp=drivesdk|https://drive.google.com/file/d/1YZjN7Knfa0vS3rwzmWoO-YBT4I9qKB4I/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Mecell - Internet Connection &amp; Home Wifi Business Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cJcBTMPopMFp8NshS-zKBGIcDqLZEWfo/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YZjN7Knfa0vS3rwzmWoO-YBT4I9qKB4I/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Meddaz - SaaS Medical Elementor Template Kit|https://drive.google.com/file/d/1N7N8ty4Ab8d-1-_PqOQydWBJavXTULJJ/view?usp=drivesdk|https://drive.google.com/file/d/10kt4X5e3GeWZU7JYJU4R_3-uuu2IjMOd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Meddaz - SaaS Medical Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N7N8ty4Ab8d-1-_PqOQydWBJavXTULJJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10kt4X5e3GeWZU7JYJU4R_3-uuu2IjMOd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>MedUp - Medical SaaS Elementor Template Kit|https://drive.google.com/file/d/1CDq5xYXNvJi2czYos7dGYIw2g0PlPLxx/view?usp=drivesdk|https://drive.google.com/file/d/15nlM3xOop9fezD5v2t2q8FzED32QUvl8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>MedUp - Medical SaaS Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CDq5xYXNvJi2czYos7dGYIw2g0PlPLxx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15nlM3xOop9fezD5v2t2q8FzED32QUvl8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Mezo - Tech Company Elementor Template Kit|https://drive.google.com/file/d/1DvpLi65kuyQ43tIQdm1vgBXsFOIG7Oq_/view?usp=drivesdk|https://drive.google.com/file/d/1wjAaXC0nSB9tjfESLWyJA3gUCuKaL6Ep/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Mezo - Tech Company Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DvpLi65kuyQ43tIQdm1vgBXsFOIG7Oq_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wjAaXC0nSB9tjfESLWyJA3gUCuKaL6Ep/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Miber - Tech Company Elementor Template Kit|https://drive.google.com/file/d/1KzsRTFEspnMnpYpGvhqZjxXo2jNl4cEz/view?usp=drivesdk|https://drive.google.com/file/d/1cmtXH7aAhHXxwYAZ_YTJvM1auuhoZUf5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Miber - Tech Company Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KzsRTFEspnMnpYpGvhqZjxXo2jNl4cEz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cmtXH7aAhHXxwYAZ_YTJvM1auuhoZUf5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Mindtech - IT Solutions &amp; Services Company Elementor Template Kit|https://drive.google.com/file/d/1Wkh4aopnS1bJbgcO15am4nz0SKzLmGhQ/view?usp=drivesdk|https://drive.google.com/file/d/1ziJBNUeu59RNZ1eWbRVH0s1fO4YDw8kJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Mindtech - IT Solutions &amp; Services Company Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wkh4aopnS1bJbgcO15am4nz0SKzLmGhQ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ziJBNUeu59RNZ1eWbRVH0s1fO4YDw8kJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>MisterNFT - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1jguaN3cXNNFfHd-2VUUv2kF2WPy3RnLk/view?usp=drivesdk|https://drive.google.com/file/d/1GlceKgpNetUSIxO590SB0Wk3J0xfA5bI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>MisterNFT - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jguaN3cXNNFfHd-2VUUv2kF2WPy3RnLk/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GlceKgpNetUSIxO590SB0Wk3J0xfA5bI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Monax - Saas &amp; Startup Elementor Template Kit|https://drive.google.com/file/d/1JJjb_6Y1rcgq0sllzYcySXOUTyGnH_A9/view?usp=drivesdk|https://drive.google.com/file/d/1OeArZ2bwvdY2mEIkojl5jmlNG6OsiJ1T/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Monax - Saas &amp; Startup Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JJjb_6Y1rcgq0sllzYcySXOUTyGnH_A9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OeArZ2bwvdY2mEIkojl5jmlNG6OsiJ1T/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Monteno - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1OuCaTQaVzPA__e-yVqYpNnz1gF4Mvofa/view?usp=drivesdk|https://drive.google.com/file/d/1Io1NpzndErDALekEd3F2Wa3uVTZwXRgN/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Monteno - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OuCaTQaVzPA__e-yVqYpNnz1gF4Mvofa/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Io1NpzndErDALekEd3F2Wa3uVTZwXRgN/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Monztera - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1GzKoiZeaoy4vg7NXnUxJWiFe3KRmlLuW/view?usp=drivesdk|https://drive.google.com/file/d/1F8BngpsOk1ayofazsBzgqeimz3hKxbPW/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Monztera - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GzKoiZeaoy4vg7NXnUxJWiFe3KRmlLuW/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F8BngpsOk1ayofazsBzgqeimz3hKxbPW/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Moxpay - Online Payment Gateway Elementor Template Kit|https://drive.google.com/file/d/1TLy4mCSshrQC-9E97U2QxMx278MD07eb/view?usp=drivesdk|https://drive.google.com/file/d/13vBz3fZYp7C-p6rabNGdioiUhma65PNo/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Moxpay - Online Payment Gateway Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TLy4mCSshrQC-9E97U2QxMx278MD07eb/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13vBz3fZYp7C-p6rabNGdioiUhma65PNo/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Muntech - Software &amp; IT Solutions Elementor Template Kit|https://drive.google.com/file/d/13p1Ppzxv_cDnvB6z3_XbZExJ_-LLm2V9/view?usp=drivesdk|https://drive.google.com/file/d/10dTBwURfRoqGtfr9OowLlMd2Wpdj0rno/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Muntech - Software &amp; IT Solutions Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13p1Ppzxv_cDnvB6z3_XbZExJ_-LLm2V9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10dTBwURfRoqGtfr9OowLlMd2Wpdj0rno/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Namex - Cyber Security Services Company Elementor Template Kit|https://drive.google.com/file/d/1R_zMdh0DOuTlFmboP3mJCo86abGKY7zE/view?usp=drivesdk|https://drive.google.com/file/d/1EBKHK-ZAE9POLOPyUMTS4zcH97KCPbBt/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Namex - Cyber Security Services Company Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R_zMdh0DOuTlFmboP3mJCo86abGKY7zE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EBKHK-ZAE9POLOPyUMTS4zcH97KCPbBt/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Neftize - NFT Portfolio &amp; Digital Items Elementor Template Kit|https://drive.google.com/file/d/1xq6IeBySfSHcVgjraxq0smXCEkkcqtGZ/view?usp=drivesdk|https://drive.google.com/file/d/1TwzIgUbChfzBV4aYKYl9QcHBMvQVvKS6/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Neftize - NFT Portfolio &amp; Digital Items Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xq6IeBySfSHcVgjraxq0smXCEkkcqtGZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TwzIgUbChfzBV4aYKYl9QcHBMvQVvKS6/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Netric - Proxy &amp; VPN Services Elementor Template Kit|https://drive.google.com/file/d/1LVrzWyAmpf6QKcLo8qdNg6GKUS2cVm9i/view?usp=drivesdk|https://drive.google.com/file/d/1GS3NuKuP0yKmJtI-XcnMelFZws6u7qt-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Netric - Proxy &amp; VPN Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LVrzWyAmpf6QKcLo8qdNg6GKUS2cVm9i/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GS3NuKuP0yKmJtI-XcnMelFZws6u7qt-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Netzo - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1-RQPphJH86v2piDtYblR5KsbpJxjem-M/view?usp=drivesdk|https://drive.google.com/file/d/1uNDhHUGngrPS8Z0bN4jWIpxqCNAbAy3_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Netzo - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-RQPphJH86v2piDtYblR5KsbpJxjem-M/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uNDhHUGngrPS8Z0bN4jWIpxqCNAbAy3_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>NextApp - App Landing Page Elementor Template Kit|https://drive.google.com/file/d/14TPyAelrdkdZ3Q40-WI2kWHKc7as2cut/view?usp=drivesdk|https://drive.google.com/file/d/16yihLlvvMv5DsA8NfYT31PISVGrVwlpM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>NextApp - App Landing Page Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14TPyAelrdkdZ3Q40-WI2kWHKc7as2cut/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16yihLlvvMv5DsA8NfYT31PISVGrVwlpM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>NFTx - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1dK6oQ0MEUJgUcTEaP3iWq-_iJAjoBoOY/view?usp=drivesdk|https://drive.google.com/file/d/1g5lynka7yH1xdLZw4XKd8qH_PumXGJdz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>NFTx - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dK6oQ0MEUJgUcTEaP3iWq-_iJAjoBoOY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g5lynka7yH1xdLZw4XKd8qH_PumXGJdz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>NiFTy - NFT Project &amp; Portfolio WordPress Elementor Template Kit|https://drive.google.com/file/d/1QBSzxnUzoS05_X1XHJ-6XLM4DrkgKXHq/view?usp=drivesdk|https://drive.google.com/file/d/1MK4Fh3zeODWkjKkM71gkdzDu-ECUa6JJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>NiFTy - NFT Project &amp; Portfolio WordPress Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QBSzxnUzoS05_X1XHJ-6XLM4DrkgKXHq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MK4Fh3zeODWkjKkM71gkdzDu-ECUa6JJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Nusapp - SaaS Startup &amp; Business Elementor Template Kit|https://drive.google.com/file/d/16eaMf8tQ6KkyGMExVPq1wPZv81oWsuZD/view?usp=drivesdk|https://drive.google.com/file/d/1-ujsvfULEuk6f2iQXQO0Vrbtv3taxgPR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Nusapp - SaaS Startup &amp; Business Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16eaMf8tQ6KkyGMExVPq1wPZv81oWsuZD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-ujsvfULEuk6f2iQXQO0Vrbtv3taxgPR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Pascal - Payment App Business Elementor Pro Template Kit|https://drive.google.com/file/d/19h84zi8FkSWRQPtIUUniRhwiiy2qfMNO/view?usp=drivesdk|https://drive.google.com/file/d/1IEIHqjDghlWBZOzMz3fE6Y0ynJ_bjMAy/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Pascal - Payment App Business Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19h84zi8FkSWRQPtIUUniRhwiiy2qfMNO/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IEIHqjDghlWBZOzMz3fE6Y0ynJ_bjMAy/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Paylite - Online Payment Gateway Elementor Template Kit|https://drive.google.com/file/d/1mvZJvuAOq-GHFALH9HnaeHgt04d1XgPf/view?usp=drivesdk|https://drive.google.com/file/d/1LtD10vOIET9irMK2GaHBdhLMhcN8_DuV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Paylite - Online Payment Gateway Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mvZJvuAOq-GHFALH9HnaeHgt04d1XgPf/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LtD10vOIET9irMK2GaHBdhLMhcN8_DuV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Paynet Digital E-wallet Elementor Template Kit|https://drive.google.com/file/d/11VUMkIj5UaBtwXH8TD8YY4Eq0ww_-zEL/view?usp=drivesdk|https://drive.google.com/file/d/11_wrPXCDYJorq5ssttGKtU_KDDUI_8r1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Paynet Digital E-wallet Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11VUMkIj5UaBtwXH8TD8YY4Eq0ww_-zEL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11_wrPXCDYJorq5ssttGKtU_KDDUI_8r1/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -516,22 +756,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-d"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-d"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -549,19 +784,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,8 +821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,6 +842,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,9 +890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +905,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,14 +920,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +941,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +1031,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,157 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,6 +1135,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -904,13 +1159,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,36 +1213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -992,143 +1221,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1472,8 +1712,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22857142857143" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1518,7 +1758,7 @@
       </c>
       <c r="G2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Foruum - SaaS &amp; Software Startup Elementor Template Kit','https://drive.google.com/file/d/15WDyyGc_xqfDawDNLTDO9uo8vA9DuTHw/view?usp=drivesdk','https://drive.google.com/file/d/1qUErxE_bnV0QplE506ocLn-lnv_567-H/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Integra - IT Solution &amp; Services Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1bJCgX6BCw7UQfpQbFk8ZBKYG3uptn4g2/view?usp=drivesdk','https://drive.google.com/file/d/1ug8dZKhVl6-WTvkMYIgixaepL4CopEjX/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1542,7 +1782,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G31" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;TEXT(F3,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Frinex - Blockchain Cryptocurrency &amp; Bitcoin Elementor Template Kit','https://drive.google.com/file/d/10-OJb5JEtBuQPuWCDBiUKJE4AjqbRzaf/view?usp=drivesdk','https://drive.google.com/file/d/1Ip_M5K-yv4BwsDoYlXvVmipKkc01b3WD/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Izeetak - IT Solutions &amp; Services Elementor Template Kit','https://drive.google.com/file/d/1UgTK1jmxu9wmjd5HKQkngZ4KSAgJvbdZ/view?usp=drivesdk','https://drive.google.com/file/d/14VEuz8q6aluZfUVCN5MX93EfyuOCS0s2/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1566,7 +1806,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('Gatech - Cyber Security &amp; IT Management Elementor Template Kit','https://drive.google.com/file/d/14ZK18XlFf93GxeTC1GlNYgozt-i63T7G/view?usp=drivesdk','https://drive.google.com/file/d/1etCXQm_K1OMUMCrV_eYDXiQARDbLSynB/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('iZPAY - Mobile App &amp; Fintech Startup Elementor Template Kit','https://drive.google.com/file/d/1n2icqtp6_UAptqSZyvJV1XHlJLg4UBSF/view?usp=drivesdk','https://drive.google.com/file/d/1emBR2j-TnmyP2tKMlVJLOG6umo8GBee8/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1590,7 +1830,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('GreenTech - Green Technology Services Elementor Template Kit','https://drive.google.com/file/d/1CP_HuYzP9DxEjp7IHiCN-Y8x5wO6biMo/view?usp=drivesdk','https://drive.google.com/file/d/1S5FAIrql4rOc0kIHp9YzkGTxCL6GCmxh/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Knox - Technology &amp; Apps Template Kit','https://drive.google.com/file/d/1dT0bs4XJRBMyB0Mnps4mohCffOtb8lkg/view?usp=drivesdk','https://drive.google.com/file/d/14QkFwH2Kx2BHb-FB-oZ6thUrnFfphqll/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1614,7 +1854,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('GumPay - Money Transfer &amp; Online Payments Elementor Template Kit','https://drive.google.com/file/d/13RDGj7Z1sV1AefGykZLtoSWxqcHRyMZ7/view?usp=drivesdk','https://drive.google.com/file/d/10R2FGctOGKx8gbZlmpFJdN1IPYsVpeUR/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Koneksi - Home Wifi Internet Services Elementor Template Kit','https://drive.google.com/file/d/1t6NiFUKhyQ1eap4n2U-_FAnZ43CWNeV-/view?usp=drivesdk','https://drive.google.com/file/d/16yzlPpu9wPu9JrYigKqKuYcYngmGuI5q/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1638,7 +1878,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('Habitate - Smart Home Services Elementor Template Kit','https://drive.google.com/file/d/1MLH4JKsJl0DpxTF9Momp-76Ws5LDP8pl/view?usp=drivesdk','https://drive.google.com/file/d/1Y2TQFKqEc5-HRzxUV4aAM5ltLPbrCQzi/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Lingard - Payment &amp; Online Banking Elementor Template Kit','https://drive.google.com/file/d/1bkU28qs4kJZ1Ghikpnij9OQ5NJ2WzEEI/view?usp=drivesdk','https://drive.google.com/file/d/1wRU70PJ2HE_PlnqNMTJ4DIUSnFy12VLh/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1662,7 +1902,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('Hape - Gadget Showcase Elementor Template Kit','https://drive.google.com/file/d/17hc1rP6dDFQ0cAcW08vpdf-xcpxgbqER/view?usp=drivesdk','https://drive.google.com/file/d/1yPzwehP5Hifa8Gbp6cgAI9gJfu7cdsnx/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('MaxiNet - Internet &amp; IPTV Provider Elementor Template Kit','https://drive.google.com/file/d/13A9H6-Ec_W96_4Jz7OYchWmmdqKcZhUo/view?usp=drivesdk','https://drive.google.com/file/d/1rDMq8zKQxxFfSo4Z9JZoVDGaPd1GmJsd/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1686,7 +1926,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('Hasto - Cyber Tech Security Service Elementor Template Kit','https://drive.google.com/file/d/155aSTSOL18RebmpHaleuhvYdpAJ0Nn1G/view?usp=drivesdk','https://drive.google.com/file/d/1BPTli4Q0JSm6731iOBxS0Oo3EetWLeOC/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Mecell - Internet Connection &amp; Home Wifi Business Services Elementor Template Kit','https://drive.google.com/file/d/1cJcBTMPopMFp8NshS-zKBGIcDqLZEWfo/view?usp=drivesdk','https://drive.google.com/file/d/1YZjN7Knfa0vS3rwzmWoO-YBT4I9qKB4I/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1710,7 +1950,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('Haya - App Startup Elementor Template Kit','https://drive.google.com/file/d/1QQuXx5D4W8QfvBOA-ln-nQzx8ewFtAJE/view?usp=drivesdk','https://drive.google.com/file/d/1MNPEE45tVhwLkthP9ZUg71OzZMstsC0O/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Meddaz - SaaS Medical Elementor Template Kit','https://drive.google.com/file/d/1N7N8ty4Ab8d-1-_PqOQydWBJavXTULJJ/view?usp=drivesdk','https://drive.google.com/file/d/10kt4X5e3GeWZU7JYJU4R_3-uuu2IjMOd/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1734,13 +1974,22 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('Hecxa - Creative Design Agency Elementor Template Kit','https://drive.google.com/file/d/13Dv0annEiwLFJk6PJAjQUKLTDfhUK1uW/view?usp=drivesdk','https://drive.google.com/file/d/1MgNPsOvdL_1PT3TysEzj7kTzBJJ_oZbA/view?usp=drivesdk','1','2022-08-25'),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>('MedUp - Medical SaaS Elementor Template Kit','https://drive.google.com/file/d/1CDq5xYXNvJi2czYos7dGYIw2g0PlPLxx/view?usp=drivesdk','https://drive.google.com/file/d/15nlM3xOop9fezD5v2t2q8FzED32QUvl8/view?usp=drivesdk','1','2022-08-25'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1749,13 +1998,22 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>('Mezo - Tech Company Elementor Template Kit','https://drive.google.com/file/d/1DvpLi65kuyQ43tIQdm1vgBXsFOIG7Oq_/view?usp=drivesdk','https://drive.google.com/file/d/1wjAaXC0nSB9tjfESLWyJA3gUCuKaL6Ep/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1764,13 +2022,22 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>('Miber - Tech Company Elementor Template Kit','https://drive.google.com/file/d/1KzsRTFEspnMnpYpGvhqZjxXo2jNl4cEz/view?usp=drivesdk','https://drive.google.com/file/d/1cmtXH7aAhHXxwYAZ_YTJvM1auuhoZUf5/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1779,13 +2046,22 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>('Mindtech - IT Solutions &amp; Services Company Elementor Template Kit','https://drive.google.com/file/d/1Wkh4aopnS1bJbgcO15am4nz0SKzLmGhQ/view?usp=drivesdk','https://drive.google.com/file/d/1ziJBNUeu59RNZ1eWbRVH0s1fO4YDw8kJ/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1794,13 +2070,22 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>('MisterNFT - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1jguaN3cXNNFfHd-2VUUv2kF2WPy3RnLk/view?usp=drivesdk','https://drive.google.com/file/d/1GlceKgpNetUSIxO590SB0Wk3J0xfA5bI/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1809,13 +2094,22 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>('Monax - Saas &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/1JJjb_6Y1rcgq0sllzYcySXOUTyGnH_A9/view?usp=drivesdk','https://drive.google.com/file/d/1OeArZ2bwvdY2mEIkojl5jmlNG6OsiJ1T/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1824,13 +2118,22 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>('Monteno - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1OuCaTQaVzPA__e-yVqYpNnz1gF4Mvofa/view?usp=drivesdk','https://drive.google.com/file/d/1Io1NpzndErDALekEd3F2Wa3uVTZwXRgN/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1839,13 +2142,22 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>('Monztera - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1GzKoiZeaoy4vg7NXnUxJWiFe3KRmlLuW/view?usp=drivesdk','https://drive.google.com/file/d/1F8BngpsOk1ayofazsBzgqeimz3hKxbPW/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1854,13 +2166,22 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>('Moxpay - Online Payment Gateway Elementor Template Kit','https://drive.google.com/file/d/1TLy4mCSshrQC-9E97U2QxMx278MD07eb/view?usp=drivesdk','https://drive.google.com/file/d/13vBz3fZYp7C-p6rabNGdioiUhma65PNo/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1869,13 +2190,22 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>('Muntech - Software &amp; IT Solutions Elementor Template Kit','https://drive.google.com/file/d/13p1Ppzxv_cDnvB6z3_XbZExJ_-LLm2V9/view?usp=drivesdk','https://drive.google.com/file/d/10dTBwURfRoqGtfr9OowLlMd2Wpdj0rno/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1884,13 +2214,22 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>('Namex - Cyber Security Services Company Elementor Template Kit','https://drive.google.com/file/d/1R_zMdh0DOuTlFmboP3mJCo86abGKY7zE/view?usp=drivesdk','https://drive.google.com/file/d/1EBKHK-ZAE9POLOPyUMTS4zcH97KCPbBt/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1899,13 +2238,22 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>('Neftize - NFT Portfolio &amp; Digital Items Elementor Template Kit','https://drive.google.com/file/d/1xq6IeBySfSHcVgjraxq0smXCEkkcqtGZ/view?usp=drivesdk','https://drive.google.com/file/d/1TwzIgUbChfzBV4aYKYl9QcHBMvQVvKS6/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1914,13 +2262,22 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>('Netric - Proxy &amp; VPN Services Elementor Template Kit','https://drive.google.com/file/d/1LVrzWyAmpf6QKcLo8qdNg6GKUS2cVm9i/view?usp=drivesdk','https://drive.google.com/file/d/1GS3NuKuP0yKmJtI-XcnMelFZws6u7qt-/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1929,13 +2286,22 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>('Netzo - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1-RQPphJH86v2piDtYblR5KsbpJxjem-M/view?usp=drivesdk','https://drive.google.com/file/d/1uNDhHUGngrPS8Z0bN4jWIpxqCNAbAy3_/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1944,13 +2310,22 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>('NextApp - App Landing Page Elementor Template Kit','https://drive.google.com/file/d/14TPyAelrdkdZ3Q40-WI2kWHKc7as2cut/view?usp=drivesdk','https://drive.google.com/file/d/16yihLlvvMv5DsA8NfYT31PISVGrVwlpM/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1959,13 +2334,22 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>('NFTx - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1dK6oQ0MEUJgUcTEaP3iWq-_iJAjoBoOY/view?usp=drivesdk','https://drive.google.com/file/d/1g5lynka7yH1xdLZw4XKd8qH_PumXGJdz/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1974,13 +2358,22 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+        <v>('NiFTy - NFT Project &amp; Portfolio WordPress Elementor Template Kit','https://drive.google.com/file/d/1QBSzxnUzoS05_X1XHJ-6XLM4DrkgKXHq/view?usp=drivesdk','https://drive.google.com/file/d/1MK4Fh3zeODWkjKkM71gkdzDu-ECUa6JJ/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1989,13 +2382,22 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>('Nusapp - SaaS Startup &amp; Business Elementor Template Kit','https://drive.google.com/file/d/16eaMf8tQ6KkyGMExVPq1wPZv81oWsuZD/view?usp=drivesdk','https://drive.google.com/file/d/1-ujsvfULEuk6f2iQXQO0Vrbtv3taxgPR/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2004,13 +2406,22 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+        <v>('Pascal - Payment App Business Elementor Pro Template Kit','https://drive.google.com/file/d/19h84zi8FkSWRQPtIUUniRhwiiy2qfMNO/view?usp=drivesdk','https://drive.google.com/file/d/1IEIHqjDghlWBZOzMz3fE6Y0ynJ_bjMAy/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2019,13 +2430,22 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>('Paylite - Online Payment Gateway Elementor Template Kit','https://drive.google.com/file/d/1mvZJvuAOq-GHFALH9HnaeHgt04d1XgPf/view?usp=drivesdk','https://drive.google.com/file/d/1LtD10vOIET9irMK2GaHBdhLMhcN8_DuV/view?usp=drivesdk','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2454,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','1','2022-08-20'),</v>
+        <v>('Paynet Digital E-wallet Elementor Template Kit','https://drive.google.com/file/d/11VUMkIj5UaBtwXH8TD8YY4Eq0ww_-zEL/view?usp=drivesdk','https://drive.google.com/file/d/11_wrPXCDYJorq5ssttGKtU_KDDUI_8r1/view?usp=drivesdk','1','2022-08-20'),</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -2160,13 +2580,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2174,10 +2594,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D51" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2189,10 +2609,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2204,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2219,10 +2639,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2234,10 +2654,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2249,10 +2669,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2264,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2279,10 +2699,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2294,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2309,10 +2729,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2324,10 +2744,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2339,10 +2759,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2354,10 +2774,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2369,10 +2789,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2384,10 +2804,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2399,10 +2819,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2414,10 +2834,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2429,10 +2849,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2444,10 +2864,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2459,10 +2879,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2474,10 +2894,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2489,10 +2909,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2504,10 +2924,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2519,10 +2939,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2534,10 +2954,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2549,10 +2969,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2564,10 +2984,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2579,10 +2999,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2594,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2609,10 +3029,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2624,10 +3044,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2639,10 +3059,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2654,10 +3074,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2669,10 +3089,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2684,10 +3104,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2699,10 +3119,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2714,10 +3134,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2729,10 +3149,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2744,10 +3164,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2759,10 +3179,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2774,10 +3194,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2789,10 +3209,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2804,10 +3224,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2819,10 +3239,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2834,10 +3254,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2849,10 +3269,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2864,10 +3284,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2879,10 +3299,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -2894,10 +3314,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -2909,10 +3329,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3192,178 +3612,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
   <si>
     <t>Fake</t>
   </si>
@@ -31,367 +31,127 @@
     <t>insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t>Integra - IT Solution &amp; Services Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1bJCgX6BCw7UQfpQbFk8ZBKYG3uptn4g2/view?usp=drivesdk|https://drive.google.com/file/d/1ug8dZKhVl6-WTvkMYIgixaepL4CopEjX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Integra - IT Solution &amp; Services Elementor Pro Full Site Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bJCgX6BCw7UQfpQbFk8ZBKYG3uptn4g2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ug8dZKhVl6-WTvkMYIgixaepL4CopEjX/view?usp=drivesdk</t>
+    <t>Pleshost - Cloud Web Hosting Elementor Template Kit|https://drive.google.com/file/d/1xQCEhXvU8aP5s6FkKwlODoNV64yYdHV5/view?usp=drivesdk|https://drive.google.com/file/d/1eP_bxORwzv0Hd-W2HjbEnYDVfxJ-_wte/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Pleshost - Cloud Web Hosting Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xQCEhXvU8aP5s6FkKwlODoNV64yYdHV5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eP_bxORwzv0Hd-W2HjbEnYDVfxJ-_wte/view?usp=drivesdk</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Izeetak - IT Solutions &amp; Services Elementor Template Kit|https://drive.google.com/file/d/1UgTK1jmxu9wmjd5HKQkngZ4KSAgJvbdZ/view?usp=drivesdk|https://drive.google.com/file/d/14VEuz8q6aluZfUVCN5MX93EfyuOCS0s2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Izeetak - IT Solutions &amp; Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UgTK1jmxu9wmjd5HKQkngZ4KSAgJvbdZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14VEuz8q6aluZfUVCN5MX93EfyuOCS0s2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>iZPAY - Mobile App &amp; Fintech Startup Elementor Template Kit|https://drive.google.com/file/d/1n2icqtp6_UAptqSZyvJV1XHlJLg4UBSF/view?usp=drivesdk|https://drive.google.com/file/d/1emBR2j-TnmyP2tKMlVJLOG6umo8GBee8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>iZPAY - Mobile App &amp; Fintech Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1n2icqtp6_UAptqSZyvJV1XHlJLg4UBSF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1emBR2j-TnmyP2tKMlVJLOG6umo8GBee8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Knox - Technology &amp; Apps Template Kit|https://drive.google.com/file/d/1dT0bs4XJRBMyB0Mnps4mohCffOtb8lkg/view?usp=drivesdk|https://drive.google.com/file/d/14QkFwH2Kx2BHb-FB-oZ6thUrnFfphqll/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Knox - Technology &amp; Apps Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dT0bs4XJRBMyB0Mnps4mohCffOtb8lkg/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14QkFwH2Kx2BHb-FB-oZ6thUrnFfphqll/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Koneksi - Home Wifi Internet Services Elementor Template Kit|https://drive.google.com/file/d/1t6NiFUKhyQ1eap4n2U-_FAnZ43CWNeV-/view?usp=drivesdk|https://drive.google.com/file/d/16yzlPpu9wPu9JrYigKqKuYcYngmGuI5q/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Koneksi - Home Wifi Internet Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1t6NiFUKhyQ1eap4n2U-_FAnZ43CWNeV-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16yzlPpu9wPu9JrYigKqKuYcYngmGuI5q/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Lingard - Payment &amp; Online Banking Elementor Template Kit|https://drive.google.com/file/d/1bkU28qs4kJZ1Ghikpnij9OQ5NJ2WzEEI/view?usp=drivesdk|https://drive.google.com/file/d/1wRU70PJ2HE_PlnqNMTJ4DIUSnFy12VLh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Lingard - Payment &amp; Online Banking Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bkU28qs4kJZ1Ghikpnij9OQ5NJ2WzEEI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wRU70PJ2HE_PlnqNMTJ4DIUSnFy12VLh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>MaxiNet - Internet &amp; IPTV Provider Elementor Template Kit|https://drive.google.com/file/d/13A9H6-Ec_W96_4Jz7OYchWmmdqKcZhUo/view?usp=drivesdk|https://drive.google.com/file/d/1rDMq8zKQxxFfSo4Z9JZoVDGaPd1GmJsd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>MaxiNet - Internet &amp; IPTV Provider Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13A9H6-Ec_W96_4Jz7OYchWmmdqKcZhUo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rDMq8zKQxxFfSo4Z9JZoVDGaPd1GmJsd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mecell - Internet Connection &amp; Home Wifi Business Services Elementor Template Kit|https://drive.google.com/file/d/1cJcBTMPopMFp8NshS-zKBGIcDqLZEWfo/view?usp=drivesdk|https://drive.google.com/file/d/1YZjN7Knfa0vS3rwzmWoO-YBT4I9qKB4I/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mecell - Internet Connection &amp; Home Wifi Business Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cJcBTMPopMFp8NshS-zKBGIcDqLZEWfo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YZjN7Knfa0vS3rwzmWoO-YBT4I9qKB4I/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Meddaz - SaaS Medical Elementor Template Kit|https://drive.google.com/file/d/1N7N8ty4Ab8d-1-_PqOQydWBJavXTULJJ/view?usp=drivesdk|https://drive.google.com/file/d/10kt4X5e3GeWZU7JYJU4R_3-uuu2IjMOd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Meddaz - SaaS Medical Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1N7N8ty4Ab8d-1-_PqOQydWBJavXTULJJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10kt4X5e3GeWZU7JYJU4R_3-uuu2IjMOd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>MedUp - Medical SaaS Elementor Template Kit|https://drive.google.com/file/d/1CDq5xYXNvJi2czYos7dGYIw2g0PlPLxx/view?usp=drivesdk|https://drive.google.com/file/d/15nlM3xOop9fezD5v2t2q8FzED32QUvl8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>MedUp - Medical SaaS Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CDq5xYXNvJi2czYos7dGYIw2g0PlPLxx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15nlM3xOop9fezD5v2t2q8FzED32QUvl8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mezo - Tech Company Elementor Template Kit|https://drive.google.com/file/d/1DvpLi65kuyQ43tIQdm1vgBXsFOIG7Oq_/view?usp=drivesdk|https://drive.google.com/file/d/1wjAaXC0nSB9tjfESLWyJA3gUCuKaL6Ep/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mezo - Tech Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DvpLi65kuyQ43tIQdm1vgBXsFOIG7Oq_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wjAaXC0nSB9tjfESLWyJA3gUCuKaL6Ep/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Miber - Tech Company Elementor Template Kit|https://drive.google.com/file/d/1KzsRTFEspnMnpYpGvhqZjxXo2jNl4cEz/view?usp=drivesdk|https://drive.google.com/file/d/1cmtXH7aAhHXxwYAZ_YTJvM1auuhoZUf5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Miber - Tech Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KzsRTFEspnMnpYpGvhqZjxXo2jNl4cEz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cmtXH7aAhHXxwYAZ_YTJvM1auuhoZUf5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mindtech - IT Solutions &amp; Services Company Elementor Template Kit|https://drive.google.com/file/d/1Wkh4aopnS1bJbgcO15am4nz0SKzLmGhQ/view?usp=drivesdk|https://drive.google.com/file/d/1ziJBNUeu59RNZ1eWbRVH0s1fO4YDw8kJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Mindtech - IT Solutions &amp; Services Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Wkh4aopnS1bJbgcO15am4nz0SKzLmGhQ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ziJBNUeu59RNZ1eWbRVH0s1fO4YDw8kJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>MisterNFT - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1jguaN3cXNNFfHd-2VUUv2kF2WPy3RnLk/view?usp=drivesdk|https://drive.google.com/file/d/1GlceKgpNetUSIxO590SB0Wk3J0xfA5bI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>MisterNFT - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jguaN3cXNNFfHd-2VUUv2kF2WPy3RnLk/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GlceKgpNetUSIxO590SB0Wk3J0xfA5bI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Monax - Saas &amp; Startup Elementor Template Kit|https://drive.google.com/file/d/1JJjb_6Y1rcgq0sllzYcySXOUTyGnH_A9/view?usp=drivesdk|https://drive.google.com/file/d/1OeArZ2bwvdY2mEIkojl5jmlNG6OsiJ1T/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Monax - Saas &amp; Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JJjb_6Y1rcgq0sllzYcySXOUTyGnH_A9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OeArZ2bwvdY2mEIkojl5jmlNG6OsiJ1T/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Monteno - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1OuCaTQaVzPA__e-yVqYpNnz1gF4Mvofa/view?usp=drivesdk|https://drive.google.com/file/d/1Io1NpzndErDALekEd3F2Wa3uVTZwXRgN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Monteno - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OuCaTQaVzPA__e-yVqYpNnz1gF4Mvofa/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Io1NpzndErDALekEd3F2Wa3uVTZwXRgN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Monztera - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1GzKoiZeaoy4vg7NXnUxJWiFe3KRmlLuW/view?usp=drivesdk|https://drive.google.com/file/d/1F8BngpsOk1ayofazsBzgqeimz3hKxbPW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Monztera - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GzKoiZeaoy4vg7NXnUxJWiFe3KRmlLuW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1F8BngpsOk1ayofazsBzgqeimz3hKxbPW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Moxpay - Online Payment Gateway Elementor Template Kit|https://drive.google.com/file/d/1TLy4mCSshrQC-9E97U2QxMx278MD07eb/view?usp=drivesdk|https://drive.google.com/file/d/13vBz3fZYp7C-p6rabNGdioiUhma65PNo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Moxpay - Online Payment Gateway Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TLy4mCSshrQC-9E97U2QxMx278MD07eb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13vBz3fZYp7C-p6rabNGdioiUhma65PNo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Muntech - Software &amp; IT Solutions Elementor Template Kit|https://drive.google.com/file/d/13p1Ppzxv_cDnvB6z3_XbZExJ_-LLm2V9/view?usp=drivesdk|https://drive.google.com/file/d/10dTBwURfRoqGtfr9OowLlMd2Wpdj0rno/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Muntech - Software &amp; IT Solutions Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13p1Ppzxv_cDnvB6z3_XbZExJ_-LLm2V9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10dTBwURfRoqGtfr9OowLlMd2Wpdj0rno/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Namex - Cyber Security Services Company Elementor Template Kit|https://drive.google.com/file/d/1R_zMdh0DOuTlFmboP3mJCo86abGKY7zE/view?usp=drivesdk|https://drive.google.com/file/d/1EBKHK-ZAE9POLOPyUMTS4zcH97KCPbBt/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Namex - Cyber Security Services Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1R_zMdh0DOuTlFmboP3mJCo86abGKY7zE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EBKHK-ZAE9POLOPyUMTS4zcH97KCPbBt/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Neftize - NFT Portfolio &amp; Digital Items Elementor Template Kit|https://drive.google.com/file/d/1xq6IeBySfSHcVgjraxq0smXCEkkcqtGZ/view?usp=drivesdk|https://drive.google.com/file/d/1TwzIgUbChfzBV4aYKYl9QcHBMvQVvKS6/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Neftize - NFT Portfolio &amp; Digital Items Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xq6IeBySfSHcVgjraxq0smXCEkkcqtGZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TwzIgUbChfzBV4aYKYl9QcHBMvQVvKS6/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Netric - Proxy &amp; VPN Services Elementor Template Kit|https://drive.google.com/file/d/1LVrzWyAmpf6QKcLo8qdNg6GKUS2cVm9i/view?usp=drivesdk|https://drive.google.com/file/d/1GS3NuKuP0yKmJtI-XcnMelFZws6u7qt-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Netric - Proxy &amp; VPN Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LVrzWyAmpf6QKcLo8qdNg6GKUS2cVm9i/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GS3NuKuP0yKmJtI-XcnMelFZws6u7qt-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Netzo - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1-RQPphJH86v2piDtYblR5KsbpJxjem-M/view?usp=drivesdk|https://drive.google.com/file/d/1uNDhHUGngrPS8Z0bN4jWIpxqCNAbAy3_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Netzo - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-RQPphJH86v2piDtYblR5KsbpJxjem-M/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uNDhHUGngrPS8Z0bN4jWIpxqCNAbAy3_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>NextApp - App Landing Page Elementor Template Kit|https://drive.google.com/file/d/14TPyAelrdkdZ3Q40-WI2kWHKc7as2cut/view?usp=drivesdk|https://drive.google.com/file/d/16yihLlvvMv5DsA8NfYT31PISVGrVwlpM/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>NextApp - App Landing Page Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14TPyAelrdkdZ3Q40-WI2kWHKc7as2cut/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16yihLlvvMv5DsA8NfYT31PISVGrVwlpM/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>NFTx - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1dK6oQ0MEUJgUcTEaP3iWq-_iJAjoBoOY/view?usp=drivesdk|https://drive.google.com/file/d/1g5lynka7yH1xdLZw4XKd8qH_PumXGJdz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>NFTx - NFT Portfolio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dK6oQ0MEUJgUcTEaP3iWq-_iJAjoBoOY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1g5lynka7yH1xdLZw4XKd8qH_PumXGJdz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>NiFTy - NFT Project &amp; Portfolio WordPress Elementor Template Kit|https://drive.google.com/file/d/1QBSzxnUzoS05_X1XHJ-6XLM4DrkgKXHq/view?usp=drivesdk|https://drive.google.com/file/d/1MK4Fh3zeODWkjKkM71gkdzDu-ECUa6JJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>NiFTy - NFT Project &amp; Portfolio WordPress Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QBSzxnUzoS05_X1XHJ-6XLM4DrkgKXHq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MK4Fh3zeODWkjKkM71gkdzDu-ECUa6JJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Nusapp - SaaS Startup &amp; Business Elementor Template Kit|https://drive.google.com/file/d/16eaMf8tQ6KkyGMExVPq1wPZv81oWsuZD/view?usp=drivesdk|https://drive.google.com/file/d/1-ujsvfULEuk6f2iQXQO0Vrbtv3taxgPR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Nusapp - SaaS Startup &amp; Business Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16eaMf8tQ6KkyGMExVPq1wPZv81oWsuZD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-ujsvfULEuk6f2iQXQO0Vrbtv3taxgPR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Pascal - Payment App Business Elementor Pro Template Kit|https://drive.google.com/file/d/19h84zi8FkSWRQPtIUUniRhwiiy2qfMNO/view?usp=drivesdk|https://drive.google.com/file/d/1IEIHqjDghlWBZOzMz3fE6Y0ynJ_bjMAy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Pascal - Payment App Business Elementor Pro Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19h84zi8FkSWRQPtIUUniRhwiiy2qfMNO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1IEIHqjDghlWBZOzMz3fE6Y0ynJ_bjMAy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Paylite - Online Payment Gateway Elementor Template Kit|https://drive.google.com/file/d/1mvZJvuAOq-GHFALH9HnaeHgt04d1XgPf/view?usp=drivesdk|https://drive.google.com/file/d/1LtD10vOIET9irMK2GaHBdhLMhcN8_DuV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Paylite - Online Payment Gateway Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mvZJvuAOq-GHFALH9HnaeHgt04d1XgPf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LtD10vOIET9irMK2GaHBdhLMhcN8_DuV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Paynet Digital E-wallet Elementor Template Kit|https://drive.google.com/file/d/11VUMkIj5UaBtwXH8TD8YY4Eq0ww_-zEL/view?usp=drivesdk|https://drive.google.com/file/d/11_wrPXCDYJorq5ssttGKtU_KDDUI_8r1/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Paynet Digital E-wallet Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11VUMkIj5UaBtwXH8TD8YY4Eq0ww_-zEL/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11_wrPXCDYJorq5ssttGKtU_KDDUI_8r1/view?usp=drivesdk</t>
+    <t>Protel - Broadband &amp; Internet Provider Template Kit|https://drive.google.com/file/d/1xk-nGYuQCTRSwoiTRnbSkhmGITfnYz_x/view?usp=drivesdk|https://drive.google.com/file/d/1R_VfJQ4aI7XTHYxhfP1gSqYSRldC69YJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Protel - Broadband &amp; Internet Provider Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xk-nGYuQCTRSwoiTRnbSkhmGITfnYz_x/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R_VfJQ4aI7XTHYxhfP1gSqYSRldC69YJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Ralph - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1zU7QnD3broOgcssgsWZiDCBME3b5TCgm/view?usp=drivesdk|https://drive.google.com/file/d/1yCi3Ah2s5_lpJiAvrJjhNxZYxwDA-__w/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Ralph - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zU7QnD3broOgcssgsWZiDCBME3b5TCgm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yCi3Ah2s5_lpJiAvrJjhNxZYxwDA-__w/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>RedHelp - Startup Showcase Elementor Template Kit|https://drive.google.com/file/d/1ITt2krkLlyqJKOUWC22iyC_Fh8XE3W9t/view?usp=drivesdk|https://drive.google.com/file/d/1_iUomqdb_CSxJSpczWhcVTU0h9STFSxb/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>RedHelp - Startup Showcase Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ITt2krkLlyqJKOUWC22iyC_Fh8XE3W9t/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_iUomqdb_CSxJSpczWhcVTU0h9STFSxb/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Reeze - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1Io-1SytoINAmx-9PTVvhtTx5OB2pXDvj/view?usp=drivesdk|https://drive.google.com/file/d/1xlPrs1qYG0lDXw8IZgrSyCDd2PiHSYnU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Reeze - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Io-1SytoINAmx-9PTVvhtTx5OB2pXDvj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xlPrs1qYG0lDXw8IZgrSyCDd2PiHSYnU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Revius Energy - Elementor Template Kit|https://drive.google.com/file/d/1j5p9ASwX1Lc6m94NXMNEb-Y50jrJbRL4/view?usp=drivesdk|https://drive.google.com/file/d/1Yp0ff2VDXHjHq390MYNKpyvL_1buhq7F/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Revius Energy - Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j5p9ASwX1Lc6m94NXMNEb-Y50jrJbRL4/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Yp0ff2VDXHjHq390MYNKpyvL_1buhq7F/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Ryse - SEO &amp; Digital Marketing Elementor Template Kit|https://drive.google.com/file/d/17SCngH2Q1m__oo_AbElJy_4wk1Lxx5PP/view?usp=drivesdk|https://drive.google.com/file/d/1l7fOekBXnRUd9ZdXWv2qB91gMvI1B-7h/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Ryse - SEO &amp; Digital Marketing Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17SCngH2Q1m__oo_AbElJy_4wk1Lxx5PP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1l7fOekBXnRUd9ZdXWv2qB91gMvI1B-7h/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Saasio - Saas &amp; Startup Elementor Template Kit|https://drive.google.com/file/d/1vSq2ZxGwZ5FeXYWjGEDU2ExXj0deHGjj/view?usp=drivesdk|https://drive.google.com/file/d/1-LYGJ9Dc57BlPd09CjKMczpfH4w0_SSn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Saasio - Saas &amp; Startup Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vSq2ZxGwZ5FeXYWjGEDU2ExXj0deHGjj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-LYGJ9Dc57BlPd09CjKMczpfH4w0_SSn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>SaasTek - SaaS &amp; Technology Elementor Template Kit|https://drive.google.com/file/d/1XoM6_bF8qNKgPooWzHrfCurLocA-1bq_/view?usp=drivesdk|https://drive.google.com/file/d/1CkvtCBPogolTg_Ad16tkpLGgzaUb5zWP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>SaasTek - SaaS &amp; Technology Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XoM6_bF8qNKgPooWzHrfCurLocA-1bq_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CkvtCBPogolTg_Ad16tkpLGgzaUb5zWP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>SaaSy - SaaS &amp; App Landing Page Template Kit|https://drive.google.com/file/d/1zjjkZz9AKNU3M67NUVboAZlBzw_w8f6n/view?usp=drivesdk|https://drive.google.com/file/d/1ryU2DQ4vif7v19wVZFwzsnynQrhEoySe/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>SaaSy - SaaS &amp; App Landing Page Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zjjkZz9AKNU3M67NUVboAZlBzw_w8f6n/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ryU2DQ4vif7v19wVZFwzsnynQrhEoySe/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -756,11 +516,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-d"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -771,37 +531,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,6 +543,18 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -823,7 +567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,6 +582,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -846,45 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -898,6 +612,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -905,9 +626,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,9 +662,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,133 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +725,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,41 +895,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,13 +954,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,138 +997,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1712,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22857142857143" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1758,7 +1518,7 @@
       </c>
       <c r="G2" t="str">
         <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Integra - IT Solution &amp; Services Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1bJCgX6BCw7UQfpQbFk8ZBKYG3uptn4g2/view?usp=drivesdk','https://drive.google.com/file/d/1ug8dZKhVl6-WTvkMYIgixaepL4CopEjX/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Pleshost - Cloud Web Hosting Elementor Template Kit','https://drive.google.com/file/d/1xQCEhXvU8aP5s6FkKwlODoNV64yYdHV5/view?usp=drivesdk','https://drive.google.com/file/d/1eP_bxORwzv0Hd-W2HjbEnYDVfxJ-_wte/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1782,7 +1542,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G31" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;TEXT(F3,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Izeetak - IT Solutions &amp; Services Elementor Template Kit','https://drive.google.com/file/d/1UgTK1jmxu9wmjd5HKQkngZ4KSAgJvbdZ/view?usp=drivesdk','https://drive.google.com/file/d/14VEuz8q6aluZfUVCN5MX93EfyuOCS0s2/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Protel - Broadband &amp; Internet Provider Template Kit','https://drive.google.com/file/d/1xk-nGYuQCTRSwoiTRnbSkhmGITfnYz_x/view?usp=drivesdk','https://drive.google.com/file/d/1R_VfJQ4aI7XTHYxhfP1gSqYSRldC69YJ/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1806,7 +1566,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('iZPAY - Mobile App &amp; Fintech Startup Elementor Template Kit','https://drive.google.com/file/d/1n2icqtp6_UAptqSZyvJV1XHlJLg4UBSF/view?usp=drivesdk','https://drive.google.com/file/d/1emBR2j-TnmyP2tKMlVJLOG6umo8GBee8/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Ralph - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1zU7QnD3broOgcssgsWZiDCBME3b5TCgm/view?usp=drivesdk','https://drive.google.com/file/d/1yCi3Ah2s5_lpJiAvrJjhNxZYxwDA-__w/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1830,7 +1590,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('Knox - Technology &amp; Apps Template Kit','https://drive.google.com/file/d/1dT0bs4XJRBMyB0Mnps4mohCffOtb8lkg/view?usp=drivesdk','https://drive.google.com/file/d/14QkFwH2Kx2BHb-FB-oZ6thUrnFfphqll/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('RedHelp - Startup Showcase Elementor Template Kit','https://drive.google.com/file/d/1ITt2krkLlyqJKOUWC22iyC_Fh8XE3W9t/view?usp=drivesdk','https://drive.google.com/file/d/1_iUomqdb_CSxJSpczWhcVTU0h9STFSxb/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1854,7 +1614,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('Koneksi - Home Wifi Internet Services Elementor Template Kit','https://drive.google.com/file/d/1t6NiFUKhyQ1eap4n2U-_FAnZ43CWNeV-/view?usp=drivesdk','https://drive.google.com/file/d/16yzlPpu9wPu9JrYigKqKuYcYngmGuI5q/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Reeze - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1Io-1SytoINAmx-9PTVvhtTx5OB2pXDvj/view?usp=drivesdk','https://drive.google.com/file/d/1xlPrs1qYG0lDXw8IZgrSyCDd2PiHSYnU/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1878,7 +1638,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('Lingard - Payment &amp; Online Banking Elementor Template Kit','https://drive.google.com/file/d/1bkU28qs4kJZ1Ghikpnij9OQ5NJ2WzEEI/view?usp=drivesdk','https://drive.google.com/file/d/1wRU70PJ2HE_PlnqNMTJ4DIUSnFy12VLh/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Revius Energy - Elementor Template Kit','https://drive.google.com/file/d/1j5p9ASwX1Lc6m94NXMNEb-Y50jrJbRL4/view?usp=drivesdk','https://drive.google.com/file/d/1Yp0ff2VDXHjHq390MYNKpyvL_1buhq7F/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1902,7 +1662,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('MaxiNet - Internet &amp; IPTV Provider Elementor Template Kit','https://drive.google.com/file/d/13A9H6-Ec_W96_4Jz7OYchWmmdqKcZhUo/view?usp=drivesdk','https://drive.google.com/file/d/1rDMq8zKQxxFfSo4Z9JZoVDGaPd1GmJsd/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Ryse - SEO &amp; Digital Marketing Elementor Template Kit','https://drive.google.com/file/d/17SCngH2Q1m__oo_AbElJy_4wk1Lxx5PP/view?usp=drivesdk','https://drive.google.com/file/d/1l7fOekBXnRUd9ZdXWv2qB91gMvI1B-7h/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1926,7 +1686,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('Mecell - Internet Connection &amp; Home Wifi Business Services Elementor Template Kit','https://drive.google.com/file/d/1cJcBTMPopMFp8NshS-zKBGIcDqLZEWfo/view?usp=drivesdk','https://drive.google.com/file/d/1YZjN7Knfa0vS3rwzmWoO-YBT4I9qKB4I/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('Saasio - Saas &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/1vSq2ZxGwZ5FeXYWjGEDU2ExXj0deHGjj/view?usp=drivesdk','https://drive.google.com/file/d/1-LYGJ9Dc57BlPd09CjKMczpfH4w0_SSn/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1950,7 +1710,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('Meddaz - SaaS Medical Elementor Template Kit','https://drive.google.com/file/d/1N7N8ty4Ab8d-1-_PqOQydWBJavXTULJJ/view?usp=drivesdk','https://drive.google.com/file/d/10kt4X5e3GeWZU7JYJU4R_3-uuu2IjMOd/view?usp=drivesdk','1','2022-08-25'),</v>
+        <v>('SaasTek - SaaS &amp; Technology Elementor Template Kit','https://drive.google.com/file/d/1XoM6_bF8qNKgPooWzHrfCurLocA-1bq_/view?usp=drivesdk','https://drive.google.com/file/d/1CkvtCBPogolTg_Ad16tkpLGgzaUb5zWP/view?usp=drivesdk','1','2022-08-25'),</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1974,22 +1734,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('MedUp - Medical SaaS Elementor Template Kit','https://drive.google.com/file/d/1CDq5xYXNvJi2czYos7dGYIw2g0PlPLxx/view?usp=drivesdk','https://drive.google.com/file/d/15nlM3xOop9fezD5v2t2q8FzED32QUvl8/view?usp=drivesdk','1','2022-08-25'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>('SaaSy - SaaS &amp; App Landing Page Template Kit','https://drive.google.com/file/d/1zjjkZz9AKNU3M67NUVboAZlBzw_w8f6n/view?usp=drivesdk','https://drive.google.com/file/d/1ryU2DQ4vif7v19wVZFwzsnynQrhEoySe/view?usp=drivesdk','1','2022-08-25'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1998,22 +1749,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('Mezo - Tech Company Elementor Template Kit','https://drive.google.com/file/d/1DvpLi65kuyQ43tIQdm1vgBXsFOIG7Oq_/view?usp=drivesdk','https://drive.google.com/file/d/1wjAaXC0nSB9tjfESLWyJA3gUCuKaL6Ep/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2022,22 +1764,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('Miber - Tech Company Elementor Template Kit','https://drive.google.com/file/d/1KzsRTFEspnMnpYpGvhqZjxXo2jNl4cEz/view?usp=drivesdk','https://drive.google.com/file/d/1cmtXH7aAhHXxwYAZ_YTJvM1auuhoZUf5/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2046,22 +1779,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('Mindtech - IT Solutions &amp; Services Company Elementor Template Kit','https://drive.google.com/file/d/1Wkh4aopnS1bJbgcO15am4nz0SKzLmGhQ/view?usp=drivesdk','https://drive.google.com/file/d/1ziJBNUeu59RNZ1eWbRVH0s1fO4YDw8kJ/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2070,22 +1794,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('MisterNFT - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1jguaN3cXNNFfHd-2VUUv2kF2WPy3RnLk/view?usp=drivesdk','https://drive.google.com/file/d/1GlceKgpNetUSIxO590SB0Wk3J0xfA5bI/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2094,22 +1809,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('Monax - Saas &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/1JJjb_6Y1rcgq0sllzYcySXOUTyGnH_A9/view?usp=drivesdk','https://drive.google.com/file/d/1OeArZ2bwvdY2mEIkojl5jmlNG6OsiJ1T/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2118,22 +1824,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('Monteno - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1OuCaTQaVzPA__e-yVqYpNnz1gF4Mvofa/view?usp=drivesdk','https://drive.google.com/file/d/1Io1NpzndErDALekEd3F2Wa3uVTZwXRgN/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2142,22 +1839,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('Monztera - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1GzKoiZeaoy4vg7NXnUxJWiFe3KRmlLuW/view?usp=drivesdk','https://drive.google.com/file/d/1F8BngpsOk1ayofazsBzgqeimz3hKxbPW/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2166,22 +1854,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('Moxpay - Online Payment Gateway Elementor Template Kit','https://drive.google.com/file/d/1TLy4mCSshrQC-9E97U2QxMx278MD07eb/view?usp=drivesdk','https://drive.google.com/file/d/13vBz3fZYp7C-p6rabNGdioiUhma65PNo/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2190,22 +1869,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('Muntech - Software &amp; IT Solutions Elementor Template Kit','https://drive.google.com/file/d/13p1Ppzxv_cDnvB6z3_XbZExJ_-LLm2V9/view?usp=drivesdk','https://drive.google.com/file/d/10dTBwURfRoqGtfr9OowLlMd2Wpdj0rno/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2214,22 +1884,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('Namex - Cyber Security Services Company Elementor Template Kit','https://drive.google.com/file/d/1R_zMdh0DOuTlFmboP3mJCo86abGKY7zE/view?usp=drivesdk','https://drive.google.com/file/d/1EBKHK-ZAE9POLOPyUMTS4zcH97KCPbBt/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2238,22 +1899,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('Neftize - NFT Portfolio &amp; Digital Items Elementor Template Kit','https://drive.google.com/file/d/1xq6IeBySfSHcVgjraxq0smXCEkkcqtGZ/view?usp=drivesdk','https://drive.google.com/file/d/1TwzIgUbChfzBV4aYKYl9QcHBMvQVvKS6/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2262,22 +1914,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>('Netric - Proxy &amp; VPN Services Elementor Template Kit','https://drive.google.com/file/d/1LVrzWyAmpf6QKcLo8qdNg6GKUS2cVm9i/view?usp=drivesdk','https://drive.google.com/file/d/1GS3NuKuP0yKmJtI-XcnMelFZws6u7qt-/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2286,22 +1929,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>('Netzo - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1-RQPphJH86v2piDtYblR5KsbpJxjem-M/view?usp=drivesdk','https://drive.google.com/file/d/1uNDhHUGngrPS8Z0bN4jWIpxqCNAbAy3_/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2310,22 +1944,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>('NextApp - App Landing Page Elementor Template Kit','https://drive.google.com/file/d/14TPyAelrdkdZ3Q40-WI2kWHKc7as2cut/view?usp=drivesdk','https://drive.google.com/file/d/16yihLlvvMv5DsA8NfYT31PISVGrVwlpM/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2334,22 +1959,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>('NFTx - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1dK6oQ0MEUJgUcTEaP3iWq-_iJAjoBoOY/view?usp=drivesdk','https://drive.google.com/file/d/1g5lynka7yH1xdLZw4XKd8qH_PumXGJdz/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2358,22 +1974,13 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>('NiFTy - NFT Project &amp; Portfolio WordPress Elementor Template Kit','https://drive.google.com/file/d/1QBSzxnUzoS05_X1XHJ-6XLM4DrkgKXHq/view?usp=drivesdk','https://drive.google.com/file/d/1MK4Fh3zeODWkjKkM71gkdzDu-ECUa6JJ/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2382,22 +1989,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>('Nusapp - SaaS Startup &amp; Business Elementor Template Kit','https://drive.google.com/file/d/16eaMf8tQ6KkyGMExVPq1wPZv81oWsuZD/view?usp=drivesdk','https://drive.google.com/file/d/1-ujsvfULEuk6f2iQXQO0Vrbtv3taxgPR/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2406,22 +2004,13 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>('Pascal - Payment App Business Elementor Pro Template Kit','https://drive.google.com/file/d/19h84zi8FkSWRQPtIUUniRhwiiy2qfMNO/view?usp=drivesdk','https://drive.google.com/file/d/1IEIHqjDghlWBZOzMz3fE6Y0ynJ_bjMAy/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2430,22 +2019,13 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>('Paylite - Online Payment Gateway Elementor Template Kit','https://drive.google.com/file/d/1mvZJvuAOq-GHFALH9HnaeHgt04d1XgPf/view?usp=drivesdk','https://drive.google.com/file/d/1LtD10vOIET9irMK2GaHBdhLMhcN8_DuV/view?usp=drivesdk','1','2022-08-20'),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>('','','','1','2022-08-20'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2454,7 +2034,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>('Paynet Digital E-wallet Elementor Template Kit','https://drive.google.com/file/d/11VUMkIj5UaBtwXH8TD8YY4Eq0ww_-zEL/view?usp=drivesdk','https://drive.google.com/file/d/11_wrPXCDYJorq5ssttGKtU_KDDUI_8r1/view?usp=drivesdk','1','2022-08-20'),</v>
+        <v>('','','','1','2022-08-20'),</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -2580,13 +2160,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2594,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D51" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2609,10 +2189,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2624,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2639,10 +2219,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2654,10 +2234,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2669,10 +2249,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2684,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2699,10 +2279,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2714,10 +2294,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2729,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2744,10 +2324,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2759,10 +2339,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2774,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2789,10 +2369,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2804,10 +2384,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2819,10 +2399,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2834,10 +2414,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2849,10 +2429,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2864,10 +2444,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2879,10 +2459,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2894,10 +2474,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2909,10 +2489,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2924,10 +2504,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2939,10 +2519,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2954,10 +2534,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2969,10 +2549,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2984,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2999,10 +2579,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -3014,10 +2594,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -3029,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -3044,10 +2624,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -3059,10 +2639,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -3074,10 +2654,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -3089,10 +2669,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -3104,10 +2684,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -3119,10 +2699,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -3134,10 +2714,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -3149,10 +2729,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -3164,10 +2744,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -3179,10 +2759,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -3194,10 +2774,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -3209,10 +2789,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -3224,10 +2804,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -3239,10 +2819,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -3254,10 +2834,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -3269,10 +2849,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -3284,10 +2864,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -3299,10 +2879,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -3314,10 +2894,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -3329,10 +2909,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3612,178 +3192,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="157">
   <si>
     <t xml:space="preserve">Fake</t>
   </si>
@@ -36,97 +36,106 @@
     <t xml:space="preserve">insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t xml:space="preserve">Saep - eCommerce App SaaS Showcase Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/15-1GRQImbgOhU9kVfHgXY4I4WCkLh5xI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1QQIN2thDCLuhKH14S_X0f7O89bM0NRMn/view?usp=drivesdk</t>
+    <t xml:space="preserve">Techtial - IT Solutions &amp; Services Company Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1Q9CYIyfmCvD-gVU499gq5ya9925LTILS/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/10tNTuWx_uIrj_KBMOD16Puno2ca2-6G8/view?usp=drivesdk</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">SassCo -  App Landing &amp; Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1UGrGh7xdMDGKWLSYxJbMAtKThSyiMm1R/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1u0oz27NoG785tXHltZN78HJHMXM3dtPN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Securs - Cyber Security Service Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1aPdO2R7lSO_FwBq1MjHUMaEyJvIaCjRw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1FPsFc6WqR2Y5goqaI5pikglxjq1Vtd-H/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serity - CCTV &amp; Security Cameras Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1sqZffX4xowwYzTQilCo5DBp6D-YdQIFs/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/13hzM8GI2chQ8z7Kxmxo8cMVtpk5cXmmO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shevia - Software Developer &amp; IT Solutions Service Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1PKE0ps9i0GejKi0g9NMVXuwLgMPGApkb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1ol0U4BUfP4v6dyiqi4oS1LsjjFIV0jUL/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silion - Digital Marketing Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1FR7rUE_OowIjyrwLN4etsZUd0qdmcdux/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1McbDWU6Uu2jYLPg_RwlaPEFfS00vyu-g/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sky&amp;Cloud - Drone Aerial Photography &amp; Videography Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1vANwpuG6z4yzRrYoj67IB3o_xfLTW8v7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1XxWE_1j0rEf2JO9sPV2JYsjeSPTnnCm2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Softek - Software IT Solutions Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1cSZRNMS5QFaWykXb6iFmHCCCcrdIj7I1/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/13cvb9bIAx9qaieBmryusC2mAiKupGpzS/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoftUp - Saas &amp; Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1PyFWx0s2lXJUqlgchQ2ZhgIwmxDdGm1F/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1wTTKy8KklREND7gINS9tmDPu2Ckv6gAb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SparxUp - Saas &amp; Startup Elementor Template Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/13O5vQhku4KVIBLulFUFx2aFs_vcPlU0m/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1d3PRxc2wCTqgXnDr5i-ITEc1zs-G5uyc/view?usp=drivesdk</t>
+    <t xml:space="preserve">TechUp - Technology IT Solutions &amp; Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1Xu_t5b2lopsjBFEHMHuX0FBtJvFvwSVn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/13xlUDW0aGmb3rjq8UnvLNwp1oOyfhMgP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teqno - Tech Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1TjzGI0yO_6H79jIkUJXkLIOgfHKeTO4G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/13mexSRP5P21NrxN7dYQzPUMnpNYsoHBr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tflat NFT Portfolio Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1TNX9ZKRolu4wUu8H_WwL6l7H-6NnFBzh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1SMJX60JgYYj9deJQqbIkmPFxAAfdVe7Y/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzino - Startup App Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1MxoT7zMCPsjGKObsCHLeE4VsCH_Z2jC3/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1CtLaPz7GDh6JQs6OOgN6fyL32vtgDy34/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard - Cyber Security Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/19OKIKAYSbnTmU6JHYCcf-kfSawzLkU6a/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1fW35PGQzXCz4RW26u7xPts7yA7JrW2k9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veApp - Mobile App &amp; Startup Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/16lvuCzjkOXWW_7g_3l2hUufMRelG4jBI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1-_RYeSKbR6_FVMxd_nlH0S6VCAa8kHNA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibranet - Broadband &amp; Internet Service Provider Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/13OgA4ch1PZfGboerX2nhzlLC1tgq8V_v/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1dMaR4NihyfSX7p5eHbB2fMfoYSB1xNhp/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtu - Tech &amp; Software Company Elementor Template kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1xsWVxJGPSclbl3qrgNIcoXgaIQq1EGZd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1k_oBE2HDKLhkJAjFA1gIQ4s5uRjxnsFY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitech - Technology &amp; IT Solution Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1fX0x_YcjpWPW_FTFZgtYgDbWgEjCPiyI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/10h-tFSg3QN8Apz0hZGKp8Zq6vCzEgiCb/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wartel - Home Wifi &amp; Internet Provider Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1sP5Da5EQwMNqdM7A2nwD2b1nUV0nSXmr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1m0nnnpPK6zztRUzJqdwzZvhd3NXUcrra/view?usp=drivesdk</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -501,6 +510,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -611,10 +621,10 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G11"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.24609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.32"/>
@@ -653,7 +663,7 @@
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Saep - eCommerce App SaaS Showcase Elementor Template Kit','https://drive.google.com/file/d/15-1GRQImbgOhU9kVfHgXY4I4WCkLh5xI/view?usp=drivesdk','https://drive.google.com/file/d/1QQIN2thDCLuhKH14S_X0f7O89bM0NRMn/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Techtial - IT Solutions &amp; Services Company Elementor Template Kit','https://drive.google.com/file/d/1Q9CYIyfmCvD-gVU499gq5ya9925LTILS/view?usp=drivesdk','https://drive.google.com/file/d/10tNTuWx_uIrj_KBMOD16Puno2ca2-6G8/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +684,7 @@
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;TEXT(F3,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('SassCo -  App Landing &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/1UGrGh7xdMDGKWLSYxJbMAtKThSyiMm1R/view?usp=drivesdk','https://drive.google.com/file/d/1u0oz27NoG785tXHltZN78HJHMXM3dtPN/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('TechUp - Technology IT Solutions &amp; Services Elementor Template Kit','https://drive.google.com/file/d/1Xu_t5b2lopsjBFEHMHuX0FBtJvFvwSVn/view?usp=drivesdk','https://drive.google.com/file/d/13xlUDW0aGmb3rjq8UnvLNwp1oOyfhMgP/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +705,7 @@
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">"('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;TEXT(F4,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Securs - Cyber Security Service Elementor Template Kit','https://drive.google.com/file/d/1aPdO2R7lSO_FwBq1MjHUMaEyJvIaCjRw/view?usp=drivesdk','https://drive.google.com/file/d/1FPsFc6WqR2Y5goqaI5pikglxjq1Vtd-H/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Teqno - Tech Agency Elementor Template Kit','https://drive.google.com/file/d/1TjzGI0yO_6H79jIkUJXkLIOgfHKeTO4G/view?usp=drivesdk','https://drive.google.com/file/d/13mexSRP5P21NrxN7dYQzPUMnpNYsoHBr/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +726,7 @@
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;TEXT(F5,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Serity - CCTV &amp; Security Cameras Elementor Template Kit','https://drive.google.com/file/d/1sqZffX4xowwYzTQilCo5DBp6D-YdQIFs/view?usp=drivesdk','https://drive.google.com/file/d/13hzM8GI2chQ8z7Kxmxo8cMVtpk5cXmmO/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Tflat NFT Portfolio Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1TNX9ZKRolu4wUu8H_WwL6l7H-6NnFBzh/view?usp=drivesdk','https://drive.google.com/file/d/1SMJX60JgYYj9deJQqbIkmPFxAAfdVe7Y/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +747,7 @@
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;TEXT(F6,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Shevia - Software Developer &amp; IT Solutions Service Template Kit','https://drive.google.com/file/d/1PKE0ps9i0GejKi0g9NMVXuwLgMPGApkb/view?usp=drivesdk','https://drive.google.com/file/d/1ol0U4BUfP4v6dyiqi4oS1LsjjFIV0jUL/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Uzino - Startup App Elementor Template Kit','https://drive.google.com/file/d/1MxoT7zMCPsjGKObsCHLeE4VsCH_Z2jC3/view?usp=drivesdk','https://drive.google.com/file/d/1CtLaPz7GDh6JQs6OOgN6fyL32vtgDy34/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +768,7 @@
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">"('"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;TEXT(F7,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Silion - Digital Marketing Elementor Template Kit','https://drive.google.com/file/d/1FR7rUE_OowIjyrwLN4etsZUd0qdmcdux/view?usp=drivesdk','https://drive.google.com/file/d/1McbDWU6Uu2jYLPg_RwlaPEFfS00vyu-g/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Vanguard - Cyber Security Service Elementor Template Kit','https://drive.google.com/file/d/19OKIKAYSbnTmU6JHYCcf-kfSawzLkU6a/view?usp=drivesdk','https://drive.google.com/file/d/1fW35PGQzXCz4RW26u7xPts7yA7JrW2k9/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +789,7 @@
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">"('"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;TEXT(F8,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Sky&amp;Cloud - Drone Aerial Photography &amp; Videography Elementor Template Kit','https://drive.google.com/file/d/1vANwpuG6z4yzRrYoj67IB3o_xfLTW8v7/view?usp=drivesdk','https://drive.google.com/file/d/1XxWE_1j0rEf2JO9sPV2JYsjeSPTnnCm2/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('veApp - Mobile App &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/16lvuCzjkOXWW_7g_3l2hUufMRelG4jBI/view?usp=drivesdk','https://drive.google.com/file/d/1-_RYeSKbR6_FVMxd_nlH0S6VCAa8kHNA/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,7 +810,7 @@
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">"('"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;TEXT(F9,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Softek - Software IT Solutions Elementor Template Kit','https://drive.google.com/file/d/1cSZRNMS5QFaWykXb6iFmHCCCcrdIj7I1/view?usp=drivesdk','https://drive.google.com/file/d/13cvb9bIAx9qaieBmryusC2mAiKupGpzS/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Vibranet - Broadband &amp; Internet Service Provider Elementor Template Kit','https://drive.google.com/file/d/13OgA4ch1PZfGboerX2nhzlLC1tgq8V_v/view?usp=drivesdk','https://drive.google.com/file/d/1dMaR4NihyfSX7p5eHbB2fMfoYSB1xNhp/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +831,7 @@
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">"('"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;TEXT(F10,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('SoftUp - Saas &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/1PyFWx0s2lXJUqlgchQ2ZhgIwmxDdGm1F/view?usp=drivesdk','https://drive.google.com/file/d/1wTTKy8KklREND7gINS9tmDPu2Ckv6gAb/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Virtu - Tech &amp; Software Company Elementor Template kit','https://drive.google.com/file/d/1xsWVxJGPSclbl3qrgNIcoXgaIQq1EGZd/view?usp=drivesdk','https://drive.google.com/file/d/1k_oBE2HDKLhkJAjFA1gIQ4s5uRjxnsFY/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,13 +852,19 @@
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">"('"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;TEXT(F11,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('SparxUp - Saas &amp; Startup Elementor Template Kit','https://drive.google.com/file/d/13O5vQhku4KVIBLulFUFx2aFs_vcPlU0m/view?usp=drivesdk','https://drive.google.com/file/d/1d3PRxc2wCTqgXnDr5i-ITEc1zs-G5uyc/view?usp=drivesdk','1','2022-08-22'),</v>
+        <v>('Vitech - Technology &amp; IT Solution Elementor Template Kit','https://drive.google.com/file/d/1fX0x_YcjpWPW_FTFZgtYgDbWgEjCPiyI/view?usp=drivesdk','https://drive.google.com/file/d/10h-tFSg3QN8Apz0hZGKp8Zq6vCzEgiCb/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
@@ -857,7 +873,7 @@
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">"('"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;TEXT(F12,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('','','','1','2022-08-22'),</v>
+        <v>('Wartel - Home Wifi &amp; Internet Provider Services Elementor Template Kit','https://drive.google.com/file/d/1sP5Da5EQwMNqdM7A2nwD2b1nUV0nSXmr/view?usp=drivesdk','https://drive.google.com/file/d/1m0nnnpPK6zztRUzJqdwzZvhd3NXUcrra/view?usp=drivesdk','1','2022-08-22'),</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,23 +1280,23 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="G1:G11 B21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="G1:G12 B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -1303,10 +1319,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">"('"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
@@ -1318,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">"('"&amp;B4&amp;"','"&amp;C4&amp;"'),"</f>
@@ -1333,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">"('"&amp;B5&amp;"','"&amp;C5&amp;"'),"</f>
@@ -1348,10 +1364,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">"('"&amp;B6&amp;"','"&amp;C6&amp;"'),"</f>
@@ -1363,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">"('"&amp;B7&amp;"','"&amp;C7&amp;"'),"</f>
@@ -1378,10 +1394,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">"('"&amp;B8&amp;"','"&amp;C8&amp;"'),"</f>
@@ -1393,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">"('"&amp;B9&amp;"','"&amp;C9&amp;"'),"</f>
@@ -1408,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">"('"&amp;B10&amp;"','"&amp;C10&amp;"'),"</f>
@@ -1423,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">"('"&amp;B11&amp;"','"&amp;C11&amp;"'),"</f>
@@ -1438,10 +1454,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">"('"&amp;B12&amp;"','"&amp;C12&amp;"'),"</f>
@@ -1453,10 +1469,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">"('"&amp;B13&amp;"','"&amp;C13&amp;"'),"</f>
@@ -1468,10 +1484,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">"('"&amp;B14&amp;"','"&amp;C14&amp;"'),"</f>
@@ -1483,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">"('"&amp;B15&amp;"','"&amp;C15&amp;"'),"</f>
@@ -1498,10 +1514,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">"('"&amp;B16&amp;"','"&amp;C16&amp;"'),"</f>
@@ -1513,10 +1529,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">"('"&amp;B17&amp;"','"&amp;C17&amp;"'),"</f>
@@ -1528,10 +1544,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">"('"&amp;B18&amp;"','"&amp;C18&amp;"'),"</f>
@@ -1543,10 +1559,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">"('"&amp;B19&amp;"','"&amp;C19&amp;"'),"</f>
@@ -1558,10 +1574,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">"('"&amp;B20&amp;"','"&amp;C20&amp;"'),"</f>
@@ -1573,10 +1589,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">"('"&amp;B21&amp;"','"&amp;C21&amp;"'),"</f>
@@ -1588,10 +1604,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">"('"&amp;B22&amp;"','"&amp;C22&amp;"'),"</f>
@@ -1603,10 +1619,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">"('"&amp;B23&amp;"','"&amp;C23&amp;"'),"</f>
@@ -1618,10 +1634,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">"('"&amp;B24&amp;"','"&amp;C24&amp;"'),"</f>
@@ -1633,10 +1649,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">"('"&amp;B25&amp;"','"&amp;C25&amp;"'),"</f>
@@ -1648,10 +1664,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">"('"&amp;B26&amp;"','"&amp;C26&amp;"'),"</f>
@@ -1663,10 +1679,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">"('"&amp;B27&amp;"','"&amp;C27&amp;"'),"</f>
@@ -1678,10 +1694,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">"('"&amp;B28&amp;"','"&amp;C28&amp;"'),"</f>
@@ -1693,10 +1709,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">"('"&amp;B29&amp;"','"&amp;C29&amp;"'),"</f>
@@ -1708,10 +1724,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">"('"&amp;B30&amp;"','"&amp;C30&amp;"'),"</f>
@@ -1723,10 +1739,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">"('"&amp;B31&amp;"','"&amp;C31&amp;"'),"</f>
@@ -1738,10 +1754,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">"('"&amp;B32&amp;"','"&amp;C32&amp;"'),"</f>
@@ -1753,10 +1769,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">"('"&amp;B33&amp;"','"&amp;C33&amp;"'),"</f>
@@ -1768,10 +1784,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">"('"&amp;B34&amp;"','"&amp;C34&amp;"'),"</f>
@@ -1783,10 +1799,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">"('"&amp;B35&amp;"','"&amp;C35&amp;"'),"</f>
@@ -1798,10 +1814,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">"('"&amp;B36&amp;"','"&amp;C36&amp;"'),"</f>
@@ -1813,10 +1829,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">"('"&amp;B37&amp;"','"&amp;C37&amp;"'),"</f>
@@ -1828,10 +1844,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">"('"&amp;B38&amp;"','"&amp;C38&amp;"'),"</f>
@@ -1843,10 +1859,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">"('"&amp;B39&amp;"','"&amp;C39&amp;"'),"</f>
@@ -1858,10 +1874,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">"('"&amp;B40&amp;"','"&amp;C40&amp;"'),"</f>
@@ -1873,10 +1889,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">"('"&amp;B41&amp;"','"&amp;C41&amp;"'),"</f>
@@ -1888,10 +1904,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">"('"&amp;B42&amp;"','"&amp;C42&amp;"'),"</f>
@@ -1903,10 +1919,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">"('"&amp;B43&amp;"','"&amp;C43&amp;"'),"</f>
@@ -1918,10 +1934,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">"('"&amp;B44&amp;"','"&amp;C44&amp;"'),"</f>
@@ -1933,10 +1949,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">"('"&amp;B45&amp;"','"&amp;C45&amp;"'),"</f>
@@ -1948,10 +1964,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">"('"&amp;B46&amp;"','"&amp;C46&amp;"'),"</f>
@@ -1963,10 +1979,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">"('"&amp;B47&amp;"','"&amp;C47&amp;"'),"</f>
@@ -1978,10 +1994,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">"('"&amp;B48&amp;"','"&amp;C48&amp;"'),"</f>
@@ -1993,10 +2009,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">"('"&amp;B49&amp;"','"&amp;C49&amp;"'),"</f>
@@ -2008,10 +2024,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">"('"&amp;B50&amp;"','"&amp;C50&amp;"'),"</f>
@@ -2023,10 +2039,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">"('"&amp;B51&amp;"','"&amp;C51&amp;"'),"</f>
@@ -2302,185 +2318,185 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="G1:G11 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="G1:G12 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="203">
   <si>
     <t>Fake</t>
   </si>
@@ -31,127 +31,244 @@
     <t>insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t>Flights - Private Jets Elementor Template Kit|https://drive.google.com/file/d/1Zs961KtYHkDDd7yOI71hW8NvfbSZi9vz/view?usp=drivesdk|https://drive.google.com/file/d/1SfAyX8-mNh2j2UEivwqjl1krMQgpMLIV/view?usp=drives</t>
-  </si>
-  <si>
-    <t>Flights - Private Jets Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Zs961KtYHkDDd7yOI71hW8NvfbSZi9vz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1SfAyX8-mNh2j2UEivwqjl1krMQgpMLIV/view?usp=drives</t>
+    <t>Hairsta – Hair Salon &amp; Hairdresser Elementor Template Kit|https://drive.google.com/file/d/1usUQgrAyrgpiZXIcgA9vebJckNnncK9d/view?usp=drivesdk|https://drive.google.com/file/d/1YouG4H--Ac_APtG4P09jsCxqddsQP5_e/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hairsta – Hair Salon &amp; Hairdresser Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1usUQgrAyrgpiZXIcgA9vebJckNnncK9d/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YouG4H--Ac_APtG4P09jsCxqddsQP5_e/view?usp=drivesdk</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Florazo - WooCommerce Florist &amp; Flower Shop Elementor Template Kit|https://drive.google.com/file/d/13hUUZQTEu5-25ay3REi14lpUaKM-wxr_/view?usp=drivesdk|https://drive.google.com/file/d/1-NpsSGc0J7149BPbuII2QCpfIMjACxrZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Florazo - WooCommerce Florist &amp; Flower Shop Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13hUUZQTEu5-25ay3REi14lpUaKM-wxr_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-NpsSGc0J7149BPbuII2QCpfIMjACxrZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>FlyWing - Drone Aerial Video &amp; Photography WordPress Elementor Template Kit|https://drive.google.com/file/d/1xPSVi5GoPLryJ3y1VQpN4rir6OnXZjQE/view?usp=drivesdk|https://drive.google.com/file/d/15dvUWHSDcHVguqU4c86sXGt4w9lL2lJm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>FlyWing - Drone Aerial Video &amp; Photography WordPress Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xPSVi5GoPLryJ3y1VQpN4rir6OnXZjQE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15dvUWHSDcHVguqU4c86sXGt4w9lL2lJm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Framarket - Digital Marketing Elementor Template Kit|https://drive.google.com/file/d/1XSaMk_waug4TzBm-bVirYCVOK6InHBC1/view?usp=drivesdk|https://drive.google.com/file/d/1KJs3X-FrnsM9htSzClsFgYzuzWMDl4ml/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Framarket - Digital Marketing Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XSaMk_waug4TzBm-bVirYCVOK6InHBC1/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KJs3X-FrnsM9htSzClsFgYzuzWMDl4ml/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Geegs - Content Creator &amp; Streamer Elementor Template Kit|https://drive.google.com/file/d/1EZeZwgqUaVupwzX6cWrkeSrvP8MSP27I/view?usp=drivesdk|https://drive.google.com/file/d/11VtldwIiyJgB3fv-0jLEuaHtJDH4sAAJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Geegs - Content Creator &amp; Streamer Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EZeZwgqUaVupwzX6cWrkeSrvP8MSP27I/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11VtldwIiyJgB3fv-0jLEuaHtJDH4sAAJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>GimiGimi - Woocommmerce Elementor Template Kit|https://drive.google.com/file/d/10Yf7lhon8OeQCE5ygZcJklWVYvnDq0nG/view?usp=drivesdk|https://drive.google.com/file/d/1-7ry6_uTd-YG7BBMplMRt2eCBN1LUOUp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>GimiGimi - Woocommmerce Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10Yf7lhon8OeQCE5ygZcJklWVYvnDq0nG/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-7ry6_uTd-YG7BBMplMRt2eCBN1LUOUp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Goodpay - Fintech Elementor Template Kit|https://drive.google.com/file/d/1Y5dYG-15_Sy39BMpRdPxbnseF5ksKDSf/view?usp=drivesdk|https://drive.google.com/file/d/1DWLjXut7DHlmh_4REEgDplmUHXGiaeMK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Goodpay - Fintech Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Y5dYG-15_Sy39BMpRdPxbnseF5ksKDSf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DWLjXut7DHlmh_4REEgDplmUHXGiaeMK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Goodsound - Podcaster Elementor Template Kit|https://drive.google.com/file/d/1fXK6At6mWdrZufmaSxdOECxwkRJc2hKe/view?usp=drivesdk|https://drive.google.com/file/d/1M3wV7mMqtD1410z70ErWJvJq2QfltJ0L/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Goodsound - Podcaster Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fXK6At6mWdrZufmaSxdOECxwkRJc2hKe/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1M3wV7mMqtD1410z70ErWJvJq2QfltJ0L/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Gotow - Towing Services Elementor Template Kit|https://drive.google.com/file/d/1xshRMQRuDEi4eKYjpcOLaQ-3rhLWM7pt/view?usp=drivesdk|https://drive.google.com/file/d/1kbpMN_KuDNApsBXTLOG7JPhqeSrxGt_D/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Gotow - Towing Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xshRMQRuDEi4eKYjpcOLaQ-3rhLWM7pt/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kbpMN_KuDNApsBXTLOG7JPhqeSrxGt_D/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Granite - Construction &amp; Building Company Elementor Template Kit|https://drive.google.com/file/d/1MET97GysSuBQjInMzyaRy9kjTCoyuzNS/view?usp=drivesdk|https://drive.google.com/file/d/1xGtEXmoV-qyCdDxb7OPVGzKY6lAb6Nj_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Granite - Construction &amp; Building Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MET97GysSuBQjInMzyaRy9kjTCoyuzNS/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xGtEXmoV-qyCdDxb7OPVGzKY6lAb6Nj_/view?usp=drivesdk</t>
+    <t>Hashtag - Social Media Agency Elementor Template Kit|https://drive.google.com/file/d/1kAtleVfwkWi5BEI1RXgTlj-wtTno_Aya/view?usp=drivesdk|https://drive.google.com/file/d/1FSQ1DKb-jijvqJVdXViTGSU3Kt5D7EdI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hashtag - Social Media Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kAtleVfwkWi5BEI1RXgTlj-wtTno_Aya/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FSQ1DKb-jijvqJVdXViTGSU3Kt5D7EdI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hirelab - Human Resource &amp; Recruitment Agency Elementor Template Kit|https://drive.google.com/file/d/1PWkoxUj840wEz-FYs6GW_ScYegnEwZKz/view?usp=drivesdk|https://drive.google.com/file/d/1QmEjYTWFf-xgPCPOKnHw8b-VNkqMjFLs/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hirelab - Human Resource &amp; Recruitment Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PWkoxUj840wEz-FYs6GW_ScYegnEwZKz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QmEjYTWFf-xgPCPOKnHw8b-VNkqMjFLs/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hiro – Human Resources &amp; Recruitment Agency Elementor Template Kit|https://drive.google.com/file/d/1tI_K-WqkXfDvajzI-NWpQThnfCrPyYtP/view?usp=drivesdk|https://drive.google.com/file/d/1WSLSF6Jop_Ty-RvD4L08cPAaM7yxvl3D/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hiro – Human Resources &amp; Recruitment Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tI_K-WqkXfDvajzI-NWpQThnfCrPyYtP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WSLSF6Jop_Ty-RvD4L08cPAaM7yxvl3D/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hostdec - Website Hosting Services Elementor Template Kit|https://drive.google.com/file/d/1mMfREalQjxB-YkwhAFfJjdkkbLBYWtTC/view?usp=drivesdk|https://drive.google.com/file/d/1a-YsBL7E83je9own90_pq7Wi5-EOi6Cw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hostdec - Website Hosting Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mMfREalQjxB-YkwhAFfJjdkkbLBYWtTC/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a-YsBL7E83je9own90_pq7Wi5-EOi6Cw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hygienex - Cleaning Services Elementor Template Kit|https://drive.google.com/file/d/1WnkPQP0K2mibp0tdEzV8rTsi4bjlR1QA/view?usp=drivesdk|https://drive.google.com/file/d/1V8R83b8NuOrue7tsiiZ9GaC_rGTaPO18/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hygienex - Cleaning Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WnkPQP0K2mibp0tdEzV8rTsi4bjlR1QA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V8R83b8NuOrue7tsiiZ9GaC_rGTaPO18/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Influenser - Influencer Marketing Services Agency Elementor Template Kit|https://drive.google.com/file/d/1bKtYvDu5w2jRK3Xv-FDcYBsZZBLC55Y0/view?usp=drivesdk|https://drive.google.com/file/d/1cxAbiziSPc7FdJs20261C3Ik2kV-rdUh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Influenser - Influencer Marketing Services Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bKtYvDu5w2jRK3Xv-FDcYBsZZBLC55Y0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cxAbiziSPc7FdJs20261C3Ik2kV-rdUh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Infosco - Data Science &amp; Analytic Service Elementor Template Kit|https://drive.google.com/file/d/1OVUtbwvsmJRjNv8526aXJmFLwCn4v_sc/view?usp=drivesdk|https://drive.google.com/file/d/19uTJLWb4rPShGNRxuoV5IcyBZ9Ps8-uf/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Infosco - Data Science &amp; Analytic Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OVUtbwvsmJRjNv8526aXJmFLwCn4v_sc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19uTJLWb4rPShGNRxuoV5IcyBZ9Ps8-uf/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Insuranlife - Insurance Agency Elementor Template Kit|https://drive.google.com/file/d/1cLJQM7Bw1te_Ns5zQjHFdmFmqlecs5tE/view?usp=drivesdk|https://drive.google.com/file/d/1FtdkYw9HiSpkR0yg43p8Mdfux7rfVk9G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Insuranlife - Insurance Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cLJQM7Bw1te_Ns5zQjHFdmFmqlecs5tE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FtdkYw9HiSpkR0yg43p8Mdfux7rfVk9G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Intense - Creative Digital Agency Services Elementor Template Kit|https://drive.google.com/file/d/1rpSWBXXRB9BfUvAqkXA3t4Qtv8QF-GK3/view?usp=drivesdk|https://drive.google.com/file/d/17i9afdcdTEOW5f6oa_aOo-iPirr8-Ie7/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Intense - Creative Digital Agency Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rpSWBXXRB9BfUvAqkXA3t4Qtv8QF-GK3/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17i9afdcdTEOW5f6oa_aOo-iPirr8-Ie7/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Juana - Fashion Store Elementor Template Kit|https://drive.google.com/file/d/1NKcv0Fnva7LZQ-OusG2KkDzrCSwOdPE2/view?usp=drivesdk|https://drive.google.com/file/d/1ex8uJQAYwqa-F21nHl8tmlLZO7kW_W7_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Juana - Fashion Store Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NKcv0Fnva7LZQ-OusG2KkDzrCSwOdPE2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ex8uJQAYwqa-F21nHl8tmlLZO7kW_W7_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Kaizen - Sport Club Elementor Template Kit|https://drive.google.com/file/d/1eQgXpaUf6LKu5MYT0L4WXYY8e4CzQ4qf/view?usp=drivesdk|https://drive.google.com/file/d/1NkCPs3moU3ZobvFUxjQofQyQjvVpmCl5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Kaizen - Sport Club Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eQgXpaUf6LKu5MYT0L4WXYY8e4CzQ4qf/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NkCPs3moU3ZobvFUxjQofQyQjvVpmCl5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>KeyMaster - Locksmith &amp; Key Maker Service Elementor Template Kit|https://drive.google.com/file/d/15JUDlhvzl9Fo03BqcfBw4GvWnrjcJorK/view?usp=drivesdk|https://drive.google.com/file/d/1pocUHbquRmX7iV1p2dc5rdcEGUQXbEii/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>KeyMaster - Locksmith &amp; Key Maker Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15JUDlhvzl9Fo03BqcfBw4GvWnrjcJorK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pocUHbquRmX7iV1p2dc5rdcEGUQXbEii/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Kitchenia – Kitchenware &amp; Cooking Utensils Store Template Kit|https://drive.google.com/file/d/1LwyDXLSgmS_cJkN_BG4cDGXdfl6J6kR1/view?usp=drivesdk|https://drive.google.com/file/d/1lXe0xo9Zc7rDjQysEu5RG6LqAHMsqB-k/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Kitchenia – Kitchenware &amp; Cooking Utensils Store Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LwyDXLSgmS_cJkN_BG4cDGXdfl6J6kR1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lXe0xo9Zc7rDjQysEu5RG6LqAHMsqB-k/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Klinskin - Skincare &amp; Dermatology Clinic Elementor Template Kit|https://drive.google.com/file/d/11dq2zGTwTsInbm1Agojdn0WSbOf2D4SZ/view?usp=drivesdk|https://drive.google.com/file/d/1g-kgtwXzNVJy2avbDJYRzByEPHMgWV1N/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Klinskin - Skincare &amp; Dermatology Clinic Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11dq2zGTwTsInbm1Agojdn0WSbOf2D4SZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g-kgtwXzNVJy2avbDJYRzByEPHMgWV1N/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Kulit - Skin Care &amp; Dermatology Elementor Template kit|https://drive.google.com/file/d/1RFMZpOkskJtWq2rwaWiD_CiWz2uDXvUg/view?usp=drivesdk|https://drive.google.com/file/d/1hj9erE-Qy1G6uiGpJwh5836uKfnT00Ij/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Kulit - Skin Care &amp; Dermatology Elementor Template kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RFMZpOkskJtWq2rwaWiD_CiWz2uDXvUg/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hj9erE-Qy1G6uiGpJwh5836uKfnT00Ij/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Law &amp; Order - Law Firm and Lawyers Elementor Template Kit|https://drive.google.com/file/d/1B_VR0PRAlYCfb8Ncx7p_uIq_A_m1IKu0/view?usp=drivesdk|https://drive.google.com/file/d/1cEWwcqQmAi8I-DYfdMqJPNvdHDOXZjU1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Law &amp; Order - Law Firm and Lawyers Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B_VR0PRAlYCfb8Ncx7p_uIq_A_m1IKu0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cEWwcqQmAi8I-DYfdMqJPNvdHDOXZjU1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lawex - Lawyer &amp; Attorney Elementor Template Kit|https://drive.google.com/file/d/1QRhFD74A6r1rfqbr37zb63mxxs6yH6fR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lawex - Lawyer &amp; Attorney Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QRhFD74A6r1rfqbr37zb63mxxs6yH6fR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lawin - Lawyer &amp; Attorney Personal Elementor Template Kits|https://drive.google.com/file/d/1Mt87mPzNjs78Da--fBwEzZCWyHEh-jOj/view?usp=drivesdk|https://drive.google.com/file/d/1PmmpKc8tWJamytQM9ohDmd4qmkPLM3UM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lawin - Lawyer &amp; Attorney Personal Elementor Template Kits</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Mt87mPzNjs78Da--fBwEzZCWyHEh-jOj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PmmpKc8tWJamytQM9ohDmd4qmkPLM3UM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lensa – Camera &amp; Photography Equipment Store Elementor Template Kit|https://drive.google.com/file/d/1VAKYVU19BqgNQyrhrN9bHkq9xBNEIHsh/view?usp=drivesdk|https://drive.google.com/file/d/1679CpgYJ1WzwMna6rVXgSjNL1ahhPest/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Lensa – Camera &amp; Photography Equipment Store Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VAKYVU19BqgNQyrhrN9bHkq9xBNEIHsh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1679CpgYJ1WzwMna6rVXgSjNL1ahhPest/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -516,11 +633,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -530,27 +647,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +663,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -572,24 +697,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -610,11 +720,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,6 +743,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -634,8 +758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,14 +775,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,14 +796,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -701,7 +818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,13 +848,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +920,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,127 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,15 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -938,7 +1046,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,21 +1086,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,138 +1114,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1473,7 +1590,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G11"/>
+      <selection activeCell="G1" sqref="G1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1514,11 +1631,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G31" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Flights - Private Jets Elementor Template Kit','https://drive.google.com/file/d/1Zs961KtYHkDDd7yOI71hW8NvfbSZi9vz/view?usp=drivesdk','https://drive.google.com/file/d/1SfAyX8-mNh2j2UEivwqjl1krMQgpMLIV/view?usp=drives','2','2022-08-22'),</v>
+        <v>('Hairsta – Hair Salon &amp; Hairdresser Elementor Template Kit','https://drive.google.com/file/d/1usUQgrAyrgpiZXIcgA9vebJckNnncK9d/view?usp=drivesdk','https://drive.google.com/file/d/1YouG4H--Ac_APtG4P09jsCxqddsQP5_e/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1538,11 +1655,11 @@
         <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>('Florazo - WooCommerce Florist &amp; Flower Shop Elementor Template Kit','https://drive.google.com/file/d/13hUUZQTEu5-25ay3REi14lpUaKM-wxr_/view?usp=drivesdk','https://drive.google.com/file/d/1-NpsSGc0J7149BPbuII2QCpfIMjACxrZ/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Hashtag - Social Media Agency Elementor Template Kit','https://drive.google.com/file/d/1kAtleVfwkWi5BEI1RXgTlj-wtTno_Aya/view?usp=drivesdk','https://drive.google.com/file/d/1FSQ1DKb-jijvqJVdXViTGSU3Kt5D7EdI/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1562,11 +1679,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('FlyWing - Drone Aerial Video &amp; Photography WordPress Elementor Template Kit','https://drive.google.com/file/d/1xPSVi5GoPLryJ3y1VQpN4rir6OnXZjQE/view?usp=drivesdk','https://drive.google.com/file/d/15dvUWHSDcHVguqU4c86sXGt4w9lL2lJm/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Hirelab - Human Resource &amp; Recruitment Agency Elementor Template Kit','https://drive.google.com/file/d/1PWkoxUj840wEz-FYs6GW_ScYegnEwZKz/view?usp=drivesdk','https://drive.google.com/file/d/1QmEjYTWFf-xgPCPOKnHw8b-VNkqMjFLs/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1586,11 +1703,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('Framarket - Digital Marketing Elementor Template Kit','https://drive.google.com/file/d/1XSaMk_waug4TzBm-bVirYCVOK6InHBC1/view?usp=drivesdk','https://drive.google.com/file/d/1KJs3X-FrnsM9htSzClsFgYzuzWMDl4ml/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Hiro – Human Resources &amp; Recruitment Agency Elementor Template Kit','https://drive.google.com/file/d/1tI_K-WqkXfDvajzI-NWpQThnfCrPyYtP/view?usp=drivesdk','https://drive.google.com/file/d/1WSLSF6Jop_Ty-RvD4L08cPAaM7yxvl3D/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1610,11 +1727,11 @@
         <v>8</v>
       </c>
       <c r="F6" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('Geegs - Content Creator &amp; Streamer Elementor Template Kit','https://drive.google.com/file/d/1EZeZwgqUaVupwzX6cWrkeSrvP8MSP27I/view?usp=drivesdk','https://drive.google.com/file/d/11VtldwIiyJgB3fv-0jLEuaHtJDH4sAAJ/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Hostdec - Website Hosting Services Elementor Template Kit','https://drive.google.com/file/d/1mMfREalQjxB-YkwhAFfJjdkkbLBYWtTC/view?usp=drivesdk','https://drive.google.com/file/d/1a-YsBL7E83je9own90_pq7Wi5-EOi6Cw/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1634,11 +1751,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('GimiGimi - Woocommmerce Elementor Template Kit','https://drive.google.com/file/d/10Yf7lhon8OeQCE5ygZcJklWVYvnDq0nG/view?usp=drivesdk','https://drive.google.com/file/d/1-7ry6_uTd-YG7BBMplMRt2eCBN1LUOUp/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Hygienex - Cleaning Services Elementor Template Kit','https://drive.google.com/file/d/1WnkPQP0K2mibp0tdEzV8rTsi4bjlR1QA/view?usp=drivesdk','https://drive.google.com/file/d/1V8R83b8NuOrue7tsiiZ9GaC_rGTaPO18/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1658,11 +1775,11 @@
         <v>8</v>
       </c>
       <c r="F8" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('Goodpay - Fintech Elementor Template Kit','https://drive.google.com/file/d/1Y5dYG-15_Sy39BMpRdPxbnseF5ksKDSf/view?usp=drivesdk','https://drive.google.com/file/d/1DWLjXut7DHlmh_4REEgDplmUHXGiaeMK/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Influenser - Influencer Marketing Services Agency Elementor Template Kit','https://drive.google.com/file/d/1bKtYvDu5w2jRK3Xv-FDcYBsZZBLC55Y0/view?usp=drivesdk','https://drive.google.com/file/d/1cxAbiziSPc7FdJs20261C3Ik2kV-rdUh/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1682,11 +1799,11 @@
         <v>8</v>
       </c>
       <c r="F9" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('Goodsound - Podcaster Elementor Template Kit','https://drive.google.com/file/d/1fXK6At6mWdrZufmaSxdOECxwkRJc2hKe/view?usp=drivesdk','https://drive.google.com/file/d/1M3wV7mMqtD1410z70ErWJvJq2QfltJ0L/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Infosco - Data Science &amp; Analytic Service Elementor Template Kit','https://drive.google.com/file/d/1OVUtbwvsmJRjNv8526aXJmFLwCn4v_sc/view?usp=drivesdk','https://drive.google.com/file/d/19uTJLWb4rPShGNRxuoV5IcyBZ9Ps8-uf/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1706,11 +1823,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('Gotow - Towing Services Elementor Template Kit','https://drive.google.com/file/d/1xshRMQRuDEi4eKYjpcOLaQ-3rhLWM7pt/view?usp=drivesdk','https://drive.google.com/file/d/1kbpMN_KuDNApsBXTLOG7JPhqeSrxGt_D/view?usp=drivesdk','2','2022-08-22'),</v>
+        <v>('Insuranlife - Insurance Agency Elementor Template Kit','https://drive.google.com/file/d/1cLJQM7Bw1te_Ns5zQjHFdmFmqlecs5tE/view?usp=drivesdk','https://drive.google.com/file/d/1FtdkYw9HiSpkR0yg43p8Mdfux7rfVk9G/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1730,161 +1847,249 @@
         <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('Granite - Construction &amp; Building Company Elementor Template Kit','https://drive.google.com/file/d/1MET97GysSuBQjInMzyaRy9kjTCoyuzNS/view?usp=drivesdk','https://drive.google.com/file/d/1xGtEXmoV-qyCdDxb7OPVGzKY6lAb6Nj_/view?usp=drivesdk','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>('Intense - Creative Digital Agency Services Elementor Template Kit','https://drive.google.com/file/d/1rpSWBXXRB9BfUvAqkXA3t4Qtv8QF-GK3/view?usp=drivesdk','https://drive.google.com/file/d/17i9afdcdTEOW5f6oa_aOo-iPirr8-Ie7/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>('Juana - Fashion Store Elementor Template Kit','https://drive.google.com/file/d/1NKcv0Fnva7LZQ-OusG2KkDzrCSwOdPE2/view?usp=drivesdk','https://drive.google.com/file/d/1ex8uJQAYwqa-F21nHl8tmlLZO7kW_W7_/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>('Kaizen - Sport Club Elementor Template Kit','https://drive.google.com/file/d/1eQgXpaUf6LKu5MYT0L4WXYY8e4CzQ4qf/view?usp=drivesdk','https://drive.google.com/file/d/1NkCPs3moU3ZobvFUxjQofQyQjvVpmCl5/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>('KeyMaster - Locksmith &amp; Key Maker Service Elementor Template Kit','https://drive.google.com/file/d/15JUDlhvzl9Fo03BqcfBw4GvWnrjcJorK/view?usp=drivesdk','https://drive.google.com/file/d/1pocUHbquRmX7iV1p2dc5rdcEGUQXbEii/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>('Kitchenia – Kitchenware &amp; Cooking Utensils Store Template Kit','https://drive.google.com/file/d/1LwyDXLSgmS_cJkN_BG4cDGXdfl6J6kR1/view?usp=drivesdk','https://drive.google.com/file/d/1lXe0xo9Zc7rDjQysEu5RG6LqAHMsqB-k/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>('Klinskin - Skincare &amp; Dermatology Clinic Elementor Template Kit','https://drive.google.com/file/d/11dq2zGTwTsInbm1Agojdn0WSbOf2D4SZ/view?usp=drivesdk','https://drive.google.com/file/d/1g-kgtwXzNVJy2avbDJYRzByEPHMgWV1N/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>('Kulit - Skin Care &amp; Dermatology Elementor Template kit','https://drive.google.com/file/d/1RFMZpOkskJtWq2rwaWiD_CiWz2uDXvUg/view?usp=drivesdk','https://drive.google.com/file/d/1hj9erE-Qy1G6uiGpJwh5836uKfnT00Ij/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>('Law &amp; Order - Law Firm and Lawyers Elementor Template Kit','https://drive.google.com/file/d/1B_VR0PRAlYCfb8Ncx7p_uIq_A_m1IKu0/view?usp=drivesdk','https://drive.google.com/file/d/1cEWwcqQmAi8I-DYfdMqJPNvdHDOXZjU1/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>('Lawex - Lawyer &amp; Attorney Elementor Template Kit','https://drive.google.com/file/d/1QRhFD74A6r1rfqbr37zb63mxxs6yH6fR/view?usp=drivesdk','','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>('Lawin - Lawyer &amp; Attorney Personal Elementor Template Kits','https://drive.google.com/file/d/1Mt87mPzNjs78Da--fBwEzZCWyHEh-jOj/view?usp=drivesdk','https://drive.google.com/file/d/1PmmpKc8tWJamytQM9ohDmd4qmkPLM3UM/view?usp=drivesdk','2','2022-09-20'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('Lensa – Camera &amp; Photography Equipment Store Elementor Template Kit','https://drive.google.com/file/d/1VAKYVU19BqgNQyrhrN9bHkq9xBNEIHsh/view?usp=drivesdk','https://drive.google.com/file/d/1679CpgYJ1WzwMna6rVXgSjNL1ahhPest/view?usp=drivesdk','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1895,11 +2100,11 @@
         <v>8</v>
       </c>
       <c r="F22" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1910,11 +2115,11 @@
         <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -1925,11 +2130,11 @@
         <v>8</v>
       </c>
       <c r="F24" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -1940,11 +2145,11 @@
         <v>8</v>
       </c>
       <c r="F25" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -1955,11 +2160,11 @@
         <v>8</v>
       </c>
       <c r="F26" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -1970,11 +2175,11 @@
         <v>8</v>
       </c>
       <c r="F27" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -1985,11 +2190,11 @@
         <v>8</v>
       </c>
       <c r="F28" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -2000,11 +2205,11 @@
         <v>8</v>
       </c>
       <c r="F29" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -2015,11 +2220,11 @@
         <v>8</v>
       </c>
       <c r="F30" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -2030,11 +2235,11 @@
         <v>8</v>
       </c>
       <c r="F31" s="4">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','2','2022-08-22'),</v>
+        <v>('','','','2','2022-09-20'),</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -2160,13 +2365,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2174,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D51" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2189,10 +2394,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2204,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2219,10 +2424,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2234,10 +2439,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2249,10 +2454,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2264,10 +2469,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2279,10 +2484,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2294,10 +2499,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2309,10 +2514,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2324,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2339,10 +2544,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2354,10 +2559,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2369,10 +2574,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2384,10 +2589,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2399,10 +2604,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2414,10 +2619,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2429,10 +2634,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2444,10 +2649,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2459,10 +2664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2474,10 +2679,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2489,10 +2694,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2504,10 +2709,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2519,10 +2724,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2534,10 +2739,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2549,10 +2754,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2564,10 +2769,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2579,10 +2784,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2594,10 +2799,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2609,10 +2814,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2624,10 +2829,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2639,10 +2844,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2654,10 +2859,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2669,10 +2874,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2684,10 +2889,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2699,10 +2904,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2714,10 +2919,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2729,10 +2934,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2744,10 +2949,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2759,10 +2964,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2774,10 +2979,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2789,10 +2994,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2804,10 +3009,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2819,10 +3024,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2834,10 +3039,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2849,10 +3054,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2864,10 +3069,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2879,10 +3084,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -2894,10 +3099,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -2909,10 +3114,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3192,178 +3397,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
   <si>
     <t>Fake</t>
   </si>
@@ -31,259 +31,127 @@
     <t>insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t>Solar Sure - Renewable Energy Business - Elementor Template Kit|https://drive.google.com/file/d/1xujW5Z7qm2APGQGJNdCc0eQfa7SQ4qOk/view?usp=drivesdk|https://drive.google.com/file/d/1uv7hETthLbn3RwKqo1dNHltHQCl7ueTK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Solar Sure - Renewable Energy Business - Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xujW5Z7qm2APGQGJNdCc0eQfa7SQ4qOk/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uv7hETthLbn3RwKqo1dNHltHQCl7ueTK/view?usp=drivesdk</t>
+    <t>Autowing - Emergency Towing Service Elementor Template Kit|https://drive.google.com/file/d/1_YAuE_8UZFV_xspoVZqUgJmpmr31abWJ/view?usp=drivesdk|https://drive.google.com/file/d/1Bk4MOq0JtOAu3HgnF-WOCUXiu-dVCnAy/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Autowing - Emergency Towing Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_YAuE_8UZFV_xspoVZqUgJmpmr31abWJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bk4MOq0JtOAu3HgnF-WOCUXiu-dVCnAy/view?usp=drivesdk</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Solargy - Solar &amp; Alternative Energy Elementor Template Kit|https://drive.google.com/file/d/1fb5rTb6CBmJijN_o52X671sofK0Vn7k9/view?usp=drivesdk|https://drive.google.com/file/d/1F4eE4-iwKWgUZm7RSWuE2UZAUthRLn9Z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Solargy - Solar &amp; Alternative Energy Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fb5rTb6CBmJijN_o52X671sofK0Vn7k9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1F4eE4-iwKWgUZm7RSWuE2UZAUthRLn9Z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>STRACK Biz - Elementor Template Kit|https://drive.google.com/file/d/1diiFjhqBYs8pZHomejhVEqTLVqQTzghW/view?usp=drivesdk|https://drive.google.com/file/d/1YVudJHOFGdiRxPRvyL6pJAKQmgJknmvW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>STRACK Biz - Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1diiFjhqBYs8pZHomejhVEqTLVqQTzghW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YVudJHOFGdiRxPRvyL6pJAKQmgJknmvW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Synauw Online Course Education Elementor Template Kit|https://drive.google.com/file/d/18ecK3BJws05CtRZZlqy9A-SchfZqizPC/view?usp=drivesdk|https://drive.google.com/file/d/1Knmkk4Ty4iAfWCagqX7Bvm7Tyapv7CH7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Synauw Online Course Education Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18ecK3BJws05CtRZZlqy9A-SchfZqizPC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Knmkk4Ty4iAfWCagqX7Bvm7Tyapv7CH7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Topchess – Chess Club Courses &amp; Training Elementor Template Kit|https://drive.google.com/file/d/1BX2hyHHIwf86GOtUpM3JjdJXKoVMWbzS/view?usp=drivesdk|https://drive.google.com/file/d/1jsZVy3IU_F3u9tj6GT_n-f6MwbRVqjyw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Topchess – Chess Club Courses &amp; Training Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BX2hyHHIwf86GOtUpM3JjdJXKoVMWbzS/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jsZVy3IU_F3u9tj6GT_n-f6MwbRVqjyw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Topika - Insurance Agency Elementor Template Kit|https://drive.google.com/file/d/1_p8u2AxmOvpj26SfAcLRofX6LayDH-RC/view?usp=drivesdk|https://drive.google.com/file/d/1ZEhQjltfzM8wUPK5j7d8zdaYkK6CAknC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Topika - Insurance Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_p8u2AxmOvpj26SfAcLRofX6LayDH-RC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZEhQjltfzM8wUPK5j7d8zdaYkK6CAknC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Traverse - Travel &amp; Tour Agency Elementor Template Kit|https://drive.google.com/file/d/1nRLZJLgbrdlaVaKM3T6c6caUXZ7A4UA7/view?usp=drivesdk|https://drive.google.com/file/d/1_1oRzxIh3lJc2IWDoDD5lMF4iOHjnHH2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Traverse - Travel &amp; Tour Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nRLZJLgbrdlaVaKM3T6c6caUXZ7A4UA7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_1oRzxIh3lJc2IWDoDD5lMF4iOHjnHH2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Urayana - University &amp; College Elementor Template Kit|https://drive.google.com/file/d/193AUDb8OgaWMxzP1F_g1Am-kNkoi7Cc8/view?usp=drivesdk|https://drive.google.com/file/d/1ndZbR_bIK6sejnut8v4eYn4rQgPd101a/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Urayana - University &amp; College Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/193AUDb8OgaWMxzP1F_g1Am-kNkoi7Cc8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ndZbR_bIK6sejnut8v4eYn4rQgPd101a/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Utrener - Business Coach Elementor Pro Template Kit|https://drive.google.com/file/d/1vPDNbtrSFEvu2PWnoX7c9sB9OGF90fjq/view?usp=drivesdk|https://drive.google.com/file/d/1puvEMbRFkuMcNws9x8Qhtvd0lEH17exf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Utrener - Business Coach Elementor Pro Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vPDNbtrSFEvu2PWnoX7c9sB9OGF90fjq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1puvEMbRFkuMcNws9x8Qhtvd0lEH17exf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Vironic – Augmented &amp; Virtual Reality Services Elementor Template Kit|https://drive.google.com/file/d/1RWOAR0e3IoRaIuuO96FFo709OIBqwu3H/view?usp=drivesdk|https://drive.google.com/file/d/1bIFuUbUAha3HiCAiV5c2r4mbjPpA7O9K/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Vironic – Augmented &amp; Virtual Reality Services Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RWOAR0e3IoRaIuuO96FFo709OIBqwu3H/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bIFuUbUAha3HiCAiV5c2r4mbjPpA7O9K/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Voiz – Music Management Agency Elementor Template Kit|https://drive.google.com/file/d/1XG4xB3FDTGHMux8o2iJNyo4wRERgZr-8/view?usp=drivesdk|https://drive.google.com/file/d/1DQCeyh4wFb8zzuYIN0w1391la27VwZKh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Voiz – Music Management Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XG4xB3FDTGHMux8o2iJNyo4wRERgZr-8/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DQCeyh4wFb8zzuYIN0w1391la27VwZKh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Voltech - Tech &amp; Digital Startup Company Elementor Template Kit|https://drive.google.com/file/d/17EZudw0QEYGTB0XXihNM2q-gfoAM2JOo/view?usp=drivesdk|https://drive.google.com/file/d/16-ArTwnVFgnFYIyL9RoYT98Vx5yifqWn/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Voltech - Tech &amp; Digital Startup Company Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17EZudw0QEYGTB0XXihNM2q-gfoAM2JOo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16-ArTwnVFgnFYIyL9RoYT98Vx5yifqWn/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Wastco – Waste Pickup &amp; Disposal Services Template Kit|https://drive.google.com/file/d/1CqITrVn_aIcTlCCX4v5JKdZIxAlmpV1_/view?usp=drivesdk|https://drive.google.com/file/d/1_7HJ8k6Gon-2JvF6LjarmWPqvYSdeyOF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Wastco – Waste Pickup &amp; Disposal Services Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CqITrVn_aIcTlCCX4v5JKdZIxAlmpV1_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_7HJ8k6Gon-2JvF6LjarmWPqvYSdeyOF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Widocline - Professional Window Cleaning Services Template Kit|https://drive.google.com/file/d/124So18R-y4nL_FaIX1cQxr6wxwDXf4tm/view?usp=drivesdk|https://drive.google.com/file/d/1OSUDxY1tZAGWsEaPX-Akob6aZjvuqSxH/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Widocline - Professional Window Cleaning Services Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/124So18R-y4nL_FaIX1cQxr6wxwDXf4tm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OSUDxY1tZAGWsEaPX-Akob6aZjvuqSxH/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Wineful – Wine Store &amp; Winery Elementor Template Kit|https://drive.google.com/file/d/1sh5Bp5ir6KUIZ4l5MiAzUGVPTD9wxhi7/view?usp=drivesdk|https://drive.google.com/file/d/1_eUjyjgfHiOnMX4bb_pAT_-0GODsTwKR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Wineful – Wine Store &amp; Winery Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sh5Bp5ir6KUIZ4l5MiAzUGVPTD9wxhi7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_eUjyjgfHiOnMX4bb_pAT_-0GODsTwKR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Winela - Wine and Vineyard Elementor Template Kit|https://drive.google.com/file/d/1DZMh4jrhn7x_rREfIZJ8MRFVuAkueZRe/view?usp=drivesdk|https://drive.google.com/file/d/1yT4E2BhIDEoePo5LwdEUBC3zC5U2b4-a/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Winela - Wine and Vineyard Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DZMh4jrhn7x_rREfIZJ8MRFVuAkueZRe/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yT4E2BhIDEoePo5LwdEUBC3zC5U2b4-a/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Yogashala - Yoga &amp; Meditation Elementor Template Kit|https://drive.google.com/file/d/1tb_XVN_j2Q6BVue0qu_bzQdQy9MsSKIp/view?usp=drivesdk|https://drive.google.com/file/d/15gVTT4P8x3UYIBktQuh4U1rv8pxCg72l/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Yogashala - Yoga &amp; Meditation Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tb_XVN_j2Q6BVue0qu_bzQdQy9MsSKIp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15gVTT4P8x3UYIBktQuh4U1rv8pxCg72l/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zembolic - Brand Design Agency Elementor Template Kit|https://drive.google.com/file/d/1378HmhGjL0zMts3ItfMI9iCL19aEFFGO/view?usp=drivesdk|https://drive.google.com/file/d/1VndtcdB_nPJFK4PlXfbyeZCyhf0Fj76J/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zembolic - Brand Design Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1378HmhGjL0zMts3ItfMI9iCL19aEFFGO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VndtcdB_nPJFK4PlXfbyeZCyhf0Fj76J/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zenovis – Creative Digital Agency Elementor Template Kit|https://drive.google.com/file/d/1BjpQ3OYOEsDd20cc1LU8D-y5im6cDeel/view?usp=drivesdk|https://drive.google.com/file/d/1H-1FssOJhOZZtHIGapxvDv4TML5-62ql/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zenovis – Creative Digital Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BjpQ3OYOEsDd20cc1LU8D-y5im6cDeel/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1H-1FssOJhOZZtHIGapxvDv4TML5-62ql/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zoorilla - Safari &amp; Zoo Elementor Template Kit|https://drive.google.com/file/d/1YF-zBifzPl8PqljaRbRNe3H44nrUQkuo/view?usp=drivesdk|https://drive.google.com/file/d/1b7pnxamHppKHXJm5tKdQ3d6z3aRrTEGu/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zoorilla - Safari &amp; Zoo Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YF-zBifzPl8PqljaRbRNe3H44nrUQkuo/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1b7pnxamHppKHXJm5tKdQ3d6z3aRrTEGu/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zooventour - Safari &amp; Zoo Elementor Pro Template Kit|https://drive.google.com/file/d/1A6DyVyXcSeRW1yinLwqBjfn5NYcQ7XXd/view?usp=drivesdk|https://drive.google.com/file/d/1kZfgu0QPk64OI2zkVBtN8fMJ6mbCP48K/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Zooventour - Safari &amp; Zoo Elementor Pro Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1A6DyVyXcSeRW1yinLwqBjfn5NYcQ7XXd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kZfgu0QPk64OI2zkVBtN8fMJ6mbCP48K/view?usp=drivesdk</t>
+    <t>BattleBugs - Pest Control Service Elementor Template Ki|https://drive.google.com/file/d/19WYYUNtdwjhzQMcUVZkswNRwVi2GGLni/view?usp=drivesdk|https://drive.google.com/file/d/1j7YrH-w8ztkhbK8XqFBeRV85FsnamHXw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>BattleBugs - Pest Control Service Elementor Template Ki</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19WYYUNtdwjhzQMcUVZkswNRwVi2GGLni/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j7YrH-w8ztkhbK8XqFBeRV85FsnamHXw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>BBW - Building Better Websites for Small Business's Elementor Template Kit|https://drive.google.com/file/d/1NFmmjhoryEZjRYvOpyYGBWjZh6CIjccJ/view?usp=drivesdk|https://drive.google.com/file/d/1d-hGS3Oe8svWlMH8lPP1VcRRCSyek-Bm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>BBW - Building Better Websites for Small Business's Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NFmmjhoryEZjRYvOpyYGBWjZh6CIjccJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d-hGS3Oe8svWlMH8lPP1VcRRCSyek-Bm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Cognitive – Psychology &amp; Counseling Elementor Template Kit|https://drive.google.com/file/d/1GcAxTB7tpvK47t9wKcFppmT5IK2FgWbl/view?usp=drivesdk|https://drive.google.com/file/d/1GEnXfWfOyGcq7HuzNgkbU8tfFc9hY018/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Cognitive – Psychology &amp; Counseling Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GcAxTB7tpvK47t9wKcFppmT5IK2FgWbl/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GEnXfWfOyGcq7HuzNgkbU8tfFc9hY018/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>D-Shirt - T Shirt Design &amp; Printing Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/107KKwIQ-BBPKSUQxz3uuiP11ZBh9lhkR/view?usp=drivesdk|https://drive.google.com/file/d/1gjNXrH2sT3SlH08tU55V1lDRcq6yfKTM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>D-Shirt - T Shirt Design &amp; Printing Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/107KKwIQ-BBPKSUQxz3uuiP11ZBh9lhkR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gjNXrH2sT3SlH08tU55V1lDRcq6yfKTM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dakota - Creative &amp; Digital Agency Elementor Template Kit|https://drive.google.com/file/d/1Z_S7NjdHXI0U5WzDkDdIvx7KMKl_Hzbx/view?usp=drivesdk|https://drive.google.com/file/d/1I5MNzMAX2I6gKCk_QNL-WWLq2mXMKeqq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dakota - Creative &amp; Digital Agency Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z_S7NjdHXI0U5WzDkDdIvx7KMKl_Hzbx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1I5MNzMAX2I6gKCk_QNL-WWLq2mXMKeqq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dentistkit - Dental Clinic Elementor Template Kit|https://drive.google.com/file/d/1t80fgd16QsqT5lb6HhdWliDNGu7j01E0/view?usp=drivesdk|https://drive.google.com/file/d/1OSoXCqpphwGk3J1fhBQUX3oqRfM6I8ov/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dentistkit - Dental Clinic Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t80fgd16QsqT5lb6HhdWliDNGu7j01E0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OSoXCqpphwGk3J1fhBQUX3oqRfM6I8ov/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dexen - Printing &amp; Copy Center Elementor Template Kit|https://drive.google.com/file/d/1kf8JQ7OQqFJyKSrPfukMMcdsg4ti8wNt/view?usp=drivesdk|https://drive.google.com/file/d/13vCPac78Db4NKbLmAlVi_suuqH_WTPEL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dexen - Printing &amp; Copy Center Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kf8JQ7OQqFJyKSrPfukMMcdsg4ti8wNt/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13vCPac78Db4NKbLmAlVi_suuqH_WTPEL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Diverge AI - Robotics Elementor Template Kit|https://drive.google.com/file/d/1H7g7EPz1N87-LUTJWGIFpxbZL9EeLQLs/view?usp=drivesdk|https://drive.google.com/file/d/12LLO1F74tdqClHdHOlWUkPKSYZjiROkR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Diverge AI - Robotics Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H7g7EPz1N87-LUTJWGIFpxbZL9EeLQLs/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12LLO1F74tdqClHdHOlWUkPKSYZjiROkR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dorze - Custom Dress Tailoring Service Elementor Pro Template Kit|https://drive.google.com/file/d/18257-u4sFzNMfpwgokePgXb4WteObHfL/view?usp=drivesdk|https://drive.google.com/file/d/18XHp-LCur63YRzNKGM2_7iDyCbjkUZ7Z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dorze - Custom Dress Tailoring Service Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18257-u4sFzNMfpwgokePgXb4WteObHfL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18XHp-LCur63YRzNKGM2_7iDyCbjkUZ7Z/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -648,11 +516,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -660,29 +528,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -698,6 +543,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -705,8 +565,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,15 +610,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,14 +620,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -767,7 +635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,8 +656,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,21 +681,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,13 +701,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,19 +785,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,25 +833,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,109 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,11 +895,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,30 +926,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1090,26 +940,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,53 +959,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1179,88 +1047,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,8 +1469,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.30476190476191" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1647,7 +1515,7 @@
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G31" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Solar Sure - Renewable Energy Business - Elementor Template Kit','https://drive.google.com/file/d/1xujW5Z7qm2APGQGJNdCc0eQfa7SQ4qOk/view?usp=drivesdk','https://drive.google.com/file/d/1uv7hETthLbn3RwKqo1dNHltHQCl7ueTK/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('Autowing - Emergency Towing Service Elementor Template Kit','https://drive.google.com/file/d/1_YAuE_8UZFV_xspoVZqUgJmpmr31abWJ/view?usp=drivesdk','https://drive.google.com/file/d/1Bk4MOq0JtOAu3HgnF-WOCUXiu-dVCnAy/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1671,7 +1539,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>('Solargy - Solar &amp; Alternative Energy Elementor Template Kit','https://drive.google.com/file/d/1fb5rTb6CBmJijN_o52X671sofK0Vn7k9/view?usp=drivesdk','https://drive.google.com/file/d/1F4eE4-iwKWgUZm7RSWuE2UZAUthRLn9Z/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('BattleBugs - Pest Control Service Elementor Template Ki','https://drive.google.com/file/d/19WYYUNtdwjhzQMcUVZkswNRwVi2GGLni/view?usp=drivesdk','https://drive.google.com/file/d/1j7YrH-w8ztkhbK8XqFBeRV85FsnamHXw/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1695,7 +1563,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('STRACK Biz - Elementor Template Kit','https://drive.google.com/file/d/1diiFjhqBYs8pZHomejhVEqTLVqQTzghW/view?usp=drivesdk','https://drive.google.com/file/d/1YVudJHOFGdiRxPRvyL6pJAKQmgJknmvW/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('BBW - Building Better Websites for Small Business's Elementor Template Kit','https://drive.google.com/file/d/1NFmmjhoryEZjRYvOpyYGBWjZh6CIjccJ/view?usp=drivesdk','https://drive.google.com/file/d/1d-hGS3Oe8svWlMH8lPP1VcRRCSyek-Bm/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1719,7 +1587,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('Synauw Online Course Education Elementor Template Kit','https://drive.google.com/file/d/18ecK3BJws05CtRZZlqy9A-SchfZqizPC/view?usp=drivesdk','https://drive.google.com/file/d/1Knmkk4Ty4iAfWCagqX7Bvm7Tyapv7CH7/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('Cognitive – Psychology &amp; Counseling Elementor Template Kit','https://drive.google.com/file/d/1GcAxTB7tpvK47t9wKcFppmT5IK2FgWbl/view?usp=drivesdk','https://drive.google.com/file/d/1GEnXfWfOyGcq7HuzNgkbU8tfFc9hY018/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1743,7 +1611,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('Topchess – Chess Club Courses &amp; Training Elementor Template Kit','https://drive.google.com/file/d/1BX2hyHHIwf86GOtUpM3JjdJXKoVMWbzS/view?usp=drivesdk','https://drive.google.com/file/d/1jsZVy3IU_F3u9tj6GT_n-f6MwbRVqjyw/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('D-Shirt - T Shirt Design &amp; Printing Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/107KKwIQ-BBPKSUQxz3uuiP11ZBh9lhkR/view?usp=drivesdk','https://drive.google.com/file/d/1gjNXrH2sT3SlH08tU55V1lDRcq6yfKTM/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1767,7 +1635,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('Topika - Insurance Agency Elementor Template Kit','https://drive.google.com/file/d/1_p8u2AxmOvpj26SfAcLRofX6LayDH-RC/view?usp=drivesdk','https://drive.google.com/file/d/1ZEhQjltfzM8wUPK5j7d8zdaYkK6CAknC/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('Dakota - Creative &amp; Digital Agency Elementor Template Kit','https://drive.google.com/file/d/1Z_S7NjdHXI0U5WzDkDdIvx7KMKl_Hzbx/view?usp=drivesdk','https://drive.google.com/file/d/1I5MNzMAX2I6gKCk_QNL-WWLq2mXMKeqq/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1791,7 +1659,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('Traverse - Travel &amp; Tour Agency Elementor Template Kit','https://drive.google.com/file/d/1nRLZJLgbrdlaVaKM3T6c6caUXZ7A4UA7/view?usp=drivesdk','https://drive.google.com/file/d/1_1oRzxIh3lJc2IWDoDD5lMF4iOHjnHH2/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('Dentistkit - Dental Clinic Elementor Template Kit','https://drive.google.com/file/d/1t80fgd16QsqT5lb6HhdWliDNGu7j01E0/view?usp=drivesdk','https://drive.google.com/file/d/1OSoXCqpphwGk3J1fhBQUX3oqRfM6I8ov/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1815,7 +1683,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('Urayana - University &amp; College Elementor Template Kit','https://drive.google.com/file/d/193AUDb8OgaWMxzP1F_g1Am-kNkoi7Cc8/view?usp=drivesdk','https://drive.google.com/file/d/1ndZbR_bIK6sejnut8v4eYn4rQgPd101a/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('Dexen - Printing &amp; Copy Center Elementor Template Kit','https://drive.google.com/file/d/1kf8JQ7OQqFJyKSrPfukMMcdsg4ti8wNt/view?usp=drivesdk','https://drive.google.com/file/d/13vCPac78Db4NKbLmAlVi_suuqH_WTPEL/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1839,7 +1707,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('Utrener - Business Coach Elementor Pro Template Kit','https://drive.google.com/file/d/1vPDNbtrSFEvu2PWnoX7c9sB9OGF90fjq/view?usp=drivesdk','https://drive.google.com/file/d/1puvEMbRFkuMcNws9x8Qhtvd0lEH17exf/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('Diverge AI - Robotics Elementor Template Kit','https://drive.google.com/file/d/1H7g7EPz1N87-LUTJWGIFpxbZL9EeLQLs/view?usp=drivesdk','https://drive.google.com/file/d/12LLO1F74tdqClHdHOlWUkPKSYZjiROkR/view?usp=drivesdk','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1863,22 +1731,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('Vironic – Augmented &amp; Virtual Reality Services Elementor Template Kit','https://drive.google.com/file/d/1RWOAR0e3IoRaIuuO96FFo709OIBqwu3H/view?usp=drivesdk','https://drive.google.com/file/d/1bIFuUbUAha3HiCAiV5c2r4mbjPpA7O9K/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>('Dorze - Custom Dress Tailoring Service Elementor Pro Template Kit','https://drive.google.com/file/d/18257-u4sFzNMfpwgokePgXb4WteObHfL/view?usp=drivesdk','https://drive.google.com/file/d/18XHp-LCur63YRzNKGM2_7iDyCbjkUZ7Z/view?usp=drivesdk','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1887,22 +1746,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('Voiz – Music Management Agency Elementor Template Kit','https://drive.google.com/file/d/1XG4xB3FDTGHMux8o2iJNyo4wRERgZr-8/view?usp=drivesdk','https://drive.google.com/file/d/1DQCeyh4wFb8zzuYIN0w1391la27VwZKh/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1911,22 +1761,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('Voltech - Tech &amp; Digital Startup Company Elementor Template Kit','https://drive.google.com/file/d/17EZudw0QEYGTB0XXihNM2q-gfoAM2JOo/view?usp=drivesdk','https://drive.google.com/file/d/16-ArTwnVFgnFYIyL9RoYT98Vx5yifqWn/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1935,22 +1776,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('Wastco – Waste Pickup &amp; Disposal Services Template Kit','https://drive.google.com/file/d/1CqITrVn_aIcTlCCX4v5JKdZIxAlmpV1_/view?usp=drivesdk','https://drive.google.com/file/d/1_7HJ8k6Gon-2JvF6LjarmWPqvYSdeyOF/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1959,22 +1791,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('Widocline - Professional Window Cleaning Services Template Kit','https://drive.google.com/file/d/124So18R-y4nL_FaIX1cQxr6wxwDXf4tm/view?usp=drivesdk','https://drive.google.com/file/d/1OSUDxY1tZAGWsEaPX-Akob6aZjvuqSxH/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1983,22 +1806,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('Wineful – Wine Store &amp; Winery Elementor Template Kit','https://drive.google.com/file/d/1sh5Bp5ir6KUIZ4l5MiAzUGVPTD9wxhi7/view?usp=drivesdk','https://drive.google.com/file/d/1_eUjyjgfHiOnMX4bb_pAT_-0GODsTwKR/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2007,22 +1821,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('Winela - Wine and Vineyard Elementor Template Kit','https://drive.google.com/file/d/1DZMh4jrhn7x_rREfIZJ8MRFVuAkueZRe/view?usp=drivesdk','https://drive.google.com/file/d/1yT4E2BhIDEoePo5LwdEUBC3zC5U2b4-a/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2031,22 +1836,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('Yogashala - Yoga &amp; Meditation Elementor Template Kit','https://drive.google.com/file/d/1tb_XVN_j2Q6BVue0qu_bzQdQy9MsSKIp/view?usp=drivesdk','https://drive.google.com/file/d/15gVTT4P8x3UYIBktQuh4U1rv8pxCg72l/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2055,22 +1851,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('Zembolic - Brand Design Agency Elementor Template Kit','https://drive.google.com/file/d/1378HmhGjL0zMts3ItfMI9iCL19aEFFGO/view?usp=drivesdk','https://drive.google.com/file/d/1VndtcdB_nPJFK4PlXfbyeZCyhf0Fj76J/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2079,22 +1866,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('Zenovis – Creative Digital Agency Elementor Template Kit','https://drive.google.com/file/d/1BjpQ3OYOEsDd20cc1LU8D-y5im6cDeel/view?usp=drivesdk','https://drive.google.com/file/d/1H-1FssOJhOZZtHIGapxvDv4TML5-62ql/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2103,22 +1881,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('Zoorilla - Safari &amp; Zoo Elementor Template Kit','https://drive.google.com/file/d/1YF-zBifzPl8PqljaRbRNe3H44nrUQkuo/view?usp=drivesdk','https://drive.google.com/file/d/1b7pnxamHppKHXJm5tKdQ3d6z3aRrTEGu/view?usp=drivesdk','2','2022-09-29'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>('','','','2','2022-09-29'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +1896,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('Zooventour - Safari &amp; Zoo Elementor Pro Template Kit','https://drive.google.com/file/d/1A6DyVyXcSeRW1yinLwqBjfn5NYcQ7XXd/view?usp=drivesdk','https://drive.google.com/file/d/1kZfgu0QPk64OI2zkVBtN8fMJ6mbCP48K/view?usp=drivesdk','2','2022-09-29'),</v>
+        <v>('','','','2','2022-09-29'),</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -2388,13 +2157,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2402,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D51" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2417,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2432,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2447,10 +2216,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2462,10 +2231,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2477,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2492,10 +2261,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2507,10 +2276,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2522,10 +2291,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2537,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2552,10 +2321,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2567,10 +2336,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2582,10 +2351,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2597,10 +2366,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2612,10 +2381,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2627,10 +2396,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2642,10 +2411,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2657,10 +2426,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2672,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2687,10 +2456,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2702,10 +2471,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2717,10 +2486,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2732,10 +2501,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2747,10 +2516,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2762,10 +2531,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2777,10 +2546,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2792,10 +2561,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2807,10 +2576,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2822,10 +2591,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2837,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2852,10 +2621,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2867,10 +2636,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2882,10 +2651,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2897,10 +2666,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2912,10 +2681,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2927,10 +2696,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2942,10 +2711,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2957,10 +2726,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2972,10 +2741,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2987,10 +2756,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -3002,10 +2771,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -3017,10 +2786,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -3032,10 +2801,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -3047,10 +2816,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -3062,10 +2831,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -3077,10 +2846,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -3092,10 +2861,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -3107,10 +2876,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -3122,10 +2891,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -3137,10 +2906,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3420,178 +3189,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde2.xlsx
+++ b/Post WP/onde2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="244">
   <si>
     <t>Fake</t>
   </si>
@@ -31,127 +31,367 @@
     <t>insert into laporan_wp(judul,mega_link,mega_download,edisi,tgl) values</t>
   </si>
   <si>
-    <t>Aimgun - Shooting Range &amp; Gun Club Elementor Template Kit|https://drive.google.com/file/d/1mh7jTi9Nj9prnmtYG8YwsXsV77GDmpWd/view?usp=drivesdk|https://drive.google.com/file/d/1DD4LW3ua-Yo56hbP0FGokUS1CKeE21Ol/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Aimgun - Shooting Range &amp; Gun Club Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mh7jTi9Nj9prnmtYG8YwsXsV77GDmpWd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DD4LW3ua-Yo56hbP0FGokUS1CKeE21Ol/view?usp=drivesdk</t>
+    <t>Credice - Insurance Agency Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1jSHMfyaZct0qEjla02EZ_Sua5KdjuZix/view?usp=drivesdk|https://drive.google.com/file/d/1-KfY_rYdgq_Ah0275DHM7ZDp4GIpCikq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Credice - Insurance Agency Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jSHMfyaZct0qEjla02EZ_Sua5KdjuZix/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-KfY_rYdgq_Ah0275DHM7ZDp4GIpCikq/view?usp=drivesdk</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Aisha - Hijab &amp; Muslim Wear Store Elementor Template Kit|https://drive.google.com/file/d/17VnpSqsOAOJ2D4qu4FXxUoVN4Pzavx0Z/view?usp=drivesdk|https://drive.google.com/file/d/1AMRAi3HsP2MbIerlSjSkrcl2rnp2Ktv2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Aisha - Hijab &amp; Muslim Wear Store Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17VnpSqsOAOJ2D4qu4FXxUoVN4Pzavx0Z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AMRAi3HsP2MbIerlSjSkrcl2rnp2Ktv2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Archouse - Architecture &amp; Interior Design Studio Elementor Template Kit|https://drive.google.com/file/d/1VBGjuWDCqRSfkYTZ8fXLHcmVn0QT_1Uf/view?usp=drivesdk|https://drive.google.com/file/d/1LQZISzCRxhSKM8puhiSqCw3zxSX2KhLj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Archouse - Architecture &amp; Interior Design Studio Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VBGjuWDCqRSfkYTZ8fXLHcmVn0QT_1Uf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LQZISzCRxhSKM8puhiSqCw3zxSX2KhLj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Arpent - Interior Design and Architecture Elementor Template Kit|https://drive.google.com/file/d/1zHaR_z_bPM4FNVsPFRI2mcjMBK_Rd46C/view?usp=drivesdk|https://drive.google.com/file/d/1zbyTyImW19fWVDMd3tVDun4obEBqmenq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Arpent - Interior Design and Architecture Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zHaR_z_bPM4FNVsPFRI2mcjMBK_Rd46C/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zbyTyImW19fWVDMd3tVDun4obEBqmenq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Astrobot – Industrial Robot &amp; Machine Industry Elementor Template Kit|https://drive.google.com/file/d/1rVE5J-D6Yme3I7-EiYjBK6FH6sVoA1qV/view?usp=drivesdk|https://drive.google.com/file/d/1r6c7mwSG8OhlsUoH3UFnrNh9xofqzDG3/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Astrobot – Industrial Robot &amp; Machine Industry Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rVE5J-D6Yme3I7-EiYjBK6FH6sVoA1qV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1r6c7mwSG8OhlsUoH3UFnrNh9xofqzDG3/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>BetCourse - Sports Betting and Prediction Course Elementor Template Kit|https://drive.google.com/file/d/1W9Lh6it2lQkQjqUk0OkL6w-Ew4cM1AWE/view?usp=drivesdk|https://drive.google.com/file/d/1pHQ8eKCZ8rxVg_O-psGzBWRDVKa8H3Oc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>BetCourse - Sports Betting and Prediction Course Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1W9Lh6it2lQkQjqUk0OkL6w-Ew4cM1AWE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pHQ8eKCZ8rxVg_O-psGzBWRDVKa8H3Oc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bizco - Business Coaching Elementor Template Kit|https://drive.google.com/file/d/1OibUzQ__HOEHHGp34qt2RTWvjB4YQEBy/view?usp=drivesdk|https://drive.google.com/file/d/1oLHzF29M0fD6boRmvY31GqY2lWHUezPD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Bizco - Business Coaching Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OibUzQ__HOEHHGp34qt2RTWvjB4YQEBy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oLHzF29M0fD6boRmvY31GqY2lWHUezPD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Boxen - Boxing School &amp; Martial Arts Elementor Template Kit|https://drive.google.com/file/d/1uBhN5apMSEnLNutb1v88NB-R5d8q7Eq0/view?usp=drivesdk|https://drive.google.com/file/d/1aSl1W5rMw9PepB7p-zAwX3UrYBxGJsDO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Boxen - Boxing School &amp; Martial Arts Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uBhN5apMSEnLNutb1v88NB-R5d8q7Eq0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aSl1W5rMw9PepB7p-zAwX3UrYBxGJsDO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Buzzkit - Influencer &amp; Creative Agency Elementor Template Kit|https://drive.google.com/file/d/1zGYA_nnrNKsAaEA5c1AuEyMMCVrABixc/view?usp=drivesdk|https://drive.google.com/file/d/1-bdEvr_SjzIgu-vKXq6V2CivdI-daJZd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Buzzkit - Influencer &amp; Creative Agency Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zGYA_nnrNKsAaEA5c1AuEyMMCVrABixc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-bdEvr_SjzIgu-vKXq6V2CivdI-daJZd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Charreria - Horse Riding Club Elementor Template Kit|https://drive.google.com/file/d/19uaWqb36sd8Yb851AzuFOKxSK-AdSudv/view?usp=drivesdk|https://drive.google.com/file/d/1eg4S41NveuXU0bnj5NQO2r8ankk7du4J/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Charreria - Horse Riding Club Elementor Template Kit</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19uaWqb36sd8Yb851AzuFOKxSK-AdSudv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1eg4S41NveuXU0bnj5NQO2r8ankk7du4J/view?usp=drivesdk</t>
+    <t>Crevidy - UI UX Designer Portfolio Elementor Pro Template Kit|https://drive.google.com/file/d/15bF6pDphBmJaSZY4VlJql4mkhNPRPdKc/view?usp=drivesdk|https://drive.google.com/file/d/1J4IaLoiRw-_sY7FrnkW93tui-cOFNt1t/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Crevidy - UI UX Designer Portfolio Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15bF6pDphBmJaSZY4VlJql4mkhNPRPdKc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J4IaLoiRw-_sY7FrnkW93tui-cOFNt1t/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Croise - Ballet &amp; Dance School Elementor Pro Template Kit|https://drive.google.com/file/d/1UIHN142IT6i6biRAAwji23IfvA1oaGQZ/view?usp=drivesdk|https://drive.google.com/file/d/1-kNqf3DiUOp6YEKYPpdyRkdOHX3Bk1LL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Croise - Ballet &amp; Dance School Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UIHN142IT6i6biRAAwji23IfvA1oaGQZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-kNqf3DiUOp6YEKYPpdyRkdOHX3Bk1LL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Defloor - Floor Company Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1R1K04fQRbPPN9lYPl_h-yRj3sFb72g9E/view?usp=drivesdk|https://drive.google.com/file/d/1GeDX6WAbp75YwCY_sfV4Slbm9Bvm3Yrw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Defloor - Floor Company Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R1K04fQRbPPN9lYPl_h-yRj3sFb72g9E/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GeDX6WAbp75YwCY_sfV4Slbm9Bvm3Yrw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dentalkit - Dentist &amp; Medical Service Elementor Template Kit|https://drive.google.com/file/d/1nUzNksBCHcgi8cjV5aUaw_WGiE3k9QbI/view?usp=drivesdk|https://drive.google.com/file/d/1ropYWpCVKl8ZbtKjI8lzBgtcOEZ5yEkr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Dentalkit - Dentist &amp; Medical Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nUzNksBCHcgi8cjV5aUaw_WGiE3k9QbI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ropYWpCVKl8ZbtKjI8lzBgtcOEZ5yEkr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Digital Realism - NFT Elementor Template Kit|https://drive.google.com/file/d/1NVU4STqpj7U76-EWYnI4sLQgwoTH6GCh/view?usp=drivesdk|https://drive.google.com/file/d/1ux5I3rH6X0kfQnOMGrQdTPMf7zAnSH_q/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Digital Realism - NFT Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NVU4STqpj7U76-EWYnI4sLQgwoTH6GCh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ux5I3rH6X0kfQnOMGrQdTPMf7zAnSH_q/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Doclean - Carpet Cleaning Services Elementor Template Kit|https://drive.google.com/file/d/1x8W9yHaWsnlygKa9AgXIjsnqfRQiA9Tc/view?usp=drivesdk|https://drive.google.com/file/d/1pBzaLsamwKTcyZ6nPPulX7N64g0vlOij/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Doclean - Carpet Cleaning Services Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1x8W9yHaWsnlygKa9AgXIjsnqfRQiA9Tc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pBzaLsamwKTcyZ6nPPulX7N64g0vlOij/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Drivale - Driving School Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1EzoCR7WJRnYwCjpfferzT--yOzhtWevZ/view?usp=drivesdk|https://drive.google.com/file/d/1nnTblSVWa9wHom5-DpSs4ln80X5HilWx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Drivale - Driving School Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EzoCR7WJRnYwCjpfferzT--yOzhtWevZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nnTblSVWa9wHom5-DpSs4ln80X5HilWx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Drive - Car Repair &amp; Auto Service Elementor Template Kit|https://drive.google.com/file/d/1AdchIutQSfiWRHu-gbG0zKBE9attsVjt/view?usp=drivesdk|https://drive.google.com/file/d/1kSsY6VKT8SmUnfEcPgTdOSTzSook5ByK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Drive - Car Repair &amp; Auto Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AdchIutQSfiWRHu-gbG0zKBE9attsVjt/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kSsY6VKT8SmUnfEcPgTdOSTzSook5ByK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Duchess - Chess Club &amp; Tournament Elementor Template Kit|https://drive.google.com/file/d/1XwVm4DLQ7pCPiGSBzH1ObHf41ksebeow/view?usp=drivesdk|https://drive.google.com/file/d/1pfMsyH9MPhpiKjFzZrEod9d_olsN2gGK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Duchess - Chess Club &amp; Tournament Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XwVm4DLQ7pCPiGSBzH1ObHf41ksebeow/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pfMsyH9MPhpiKjFzZrEod9d_olsN2gGK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Duid - Personal Financial Consultant Service Elementor Template Kit|https://drive.google.com/file/d/1zKEwOfMGKJcLfWPkVTBOOl8WKFV4b34c/view?usp=drivesdk|https://drive.google.com/file/d/1rQgtgv5fCqLXdK8NeKYCcC_zdYzmsBE3/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Duid - Personal Financial Consultant Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zKEwOfMGKJcLfWPkVTBOOl8WKFV4b34c/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rQgtgv5fCqLXdK8NeKYCcC_zdYzmsBE3/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Edan - Human Psychology &amp; Consultant Elementor Template Kit|https://drive.google.com/file/d/1u1xY4r3E0Abu98eU9EzfqR1XMqJW4Zqd/view?usp=drivesdk|https://drive.google.com/file/d/159fUHxM-izOGyQRigEYWQ4ljajdkiM8A/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Edan - Human Psychology &amp; Consultant Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u1xY4r3E0Abu98eU9EzfqR1XMqJW4Zqd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/159fUHxM-izOGyQRigEYWQ4ljajdkiM8A/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Electriz - Electrical Installation &amp; Maintenance Service Elementor Template Kit|https://drive.google.com/file/d/15tAeqL4woQC4rOmPYDugk3fDgC6FeO74/view?usp=drivesdk|https://drive.google.com/file/d/1Y8sJl8sEjuzBsegfFYOsT7fAW4k01TFN/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Electriz - Electrical Installation &amp; Maintenance Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15tAeqL4woQC4rOmPYDugk3fDgC6FeO74/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y8sJl8sEjuzBsegfFYOsT7fAW4k01TFN/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ElectroDeals - Woocommerce Electronic Store Elementor Template Kit|https://drive.google.com/file/d/1VIPGnZgbrPLQpPXily6rgc5QBJGyMEGZ/view?usp=drivesdk|https://drive.google.com/file/d/1yUPRLTXj6OqcbLlsFOH8bwHGtCb26915/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ElectroDeals - Woocommerce Electronic Store Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VIPGnZgbrPLQpPXily6rgc5QBJGyMEGZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yUPRLTXj6OqcbLlsFOH8bwHGtCb26915/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Elix - Responsive Multipurpose Creative Business Template Kit|https://drive.google.com/file/d/1L1ja_HIJRM5BjfLHEmgp4GEsxfACIUm8/view?usp=drivesdk|https://drive.google.com/file/d/13Yt0Jpj-0vr7DDumN0k9ZP5lqWS_aB-o/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Elix - Responsive Multipurpose Creative Business Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L1ja_HIJRM5BjfLHEmgp4GEsxfACIUm8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Yt0Jpj-0vr7DDumN0k9ZP5lqWS_aB-o/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Evex - Heat Pumps &amp; Renewable Energy Elementor Template Kit|https://drive.google.com/file/d/1eY76xIcOY_pwx_ju_kDIuSD9WIoXfqCw/view?usp=drivesdk|https://drive.google.com/file/d/199NLd1Q1ZNxpYNc3r7p1JKvNTPSSMt1Z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Evex - Heat Pumps &amp; Renewable Energy Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eY76xIcOY_pwx_ju_kDIuSD9WIoXfqCw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/199NLd1Q1ZNxpYNc3r7p1JKvNTPSSMt1Z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Farmacy – Pharmacy &amp; Medical Store Elementor Template Kit|https://drive.google.com/file/d/1bY7bZBXjr1pjn22CYtNAPIlv_emeVNx8/view?usp=drivesdk|https://drive.google.com/file/d/1boTiX0KZY89A39LWSOUrC1Xt0VoaMq-K/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Farmacy – Pharmacy &amp; Medical Store Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bY7bZBXjr1pjn22CYtNAPIlv_emeVNx8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1boTiX0KZY89A39LWSOUrC1Xt0VoaMq-K/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Fashway - NFT Portfolio Elementor Template Kit|https://drive.google.com/file/d/1zqrAmBBlgxFRgkT_wxmw2aJSR-3F7jC1/view?usp=drivesdk|https://drive.google.com/file/d/1-2h9ttZp0_6ng3Q9qou9_WlpVNgJGCFn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Fashway - NFT Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zqrAmBBlgxFRgkT_wxmw2aJSR-3F7jC1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-2h9ttZp0_6ng3Q9qou9_WlpVNgJGCFn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Felicity - SEO &amp; Digital Marketing Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1u8julFwqcHPDI5eaNpsoaq8h5SWHfoMc/view?usp=drivesdk|https://drive.google.com/file/d/1dx3jrdcu1W9mW08Q5ml6GnM7crDzUd3e/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Felicity - SEO &amp; Digital Marketing Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u8julFwqcHPDI5eaNpsoaq8h5SWHfoMc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dx3jrdcu1W9mW08Q5ml6GnM7crDzUd3e/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Fulhome - Home Renovations &amp; Repair Company Elementor Pro Template Kit|https://drive.google.com/file/d/1tBzxOkLEdcJEssHWvFo1uCfvK3kVpb2q/view?usp=drivesdk|https://drive.google.com/file/d/1ldhxX_9xik_Z2WlMEOZ7tz63fQE-N221/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Fulhome - Home Renovations &amp; Repair Company Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tBzxOkLEdcJEssHWvFo1uCfvK3kVpb2q/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ldhxX_9xik_Z2WlMEOZ7tz63fQE-N221/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Furniti - Furniture &amp; Home Decor Store Elementor Pro Template Kit|https://drive.google.com/file/d/1unpFnWFS4cjVR1901ol1YGwmDSejenfq/view?usp=drivesdk|https://drive.google.com/file/d/19rnNnuRUibI-_8J0qlhzZInxOMxX7_XP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Furniti - Furniture &amp; Home Decor Store Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1unpFnWFS4cjVR1901ol1YGwmDSejenfq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19rnNnuRUibI-_8J0qlhzZInxOMxX7_XP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Getfire - Firefighter Department Elementor Template Kit|https://drive.google.com/file/d/13bUg6fyzkc-S4otMwHcK_5FFmwf_fEpQ/view?usp=drivesdk|https://drive.google.com/file/d/1n21NVq8flZQczqNhXqppLUmRsng7y-ox/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Getfire - Firefighter Department Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13bUg6fyzkc-S4otMwHcK_5FFmwf_fEpQ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n21NVq8flZQczqNhXqppLUmRsng7y-ox/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Glib - NFT Marketplace Elementor Pro Template Kit|https://drive.google.com/file/d/1lMr74Ss4Eg2vPGSVs7kYWSre0P0eaGNR/view?usp=drivesdk|https://drive.google.com/file/d/1eeHpCFsjW8FaUjPiRHTN2ZixM5Iqbv6E/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Glib - NFT Marketplace Elementor Pro Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lMr74Ss4Eg2vPGSVs7kYWSre0P0eaGNR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eeHpCFsjW8FaUjPiRHTN2ZixM5Iqbv6E/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Gutama – Music Composer &amp; Producer Elementor Template Kit|https://drive.google.com/file/d/1QaKFAhZhl6sllI1VKXFiNAWNtho-AXaV/view?usp=drivesdk|https://drive.google.com/file/d/1hpYa3JrtWZlbMzUAOm2KHjH3828wqn6V/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Gutama – Music Composer &amp; Producer Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QaKFAhZhl6sllI1VKXFiNAWNtho-AXaV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hpYa3JrtWZlbMzUAOm2KHjH3828wqn6V/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Homerun – Baseball Team &amp; Sports Club Elementor Template Kit|https://drive.google.com/file/d/1oTGWzPac7pp4u_1XzvGgjUeEEzawWOuK/view?usp=drivesdk|https://drive.google.com/file/d/1Ikh2M4iJBNnpHy1jiWA0R_B1uPtir7iS/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Homerun – Baseball Team &amp; Sports Club Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oTGWzPac7pp4u_1XzvGgjUeEEzawWOuK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ikh2M4iJBNnpHy1jiWA0R_B1uPtir7iS/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Housec - Smart Home Security Service Elementor Template Kit|https://drive.google.com/file/d/16-f887z2jHXJ8lZxKNCMBCnZ3wqyfJwA/view?usp=drivesdk|https://drive.google.com/file/d/1rCFigdTaGOzxmyDsOs1k2vruUkz6Ws_M/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Housec - Smart Home Security Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16-f887z2jHXJ8lZxKNCMBCnZ3wqyfJwA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rCFigdTaGOzxmyDsOs1k2vruUkz6Ws_M/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hozta - Web Hosting Service Elementor Template Kit|https://drive.google.com/file/d/1pHcK8TL_Dy8W_YtDd7YKdbdCRA4b7Zr4/view?usp=drivesdk|https://drive.google.com/file/d/16ZoHjylpdCUVP08DmcR2LaC2pQA_49em/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hozta - Web Hosting Service Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pHcK8TL_Dy8W_YtDd7YKdbdCRA4b7Zr4/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16ZoHjylpdCUVP08DmcR2LaC2pQA_49em/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hypebeat - Influencer Marketing Agency Elementor Pro Full Site Template Kit|https://drive.google.com/file/d/1vykWmUpBqWlNLBO8mKsJ0xuJI2P7uL1A/view?usp=drivesdk|https://drive.google.com/file/d/1B-v5dvxi8r5eu456J1KC3OSpdDpEqog1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Hypebeat - Influencer Marketing Agency Elementor Pro Full Site Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vykWmUpBqWlNLBO8mKsJ0xuJI2P7uL1A/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B-v5dvxi8r5eu456J1KC3OSpdDpEqog1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Jack.Dir - Personal Design Portfolio Elementor Template Kit|https://drive.google.com/file/d/1Lr93MubMQOb2sjlirVvYTWXH_c-DYKUA/view?usp=drivesdk|https://drive.google.com/file/d/1Pj2etUj042kh_tO5qoAeqR592eZZ_3w8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Jack.Dir - Personal Design Portfolio Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Lr93MubMQOb2sjlirVvYTWXH_c-DYKUA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pj2etUj042kh_tO5qoAeqR592eZZ_3w8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Joran - Fishing Club Elementor Template Kit|https://drive.google.com/file/d/1ZetlpAdUrYvhFLme5wft4BFsMH_3vZiL/view?usp=drivesdk|https://drive.google.com/file/d/1Ul2pZy1P9f8-osA7QiDJcfANKA_HD0vD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Joran - Fishing Club Elementor Template Kit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZetlpAdUrYvhFLme5wft4BFsMH_3vZiL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ul2pZy1P9f8-osA7QiDJcfANKA_HD0vD/view?usp=drivesdk</t>
   </si>
   <si>
     <t>No</t>
@@ -516,11 +756,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -528,18 +768,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -550,17 +778,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,6 +816,29 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,7 +851,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,17 +865,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,32 +902,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,13 +921,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,13 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,19 +959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,19 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +1025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,31 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,25 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,13 +1085,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,6 +1132,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -921,69 +1224,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -997,138 +1237,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1469,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.32380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1511,11 +1751,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G31" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;TEXT(F2,"yyyy-mm-d")&amp;"'),"</f>
-        <v>('Aimgun - Shooting Range &amp; Gun Club Elementor Template Kit','https://drive.google.com/file/d/1mh7jTi9Nj9prnmtYG8YwsXsV77GDmpWd/view?usp=drivesdk','https://drive.google.com/file/d/1DD4LW3ua-Yo56hbP0FGokUS1CKeE21Ol/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Credice - Insurance Agency Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1jSHMfyaZct0qEjla02EZ_Sua5KdjuZix/view?usp=drivesdk','https://drive.google.com/file/d/1-KfY_rYdgq_Ah0275DHM7ZDp4GIpCikq/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1535,11 +1775,11 @@
         <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>('Aisha - Hijab &amp; Muslim Wear Store Elementor Template Kit','https://drive.google.com/file/d/17VnpSqsOAOJ2D4qu4FXxUoVN4Pzavx0Z/view?usp=drivesdk','https://drive.google.com/file/d/1AMRAi3HsP2MbIerlSjSkrcl2rnp2Ktv2/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Crevidy - UI UX Designer Portfolio Elementor Pro Template Kit','https://drive.google.com/file/d/15bF6pDphBmJaSZY4VlJql4mkhNPRPdKc/view?usp=drivesdk','https://drive.google.com/file/d/1J4IaLoiRw-_sY7FrnkW93tui-cOFNt1t/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1559,11 +1799,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('Archouse - Architecture &amp; Interior Design Studio Elementor Template Kit','https://drive.google.com/file/d/1VBGjuWDCqRSfkYTZ8fXLHcmVn0QT_1Uf/view?usp=drivesdk','https://drive.google.com/file/d/1LQZISzCRxhSKM8puhiSqCw3zxSX2KhLj/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Croise - Ballet &amp; Dance School Elementor Pro Template Kit','https://drive.google.com/file/d/1UIHN142IT6i6biRAAwji23IfvA1oaGQZ/view?usp=drivesdk','https://drive.google.com/file/d/1-kNqf3DiUOp6YEKYPpdyRkdOHX3Bk1LL/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1583,11 +1823,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('Arpent - Interior Design and Architecture Elementor Template Kit','https://drive.google.com/file/d/1zHaR_z_bPM4FNVsPFRI2mcjMBK_Rd46C/view?usp=drivesdk','https://drive.google.com/file/d/1zbyTyImW19fWVDMd3tVDun4obEBqmenq/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Defloor - Floor Company Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1R1K04fQRbPPN9lYPl_h-yRj3sFb72g9E/view?usp=drivesdk','https://drive.google.com/file/d/1GeDX6WAbp75YwCY_sfV4Slbm9Bvm3Yrw/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1607,11 +1847,11 @@
         <v>8</v>
       </c>
       <c r="F6" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('Astrobot – Industrial Robot &amp; Machine Industry Elementor Template Kit','https://drive.google.com/file/d/1rVE5J-D6Yme3I7-EiYjBK6FH6sVoA1qV/view?usp=drivesdk','https://drive.google.com/file/d/1r6c7mwSG8OhlsUoH3UFnrNh9xofqzDG3/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Dentalkit - Dentist &amp; Medical Service Elementor Template Kit','https://drive.google.com/file/d/1nUzNksBCHcgi8cjV5aUaw_WGiE3k9QbI/view?usp=drivesdk','https://drive.google.com/file/d/1ropYWpCVKl8ZbtKjI8lzBgtcOEZ5yEkr/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1631,11 +1871,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('BetCourse - Sports Betting and Prediction Course Elementor Template Kit','https://drive.google.com/file/d/1W9Lh6it2lQkQjqUk0OkL6w-Ew4cM1AWE/view?usp=drivesdk','https://drive.google.com/file/d/1pHQ8eKCZ8rxVg_O-psGzBWRDVKa8H3Oc/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Digital Realism - NFT Elementor Template Kit','https://drive.google.com/file/d/1NVU4STqpj7U76-EWYnI4sLQgwoTH6GCh/view?usp=drivesdk','https://drive.google.com/file/d/1ux5I3rH6X0kfQnOMGrQdTPMf7zAnSH_q/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1655,11 +1895,11 @@
         <v>8</v>
       </c>
       <c r="F8" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('Bizco - Business Coaching Elementor Template Kit','https://drive.google.com/file/d/1OibUzQ__HOEHHGp34qt2RTWvjB4YQEBy/view?usp=drivesdk','https://drive.google.com/file/d/1oLHzF29M0fD6boRmvY31GqY2lWHUezPD/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Doclean - Carpet Cleaning Services Elementor Template Kit','https://drive.google.com/file/d/1x8W9yHaWsnlygKa9AgXIjsnqfRQiA9Tc/view?usp=drivesdk','https://drive.google.com/file/d/1pBzaLsamwKTcyZ6nPPulX7N64g0vlOij/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1679,11 +1919,11 @@
         <v>8</v>
       </c>
       <c r="F9" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('Boxen - Boxing School &amp; Martial Arts Elementor Template Kit','https://drive.google.com/file/d/1uBhN5apMSEnLNutb1v88NB-R5d8q7Eq0/view?usp=drivesdk','https://drive.google.com/file/d/1aSl1W5rMw9PepB7p-zAwX3UrYBxGJsDO/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Drivale - Driving School Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1EzoCR7WJRnYwCjpfferzT--yOzhtWevZ/view?usp=drivesdk','https://drive.google.com/file/d/1nnTblSVWa9wHom5-DpSs4ln80X5HilWx/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1703,11 +1943,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('Buzzkit - Influencer &amp; Creative Agency Elementor Template Kit','https://drive.google.com/file/d/1zGYA_nnrNKsAaEA5c1AuEyMMCVrABixc/view?usp=drivesdk','https://drive.google.com/file/d/1-bdEvr_SjzIgu-vKXq6V2CivdI-daJZd/view?usp=drivesdk','3','2022-10-6'),</v>
+        <v>('Drive - Car Repair &amp; Auto Service Elementor Template Kit','https://drive.google.com/file/d/1AdchIutQSfiWRHu-gbG0zKBE9attsVjt/view?usp=drivesdk','https://drive.google.com/file/d/1kSsY6VKT8SmUnfEcPgTdOSTzSook5ByK/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1727,311 +1967,491 @@
         <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('Charreria - Horse Riding Club Elementor Template Kit','https://drive.google.com/file/d/19uaWqb36sd8Yb851AzuFOKxSK-AdSudv/view?usp=drivesdk','https://drive.google.com/file/d/1eg4S41NveuXU0bnj5NQO2r8ankk7du4J/view?usp=drivesdk','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>('Duchess - Chess Club &amp; Tournament Elementor Template Kit','https://drive.google.com/file/d/1XwVm4DLQ7pCPiGSBzH1ObHf41ksebeow/view?usp=drivesdk','https://drive.google.com/file/d/1pfMsyH9MPhpiKjFzZrEod9d_olsN2gGK/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>('Duid - Personal Financial Consultant Service Elementor Template Kit','https://drive.google.com/file/d/1zKEwOfMGKJcLfWPkVTBOOl8WKFV4b34c/view?usp=drivesdk','https://drive.google.com/file/d/1rQgtgv5fCqLXdK8NeKYCcC_zdYzmsBE3/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>('Edan - Human Psychology &amp; Consultant Elementor Template Kit','https://drive.google.com/file/d/1u1xY4r3E0Abu98eU9EzfqR1XMqJW4Zqd/view?usp=drivesdk','https://drive.google.com/file/d/159fUHxM-izOGyQRigEYWQ4ljajdkiM8A/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>('Electriz - Electrical Installation &amp; Maintenance Service Elementor Template Kit','https://drive.google.com/file/d/15tAeqL4woQC4rOmPYDugk3fDgC6FeO74/view?usp=drivesdk','https://drive.google.com/file/d/1Y8sJl8sEjuzBsegfFYOsT7fAW4k01TFN/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>('ElectroDeals - Woocommerce Electronic Store Elementor Template Kit','https://drive.google.com/file/d/1VIPGnZgbrPLQpPXily6rgc5QBJGyMEGZ/view?usp=drivesdk','https://drive.google.com/file/d/1yUPRLTXj6OqcbLlsFOH8bwHGtCb26915/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>('Elix - Responsive Multipurpose Creative Business Template Kit','https://drive.google.com/file/d/1L1ja_HIJRM5BjfLHEmgp4GEsxfACIUm8/view?usp=drivesdk','https://drive.google.com/file/d/13Yt0Jpj-0vr7DDumN0k9ZP5lqWS_aB-o/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>('Evex - Heat Pumps &amp; Renewable Energy Elementor Template Kit','https://drive.google.com/file/d/1eY76xIcOY_pwx_ju_kDIuSD9WIoXfqCw/view?usp=drivesdk','https://drive.google.com/file/d/199NLd1Q1ZNxpYNc3r7p1JKvNTPSSMt1Z/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>('Farmacy – Pharmacy &amp; Medical Store Elementor Template Kit','https://drive.google.com/file/d/1bY7bZBXjr1pjn22CYtNAPIlv_emeVNx8/view?usp=drivesdk','https://drive.google.com/file/d/1boTiX0KZY89A39LWSOUrC1Xt0VoaMq-K/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>('Fashway - NFT Portfolio Elementor Template Kit','https://drive.google.com/file/d/1zqrAmBBlgxFRgkT_wxmw2aJSR-3F7jC1/view?usp=drivesdk','https://drive.google.com/file/d/1-2h9ttZp0_6ng3Q9qou9_WlpVNgJGCFn/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>('Felicity - SEO &amp; Digital Marketing Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1u8julFwqcHPDI5eaNpsoaq8h5SWHfoMc/view?usp=drivesdk','https://drive.google.com/file/d/1dx3jrdcu1W9mW08Q5ml6GnM7crDzUd3e/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>('Fulhome - Home Renovations &amp; Repair Company Elementor Pro Template Kit','https://drive.google.com/file/d/1tBzxOkLEdcJEssHWvFo1uCfvK3kVpb2q/view?usp=drivesdk','https://drive.google.com/file/d/1ldhxX_9xik_Z2WlMEOZ7tz63fQE-N221/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>('Furniti - Furniture &amp; Home Decor Store Elementor Pro Template Kit','https://drive.google.com/file/d/1unpFnWFS4cjVR1901ol1YGwmDSejenfq/view?usp=drivesdk','https://drive.google.com/file/d/19rnNnuRUibI-_8J0qlhzZInxOMxX7_XP/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>('Getfire - Firefighter Department Elementor Template Kit','https://drive.google.com/file/d/13bUg6fyzkc-S4otMwHcK_5FFmwf_fEpQ/view?usp=drivesdk','https://drive.google.com/file/d/1n21NVq8flZQczqNhXqppLUmRsng7y-ox/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>('Glib - NFT Marketplace Elementor Pro Template Kit','https://drive.google.com/file/d/1lMr74Ss4Eg2vPGSVs7kYWSre0P0eaGNR/view?usp=drivesdk','https://drive.google.com/file/d/1eeHpCFsjW8FaUjPiRHTN2ZixM5Iqbv6E/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>('Gutama – Music Composer &amp; Producer Elementor Template Kit','https://drive.google.com/file/d/1QaKFAhZhl6sllI1VKXFiNAWNtho-AXaV/view?usp=drivesdk','https://drive.google.com/file/d/1hpYa3JrtWZlbMzUAOm2KHjH3828wqn6V/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>('Homerun – Baseball Team &amp; Sports Club Elementor Template Kit','https://drive.google.com/file/d/1oTGWzPac7pp4u_1XzvGgjUeEEzawWOuK/view?usp=drivesdk','https://drive.google.com/file/d/1Ikh2M4iJBNnpHy1jiWA0R_B1uPtir7iS/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+        <v>('Housec - Smart Home Security Service Elementor Template Kit','https://drive.google.com/file/d/16-f887z2jHXJ8lZxKNCMBCnZ3wqyfJwA/view?usp=drivesdk','https://drive.google.com/file/d/1rCFigdTaGOzxmyDsOs1k2vruUkz6Ws_M/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>('Hozta - Web Hosting Service Elementor Template Kit','https://drive.google.com/file/d/1pHcK8TL_Dy8W_YtDd7YKdbdCRA4b7Zr4/view?usp=drivesdk','https://drive.google.com/file/d/16ZoHjylpdCUVP08DmcR2LaC2pQA_49em/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+        <v>('Hypebeat - Influencer Marketing Agency Elementor Pro Full Site Template Kit','https://drive.google.com/file/d/1vykWmUpBqWlNLBO8mKsJ0xuJI2P7uL1A/view?usp=drivesdk','https://drive.google.com/file/d/1B-v5dvxi8r5eu456J1KC3OSpdDpEqog1/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>('Jack.Dir - Personal Design Portfolio Elementor Template Kit','https://drive.google.com/file/d/1Lr93MubMQOb2sjlirVvYTWXH_c-DYKUA/view?usp=drivesdk','https://drive.google.com/file/d/1Pj2etUj042kh_tO5qoAeqR592eZZ_3w8/view?usp=drivesdk','3','2022-10-9'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>('','','','3','2022-10-6'),</v>
+        <v>('Joran - Fishing Club Elementor Template Kit','https://drive.google.com/file/d/1ZetlpAdUrYvhFLme5wft4BFsMH_3vZiL/view?usp=drivesdk','https://drive.google.com/file/d/1Ul2pZy1P9f8-osA7QiDJcfANKA_HD0vD/view?usp=drivesdk','3','2022-10-9'),</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -2157,13 +2577,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2171,10 +2591,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D51" si="0">"('"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
@@ -2186,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2201,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2216,10 +2636,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2231,10 +2651,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2246,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2261,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2276,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2291,10 +2711,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2306,10 +2726,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2321,10 +2741,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2336,10 +2756,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2351,10 +2771,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2366,10 +2786,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2381,10 +2801,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2396,10 +2816,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2411,10 +2831,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2426,10 +2846,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2441,10 +2861,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2456,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2471,10 +2891,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2486,10 +2906,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2501,10 +2921,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2516,10 +2936,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2531,10 +2951,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2546,10 +2966,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2561,10 +2981,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2576,10 +2996,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2591,10 +3011,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2606,10 +3026,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2621,10 +3041,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2636,10 +3056,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2651,10 +3071,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2666,10 +3086,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2681,10 +3101,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2696,10 +3116,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2711,10 +3131,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2726,10 +3146,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2741,10 +3161,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2756,10 +3176,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2771,10 +3191,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2786,10 +3206,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2801,10 +3221,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2816,10 +3236,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2831,10 +3251,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2846,10 +3266,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2861,10 +3281,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2876,10 +3296,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -2891,10 +3311,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -2906,10 +3326,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3189,178 +3609,178 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
